--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\Python Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F436B4-0ADE-46A6-B206-F2D22134B6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462387F0-D476-4252-BA36-BAECF3B5542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="615">
   <si>
     <t>item.name</t>
   </si>
@@ -968,9 +968,6 @@
     <t>/groceries/food-cupboard/breakfast/honey-jam-other-spreads/honey/to-tziverti-wildflower-honey-500-g</t>
   </si>
   <si>
-    <t>/groceries/food-cupboard/breakfast/honey-jam-other-spreads/jam/casino-jam-with-4-fruits-370-g</t>
-  </si>
-  <si>
     <t>/groceries/food-cupboard/breakfast/honey-jam-other-spreads/chocolate-spreads/nutella-hazelnut-spread-200-g</t>
   </si>
   <si>
@@ -1173,9 +1170,6 @@
   </si>
   <si>
     <t>/groceries/food-cupboard/home-baking/syrups/amalia-water-with-bitter-orange-flavour-500-ml</t>
-  </si>
-  <si>
-    <t>/groceries/fresh-food/fresh-vegetables/local-avocado-700-g</t>
   </si>
   <si>
     <t>/groceries/fresh-food/fresh-vegetables/garlic-70-g</t>
@@ -1395,9 +1389,6 @@
 ΑΛΦΑΜΕΓΑΣπαγγέτι500g</t>
   </si>
   <si>
-    <t>/groceries/food-cupboard/breakfast/cereals-muesli-oats/quaker-cereal-clusters-with-oat-milk-chocolate-450-g</t>
-  </si>
-  <si>
     <t>QuakerΤραγανέςΜπουκιέςΔημητριακάμεΒρώμη&amp;ΣοκολάταΓάλακτος450g</t>
   </si>
   <si>
@@ -1599,12 +1590,6 @@
     <t>PUMAΓυναικείο T-Shirt Train Favorite Jersey Cat</t>
   </si>
   <si>
-    <t>NIKEΓυναικείο T-shirt Dri-FIT Academy</t>
-  </si>
-  <si>
-    <t>/gynaikeia/rouxa/mplouzes-t-shirts/t-shirts-konto-maniki/nike-w-w-nk-df-acd23-top-ss-branded_877187/</t>
-  </si>
-  <si>
     <t>/gynaikeia/rouxa/kolan/crop/nike-w-nk-df-fast-mr-7-8-tght-nv_877097/</t>
   </si>
   <si>
@@ -1768,6 +1753,132 @@
   </si>
   <si>
     <t>/products/reebok-men-flexagon-force-4-training-shoes-hr0404</t>
+  </si>
+  <si>
+    <t>adidas women train essentials brand love high-waisted full-l</t>
+  </si>
+  <si>
+    <t>Athlokinisi</t>
+  </si>
+  <si>
+    <t>PUMA ESSENTIALS 10" MENS SHORTS</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=111601&amp;type=groups</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=158374&amp;type=groups</t>
+  </si>
+  <si>
+    <t>ADIDAS SPRINTER SHORTS</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=89225&amp;type=groups</t>
+  </si>
+  <si>
+    <t>NORTH FACE MENS SIMPLE DOME TEE</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=44835&amp;type=groups</t>
+  </si>
+  <si>
+    <t>NIKE DRY MILLER TOP SS MENS</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=120152&amp;type=groups</t>
+  </si>
+  <si>
+    <t>PUMA CA PRO CLASSIC SHOES</t>
+  </si>
+  <si>
+    <t>NIKE AIR MAX DAWN MENS SHOES</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=132871&amp;type=groups</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=158094&amp;type=groups</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=156843&amp;type=groups</t>
+  </si>
+  <si>
+    <t>ADIDAS OPT ST 78 TIG</t>
+  </si>
+  <si>
+    <t>ADIDAS W WINRS TEE</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=158009&amp;type=groups</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=157581&amp;type=groups</t>
+  </si>
+  <si>
+    <t>PUMA DARE TO FEELIN XTRA WOMENS OVERSIZED TEE</t>
+  </si>
+  <si>
+    <t>PUMA ESS+ LOVE IS LOVE RELAXED TEE</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=157584&amp;type=groups</t>
+  </si>
+  <si>
+    <t>NIKE AIR MAX SC WOMEN SNEAKERS</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=129834&amp;type=groups</t>
+  </si>
+  <si>
+    <t>NIKE JORDAN LITTLE KIDSAIR GRAPHIC CREW SET</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=121666&amp;type=groups</t>
+  </si>
+  <si>
+    <t>NIKE LITTLE GIRLS BOXY TEE &amp; BIKE SHORT SET</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=155090&amp;type=groups</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=157383&amp;type=groups</t>
+  </si>
+  <si>
+    <t>ADIDAS FORUM LOW C</t>
+  </si>
+  <si>
+    <t>SKECHERS GIRLS FLUTTER HEART - LOVE LIGHT SHOES</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=157292&amp;type=groups</t>
+  </si>
+  <si>
+    <t>ADIDAS LIGHT NOSH 3-PAIRS</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=109405&amp;type=groups</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=96595&amp;type=groups</t>
+  </si>
+  <si>
+    <t>ADIDAS BASEB CLASS TRE</t>
+  </si>
+  <si>
+    <t>/gynaikeia/rouxa/mplouzes-t-shirts/t-shirts-konto-maniki/nike-gynaikeio-t-shirt-court-dri-fit-victory_769928/</t>
+  </si>
+  <si>
+    <t>NIKEΓυναικείο T-shirt Court Dri-FIT Victory</t>
+  </si>
+  <si>
+    <t>/groceries/food-cupboard/breakfast/cereals-muesli-oats/quaker-cereal-clusters-with-oat-chocolate-450-g</t>
+  </si>
+  <si>
+    <t>/groceries/food-cupboard/breakfast/honey-jam-other-spreads/jam/casino-strawberry-jam-370-g</t>
+  </si>
+  <si>
+    <t>/groceries/fresh-food/fresh-vegetables/avocado-700-g</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="55" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="55" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2517,10 +2628,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>453</v>
+        <v>612</v>
       </c>
       <c r="C24" t="s">
         <v>203</v>
@@ -2713,10 +2824,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C38" t="s">
         <v>204</v>
@@ -2811,7 +2922,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>280</v>
@@ -2825,7 +2936,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>281</v>
@@ -2839,10 +2950,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
@@ -3262,7 +3373,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>311</v>
+        <v>613</v>
       </c>
       <c r="C77" t="s">
         <v>208</v>
@@ -3276,7 +3387,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C78" t="s">
         <v>208</v>
@@ -3290,7 +3401,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
         <v>208</v>
@@ -3304,7 +3415,7 @@
         <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
         <v>208</v>
@@ -3318,7 +3429,7 @@
         <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -3332,7 +3443,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C82" t="s">
         <v>209</v>
@@ -3346,7 +3457,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C83" t="s">
         <v>209</v>
@@ -3360,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C84" t="s">
         <v>209</v>
@@ -3374,7 +3485,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C85" t="s">
         <v>209</v>
@@ -3388,7 +3499,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s">
         <v>209</v>
@@ -3402,7 +3513,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C87" t="s">
         <v>209</v>
@@ -3416,7 +3527,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C88" t="s">
         <v>209</v>
@@ -3430,7 +3541,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C89" t="s">
         <v>209</v>
@@ -3444,7 +3555,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
         <v>209</v>
@@ -3458,7 +3569,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C91" t="s">
         <v>209</v>
@@ -3472,7 +3583,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C92" t="s">
         <v>210</v>
@@ -3486,7 +3597,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C93" t="s">
         <v>210</v>
@@ -3500,7 +3611,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
         <v>210</v>
@@ -3514,7 +3625,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s">
         <v>211</v>
@@ -3528,7 +3639,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C96" t="s">
         <v>211</v>
@@ -3542,7 +3653,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
         <v>211</v>
@@ -3556,7 +3667,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
         <v>211</v>
@@ -3570,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C99" t="s">
         <v>212</v>
@@ -3584,7 +3695,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C100" t="s">
         <v>212</v>
@@ -3598,7 +3709,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
         <v>212</v>
@@ -3612,7 +3723,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C102" t="s">
         <v>212</v>
@@ -3626,7 +3737,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C103" t="s">
         <v>213</v>
@@ -3640,7 +3751,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C104" t="s">
         <v>213</v>
@@ -3654,7 +3765,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C105" t="s">
         <v>213</v>
@@ -3668,7 +3779,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C106" t="s">
         <v>213</v>
@@ -3682,7 +3793,7 @@
         <v>232</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C107" t="s">
         <v>214</v>
@@ -3696,7 +3807,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
         <v>214</v>
@@ -3710,7 +3821,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C109" t="s">
         <v>214</v>
@@ -3724,7 +3835,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C110" t="s">
         <v>214</v>
@@ -3738,7 +3849,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C111" t="s">
         <v>214</v>
@@ -3752,7 +3863,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C112" t="s">
         <v>214</v>
@@ -3766,7 +3877,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C113" t="s">
         <v>215</v>
@@ -3780,7 +3891,7 @@
         <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C114" t="s">
         <v>215</v>
@@ -3794,7 +3905,7 @@
         <v>233</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C115" t="s">
         <v>215</v>
@@ -3805,10 +3916,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C116" t="s">
         <v>215</v>
@@ -3822,7 +3933,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C117" t="s">
         <v>215</v>
@@ -3836,7 +3947,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C118" t="s">
         <v>215</v>
@@ -3850,7 +3961,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C119" t="s">
         <v>216</v>
@@ -3864,7 +3975,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C120" t="s">
         <v>216</v>
@@ -3878,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C121" t="s">
         <v>216</v>
@@ -3892,7 +4003,7 @@
         <v>234</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C122" t="s">
         <v>216</v>
@@ -3906,7 +4017,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C123" t="s">
         <v>216</v>
@@ -3920,10 +4031,13 @@
         <v>15</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
         <v>217</v>
+      </c>
+      <c r="D124" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3931,7 +4045,7 @@
         <v>14</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C125" t="s">
         <v>217</v>
@@ -3945,7 +4059,7 @@
         <v>235</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C126" t="s">
         <v>217</v>
@@ -3956,10 +4070,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C127" t="s">
         <v>217</v>
@@ -3970,10 +4084,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C128" t="s">
         <v>217</v>
@@ -3987,7 +4101,7 @@
         <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C129" t="s">
         <v>217</v>
@@ -4001,7 +4115,7 @@
         <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C130" t="s">
         <v>217</v>
@@ -4015,7 +4129,7 @@
         <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C131" t="s">
         <v>217</v>
@@ -4029,7 +4143,7 @@
         <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C132" t="s">
         <v>23</v>
@@ -4043,7 +4157,7 @@
         <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C133" t="s">
         <v>218</v>
@@ -4057,7 +4171,7 @@
         <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C134" t="s">
         <v>218</v>
@@ -4071,7 +4185,7 @@
         <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C135" t="s">
         <v>218</v>
@@ -4085,7 +4199,7 @@
         <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C136" t="s">
         <v>218</v>
@@ -4099,7 +4213,7 @@
         <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C137" t="s">
         <v>218</v>
@@ -4113,7 +4227,7 @@
         <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C138" t="s">
         <v>218</v>
@@ -4127,7 +4241,7 @@
         <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C139" t="s">
         <v>24</v>
@@ -4141,7 +4255,7 @@
         <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C140" t="s">
         <v>24</v>
@@ -4155,7 +4269,7 @@
         <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C141" t="s">
         <v>219</v>
@@ -4169,7 +4283,7 @@
         <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C142" t="s">
         <v>219</v>
@@ -4183,7 +4297,7 @@
         <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C143" t="s">
         <v>219</v>
@@ -4197,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C144" t="s">
         <v>219</v>
@@ -4211,7 +4325,7 @@
         <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C145" t="s">
         <v>219</v>
@@ -4225,7 +4339,7 @@
         <v>17</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C146" t="s">
         <v>219</v>
@@ -4239,7 +4353,7 @@
         <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C147" t="s">
         <v>219</v>
@@ -4253,7 +4367,7 @@
         <v>18</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
         <v>219</v>
@@ -4267,7 +4381,7 @@
         <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C149" t="s">
         <v>219</v>
@@ -4281,7 +4395,7 @@
         <v>140</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C150" t="s">
         <v>220</v>
@@ -4295,7 +4409,7 @@
         <v>19</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C151" t="s">
         <v>220</v>
@@ -4309,7 +4423,7 @@
         <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C152" t="s">
         <v>220</v>
@@ -4323,7 +4437,7 @@
         <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C153" t="s">
         <v>220</v>
@@ -4337,7 +4451,7 @@
         <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C154" t="s">
         <v>220</v>
@@ -4351,7 +4465,7 @@
         <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C155" t="s">
         <v>220</v>
@@ -4365,7 +4479,7 @@
         <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C156" t="s">
         <v>220</v>
@@ -4379,7 +4493,7 @@
         <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
       <c r="C157" t="s">
         <v>220</v>
@@ -4393,7 +4507,7 @@
         <v>236</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s">
         <v>220</v>
@@ -4407,7 +4521,7 @@
         <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C159" t="s">
         <v>220</v>
@@ -4421,7 +4535,7 @@
         <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C160" t="s">
         <v>220</v>
@@ -4435,7 +4549,7 @@
         <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C161" t="s">
         <v>25</v>
@@ -4449,7 +4563,7 @@
         <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C162" t="s">
         <v>221</v>
@@ -4463,7 +4577,7 @@
         <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C163" t="s">
         <v>221</v>
@@ -4477,7 +4591,7 @@
         <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C164" t="s">
         <v>221</v>
@@ -4491,7 +4605,7 @@
         <v>237</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C165" t="s">
         <v>221</v>
@@ -4502,10 +4616,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C166" t="s">
         <v>221</v>
@@ -4519,7 +4633,7 @@
         <v>155</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C167" t="s">
         <v>221</v>
@@ -4533,7 +4647,7 @@
         <v>156</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C168" t="s">
         <v>221</v>
@@ -4547,7 +4661,7 @@
         <v>157</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C169" t="s">
         <v>221</v>
@@ -4561,7 +4675,7 @@
         <v>158</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C170" t="s">
         <v>221</v>
@@ -4575,7 +4689,7 @@
         <v>159</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C171" t="s">
         <v>221</v>
@@ -4589,7 +4703,7 @@
         <v>160</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C172" t="s">
         <v>221</v>
@@ -4603,7 +4717,7 @@
         <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C173" t="s">
         <v>221</v>
@@ -4617,7 +4731,7 @@
         <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C174" t="s">
         <v>26</v>
@@ -4631,7 +4745,7 @@
         <v>163</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C175" t="s">
         <v>26</v>
@@ -4645,7 +4759,7 @@
         <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C176" t="s">
         <v>26</v>
@@ -4659,7 +4773,7 @@
         <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C177" t="s">
         <v>222</v>
@@ -4673,7 +4787,7 @@
         <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -4684,10 +4798,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -4701,7 +4815,7 @@
         <v>167</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C180" t="s">
         <v>223</v>
@@ -4715,7 +4829,7 @@
         <v>168</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C181" t="s">
         <v>224</v>
@@ -4726,10 +4840,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C182" t="s">
         <v>225</v>
@@ -4740,10 +4854,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C183" t="s">
         <v>225</v>
@@ -4754,10 +4868,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C184" t="s">
         <v>225</v>
@@ -4771,7 +4885,7 @@
         <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C185" t="s">
         <v>225</v>
@@ -4785,7 +4899,7 @@
         <v>193</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C186" t="s">
         <v>226</v>
@@ -4799,7 +4913,7 @@
         <v>194</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C187" t="s">
         <v>226</v>
@@ -4813,7 +4927,7 @@
         <v>195</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C188" t="s">
         <v>227</v>
@@ -4827,7 +4941,7 @@
         <v>196</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C189" t="s">
         <v>227</v>
@@ -4841,7 +4955,7 @@
         <v>238</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C190" t="s">
         <v>227</v>
@@ -4855,7 +4969,7 @@
         <v>198</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C191" t="s">
         <v>227</v>
@@ -4869,7 +4983,7 @@
         <v>197</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C192" t="s">
         <v>227</v>
@@ -4883,7 +4997,7 @@
         <v>199</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C193" t="s">
         <v>227</v>
@@ -4897,7 +5011,7 @@
         <v>200</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C194" t="s">
         <v>228</v>
@@ -4911,7 +5025,7 @@
         <v>201</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C195" t="s">
         <v>228</v>
@@ -4925,7 +5039,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -4939,7 +5053,7 @@
         <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -4953,7 +5067,7 @@
         <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -4967,7 +5081,7 @@
         <v>173</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -4981,7 +5095,7 @@
         <v>174</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -4995,7 +5109,7 @@
         <v>175</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -5009,7 +5123,7 @@
         <v>176</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -5023,7 +5137,7 @@
         <v>177</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -5037,7 +5151,7 @@
         <v>178</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C204" t="s">
         <v>229</v>
@@ -5051,7 +5165,7 @@
         <v>179</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C205" t="s">
         <v>229</v>
@@ -5065,7 +5179,7 @@
         <v>180</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C206" t="s">
         <v>229</v>
@@ -5079,7 +5193,7 @@
         <v>181</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C207" t="s">
         <v>229</v>
@@ -5093,7 +5207,7 @@
         <v>182</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C208" t="s">
         <v>229</v>
@@ -5107,7 +5221,7 @@
         <v>183</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C209" t="s">
         <v>229</v>
@@ -5121,7 +5235,7 @@
         <v>184</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C210" t="s">
         <v>30</v>
@@ -5132,744 +5246,996 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B211" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C211" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D211" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B212" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C212" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D212" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B213" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C213" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D213" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B214" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C214" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D214" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B215" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C215" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D215" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B216" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C216" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D216" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B217" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C217" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D217" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B218" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C218" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D218" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B219" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C219" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D219" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B220" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C220" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D220" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B221" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C221" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D221" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B222" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C222" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D222" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B223" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C223" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D223" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B224" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C224" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D224" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B225" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C225" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D225" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B226" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C226" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D226" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B227" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C227" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D227" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B228" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C228" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D228" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B229" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C229" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D229" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B230" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C230" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D230" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B231" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C231" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D231" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B232" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C232" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D232" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B233" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C233" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D233" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B234" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C234" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D234" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>521</v>
+        <v>611</v>
       </c>
       <c r="B235" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
       <c r="C235" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D235" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B236" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C236" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D236" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B237" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C237" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D237" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B238" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C238" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D238" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B239" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C239" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D239" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B240" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C240" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D240" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B241" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D241" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B242" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C242" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D242" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B243" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C243" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D243" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B244" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C244" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D244" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B245" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C245" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D245" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B246" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C246" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D246" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B247" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C247" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D247" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B248" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C248" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D248" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B249" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C249" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D249" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B250" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C250" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D250" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B251" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C251" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D251" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B252" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C252" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D252" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B253" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C253" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D253" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="B254" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C254" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D254" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B255" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C255" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D255" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B256" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C256" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D256" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B257" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C257" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D257" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B258" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C258" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D258" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B259" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C259" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D259" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B260" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C260" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D260" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B261" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C261" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D261" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B262" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C262" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D262" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
+        <v>571</v>
+      </c>
+      <c r="B263" t="s">
+        <v>570</v>
+      </c>
+      <c r="C263" t="s">
+        <v>503</v>
+      </c>
+      <c r="D263" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>575</v>
+      </c>
+      <c r="B264" t="s">
         <v>576</v>
       </c>
-      <c r="B263" t="s">
-        <v>575</v>
-      </c>
-      <c r="C263" t="s">
-        <v>506</v>
-      </c>
-      <c r="D263" t="s">
-        <v>541</v>
+      <c r="C264" t="s">
+        <v>467</v>
+      </c>
+      <c r="D264" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>578</v>
+      </c>
+      <c r="B265" t="s">
+        <v>577</v>
+      </c>
+      <c r="C265" t="s">
+        <v>467</v>
+      </c>
+      <c r="D265" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>580</v>
+      </c>
+      <c r="B266" t="s">
+        <v>579</v>
+      </c>
+      <c r="C266" t="s">
+        <v>467</v>
+      </c>
+      <c r="D266" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>582</v>
+      </c>
+      <c r="B267" t="s">
+        <v>581</v>
+      </c>
+      <c r="C267" t="s">
+        <v>467</v>
+      </c>
+      <c r="D267" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>584</v>
+      </c>
+      <c r="B268" t="s">
+        <v>583</v>
+      </c>
+      <c r="C268" t="s">
+        <v>468</v>
+      </c>
+      <c r="D268" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>585</v>
+      </c>
+      <c r="B269" t="s">
+        <v>586</v>
+      </c>
+      <c r="C269" t="s">
+        <v>468</v>
+      </c>
+      <c r="D269" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>586</v>
+      </c>
+      <c r="B270" t="s">
+        <v>587</v>
+      </c>
+      <c r="C270" t="s">
+        <v>469</v>
+      </c>
+      <c r="D270" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>589</v>
+      </c>
+      <c r="B271" t="s">
+        <v>588</v>
+      </c>
+      <c r="C271" t="s">
+        <v>469</v>
+      </c>
+      <c r="D271" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>590</v>
+      </c>
+      <c r="B272" t="s">
+        <v>591</v>
+      </c>
+      <c r="C272" t="s">
+        <v>469</v>
+      </c>
+      <c r="D272" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>593</v>
+      </c>
+      <c r="B273" t="s">
+        <v>592</v>
+      </c>
+      <c r="C273" t="s">
+        <v>469</v>
+      </c>
+      <c r="D273" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>594</v>
+      </c>
+      <c r="B274" t="s">
+        <v>595</v>
+      </c>
+      <c r="C274" t="s">
+        <v>469</v>
+      </c>
+      <c r="D274" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>596</v>
+      </c>
+      <c r="B275" t="s">
+        <v>597</v>
+      </c>
+      <c r="C275" t="s">
+        <v>470</v>
+      </c>
+      <c r="D275" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>598</v>
+      </c>
+      <c r="B276" t="s">
+        <v>599</v>
+      </c>
+      <c r="C276" t="s">
+        <v>471</v>
+      </c>
+      <c r="D276" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>600</v>
+      </c>
+      <c r="B277" t="s">
+        <v>601</v>
+      </c>
+      <c r="C277" t="s">
+        <v>471</v>
+      </c>
+      <c r="D277" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>603</v>
+      </c>
+      <c r="B278" t="s">
+        <v>602</v>
+      </c>
+      <c r="C278" t="s">
+        <v>472</v>
+      </c>
+      <c r="D278" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>604</v>
+      </c>
+      <c r="B279" t="s">
+        <v>605</v>
+      </c>
+      <c r="C279" t="s">
+        <v>472</v>
+      </c>
+      <c r="D279" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>606</v>
+      </c>
+      <c r="B280" t="s">
+        <v>607</v>
+      </c>
+      <c r="C280" t="s">
+        <v>503</v>
+      </c>
+      <c r="D280" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>609</v>
+      </c>
+      <c r="B281" t="s">
+        <v>608</v>
+      </c>
+      <c r="C281" t="s">
+        <v>503</v>
+      </c>
+      <c r="D281" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\Python Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462387F0-D476-4252-BA36-BAECF3B5542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8C5B0-C604-4D1E-A6C8-43E26C87E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="841">
   <si>
     <t>item.name</t>
   </si>
@@ -1879,6 +1879,771 @@
   </si>
   <si>
     <t>/groceries/fresh-food/fresh-vegetables/avocado-700-g</t>
+  </si>
+  <si>
+    <t>AWOL</t>
+  </si>
+  <si>
+    <t>Bicycles</t>
+  </si>
+  <si>
+    <t>Tyres</t>
+  </si>
+  <si>
+    <t>Lubricants</t>
+  </si>
+  <si>
+    <t>Maintenance and repair of personal transport equipment</t>
+  </si>
+  <si>
+    <t>/collections/mountain-bikes/products/specialized-rockhopper-29</t>
+  </si>
+  <si>
+    <t>/collections/mountain-bikes/products/orbea-onna-29-50</t>
+  </si>
+  <si>
+    <t>/collections/mtb-tyres/products/continental-race-king-foldable</t>
+  </si>
+  <si>
+    <t>/products/continental-cross-king?variant=37084612133018</t>
+  </si>
+  <si>
+    <t>/collections/mtb-tyres/products/specialized-fast-track-sport</t>
+  </si>
+  <si>
+    <t>/collections/mtb-tyres/products/specialized-fast-track-2bliss-ready</t>
+  </si>
+  <si>
+    <t>/collections/lubes-and-grease/products/barbiery-bicy-clean-750ml</t>
+  </si>
+  <si>
+    <t>/collections/puncture-repair/products/barbieri-tubeless-kit</t>
+  </si>
+  <si>
+    <t>SPECIALIZED - ROCKHOPPER 29''</t>
+  </si>
+  <si>
+    <t>ORBEA - ONNA 29 50 - 2023</t>
+  </si>
+  <si>
+    <t>CONTINENTAL - RACE KING RACESPORT MTB FOLDING TIRE</t>
+  </si>
+  <si>
+    <t>CONTINENTAL - CROSS KING PERFORMANCE MTB-WIRE BEAD TIRE</t>
+  </si>
+  <si>
+    <t>SPECIALIZED - FAST TRAK SPORT</t>
+  </si>
+  <si>
+    <t>SPECIALIZED - FAST TRACK 2BLISS READY - TAN SIDEWALL</t>
+  </si>
+  <si>
+    <t>BARBIERI - BICY CLEAN 750ML</t>
+  </si>
+  <si>
+    <t>BARBIERI - REPAIR KIT FOR TUBELESS</t>
+  </si>
+  <si>
+    <t>MotoRace</t>
+  </si>
+  <si>
+    <t>Motor cycles</t>
+  </si>
+  <si>
+    <t>Spare parts for personal transport equipment</t>
+  </si>
+  <si>
+    <t>KTM 50 SX 2023</t>
+  </si>
+  <si>
+    <t>KTM 390 ADVENTURE 2022 - Black</t>
+  </si>
+  <si>
+    <t>KENDA K673 KRUZ TL - FRONT</t>
+  </si>
+  <si>
+    <t>KENDA K673 KRUZ TL - REAR</t>
+  </si>
+  <si>
+    <t>BRENTA - SEMI METALLIC PAD - 621SM1/FA115</t>
+  </si>
+  <si>
+    <t>RK Standard Drive Chain  420 x 110 Link</t>
+  </si>
+  <si>
+    <t>Black Sport Mirror Set 006-8MM-R/R</t>
+  </si>
+  <si>
+    <t>Yuasa Battery 6N4-2A-4</t>
+  </si>
+  <si>
+    <t>Progrip PG2500 Fork Boots-Blue</t>
+  </si>
+  <si>
+    <t>ARROW STAINLESS STEEL CLAMP PROTECTION</t>
+  </si>
+  <si>
+    <t>Motorex Four Stroke 4T 15W/50 - 1L</t>
+  </si>
+  <si>
+    <t>Motorex Chain Clean Degreaser Spray  - 500ML</t>
+  </si>
+  <si>
+    <t>Motorex Brake Fluid Dot 5.1 - 250ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thumbs up - Tyre Repair Kit </t>
+  </si>
+  <si>
+    <t>/ktm-50-sx-2023.html</t>
+  </si>
+  <si>
+    <t>/yuasa-battery-6n4-2a-4.html</t>
+  </si>
+  <si>
+    <t>/ktm-rc-390-orange-2023.html</t>
+  </si>
+  <si>
+    <t>/kenda-k673-kruz-tl-front.html</t>
+  </si>
+  <si>
+    <t>/kenda-k673-kruz-tl-rear.html</t>
+  </si>
+  <si>
+    <t>/brenta-semi-metallic-pad-621sm1-fa115.html</t>
+  </si>
+  <si>
+    <t>/progrip-pg2500-fork-boots-blue.html</t>
+  </si>
+  <si>
+    <t>/arrow-stainless-steel-clamp-protection.html</t>
+  </si>
+  <si>
+    <t>/rk-420-sb-chain-110l-clip.html</t>
+  </si>
+  <si>
+    <t>/catalog/product/view/id/8215/s/black-sport-mirror-set-006-8mm-r-r/category/90/</t>
+  </si>
+  <si>
+    <t>/motorex-four-stroke-4t-engine-oil-15w-50-1l.html</t>
+  </si>
+  <si>
+    <t>/motorex-chain-clean-degreaser.html</t>
+  </si>
+  <si>
+    <t>/brake-fluid-dot-5-1-250ml.html</t>
+  </si>
+  <si>
+    <t>/thumbs-up-tyre-repair-kit-1.html</t>
+  </si>
+  <si>
+    <t>Stephanis</t>
+  </si>
+  <si>
+    <t>Refrigerators, freezers and fridge-freezers</t>
+  </si>
+  <si>
+    <t>Clothes washing machines, clothes drying machines and dish washing machines</t>
+  </si>
+  <si>
+    <t>Cookers</t>
+  </si>
+  <si>
+    <t>Heaters, air conditioners</t>
+  </si>
+  <si>
+    <t>Cleaning equipment</t>
+  </si>
+  <si>
+    <t>Food processing appliances</t>
+  </si>
+  <si>
+    <t>Coffee machines, tea makers and similar appliances</t>
+  </si>
+  <si>
+    <t>Irons</t>
+  </si>
+  <si>
+    <t>Toasters and grills</t>
+  </si>
+  <si>
+    <t>Mobile telephone equipment</t>
+  </si>
+  <si>
+    <t>Equipment for the reception, recording and reproduction of sound and vision</t>
+  </si>
+  <si>
+    <t>Equipment for the reception, recording and reproduction of sound</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>Personal computers</t>
+  </si>
+  <si>
+    <t>Accessories for information processing equipment</t>
+  </si>
+  <si>
+    <t>Equipment for sport</t>
+  </si>
+  <si>
+    <t>Games and hobbies</t>
+  </si>
+  <si>
+    <t>Toys and celebration articles</t>
+  </si>
+  <si>
+    <t>Educational text books</t>
+  </si>
+  <si>
+    <t>Miscellaneous printer matter</t>
+  </si>
+  <si>
+    <t>Paper products</t>
+  </si>
+  <si>
+    <t>Electric appliances for personal care</t>
+  </si>
+  <si>
+    <t>Clocks and watches</t>
+  </si>
+  <si>
+    <t>Refrigerator TESLA RD2101H1 white</t>
+  </si>
+  <si>
+    <t>Freezer BOSCH GSV24VWEV white</t>
+  </si>
+  <si>
+    <t>Ψυγειοκαταψύκτης TESLA RS2300H1 άσπρο</t>
+  </si>
+  <si>
+    <t>Washing machine TESLA WF61062M white</t>
+  </si>
+  <si>
+    <t>Πλυντήριο πιάτων TESLA WD631M άσπρο</t>
+  </si>
+  <si>
+    <t>Slow Cooker MORPHY RICHARDS 460017</t>
+  </si>
+  <si>
+    <t>Φούρνος μικροκυμάτων MATESTAR MM-720CW άσπρο</t>
+  </si>
+  <si>
+    <t>Air Conditioner with Inverter TESLA TA36FFML-1232IA</t>
+  </si>
+  <si>
+    <t>Vacuum Cleaner MATESTAR MAT-3813R red</t>
+  </si>
+  <si>
+    <t>Kitchen machine BOSCH MCM3100W white</t>
+  </si>
+  <si>
+    <t>Mixer for frappe OSIO OMM-2211 BL black</t>
+  </si>
+  <si>
+    <t>Ηλεκτρικό μπρίκι για Κυπριακό καφέ OSIO OCP-2502BR μαύρο/κόκκινο</t>
+  </si>
+  <si>
+    <t>Καφετιέρα φίλτρου SENCOR SCE 3700BK μαύρο/chrome</t>
+  </si>
+  <si>
+    <t>Βραστήρας SENCOR SWK 1748WH άσπρο</t>
+  </si>
+  <si>
+    <t>Iron BLAUPUNKT HSI201BL white/blue</t>
+  </si>
+  <si>
+    <t>Toaster MATESTAR MAT-103DW cream</t>
+  </si>
+  <si>
+    <t>Ψησταριά Barbecue LIFE BBQ King 221-0137 μαύρο</t>
+  </si>
+  <si>
+    <t>Smartphone XIAOMI Redmi 9A LTE Dual SIM γκρι</t>
+  </si>
+  <si>
+    <t>Θήκη Back Cover για Samsung Galaxy A13 4G CELLY GELSKIN1022 διαφανές</t>
+  </si>
+  <si>
+    <t>Cable USB-A male/USB-C male 2.0 1.2m OSIO OTU-5912B black</t>
+  </si>
+  <si>
+    <t>Action camera 4K Outdoor Sports Ultra HD 606481 μαύρο</t>
+  </si>
+  <si>
+    <t>Φορητό Ηχείο SHARP GX-BT60BK μαύρο</t>
+  </si>
+  <si>
+    <t>Ακουστικά με μικρόφωνο SAMSUNG EO-IA500BBEGWW μαύρο</t>
+  </si>
+  <si>
+    <t>Στιγμιαία φωτογραφική FUJIFILM Instax Mini 11 γκρι</t>
+  </si>
+  <si>
+    <t>Φορητός υπολογιστής ACER TravelMate Spin B3 NX.VN8ET.00D μαύρο</t>
+  </si>
+  <si>
+    <t>Θήκη για φορητό υπολογιστή 15.6" HP Value Backpack K0B39AA γκρίζο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Σπρέι καθαρισμού FAMOZO Professional </t>
+  </si>
+  <si>
+    <t>Σετ αξεσουάρ PRO-MOUNTS Bag of Mounts PM2013GP99</t>
+  </si>
+  <si>
+    <t>Ηλεκτρονικό σκοινί γυμναστικής MULTIFUN MF-SR01</t>
+  </si>
+  <si>
+    <t>Επιτραπέζιο Παιχνίδι με Κάρτες MATTEL Uno W2087</t>
+  </si>
+  <si>
+    <t>Παιχνίδι LEGO Minecraft: The Creeper Ambush 21177</t>
+  </si>
+  <si>
+    <t>Εκπαιδευτικό παιδικό βιβλίο Μαθαίνω Να Γράφω - Τους Αριθμούς</t>
+  </si>
+  <si>
+    <t>Μελάνι μπουκάλι EPSON 103 EcoTank C13T00S14A μαύρο</t>
+  </si>
+  <si>
+    <t>Χαρτί A4 500 φύλλα 80 g</t>
+  </si>
+  <si>
+    <t>Ξυριστική μηχανή XIAOMI Εnchen Blackstone 3D γκρι</t>
+  </si>
+  <si>
+    <t>Κουρευτική μηχανή REMINGTON ColourCut Manchester United Edition HC5038 κόκκινο</t>
+  </si>
+  <si>
+    <t>Σεσουάρ μαλλιών LIFE Character 221-0238 μωβ</t>
+  </si>
+  <si>
+    <t>Ψηφιακό θερμόμετρο JOYROOM Body Non Contact XS-IFT002B</t>
+  </si>
+  <si>
+    <t>Smartwatch FOREVER Call Me 2 KW60 GSM107165 μπλε</t>
+  </si>
+  <si>
+    <t>IKEA</t>
+  </si>
+  <si>
+    <t>Household furniture</t>
+  </si>
+  <si>
+    <t>Garden furniture</t>
+  </si>
+  <si>
+    <t>Other furniture and furnishings</t>
+  </si>
+  <si>
+    <t>Carpets and rugs</t>
+  </si>
+  <si>
+    <t>Glassware, crystal-ware, ceramic ware and chinaware</t>
+  </si>
+  <si>
+    <t>Cutlery, flatware and silverware</t>
+  </si>
+  <si>
+    <t>Lighting equipment</t>
+  </si>
+  <si>
+    <t>Garden products</t>
+  </si>
+  <si>
+    <t>Plants and flowers</t>
+  </si>
+  <si>
+    <t>Products for pets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							GLOSTAD
+							διθέσιος καναπές
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							MELLTORP/ADDE
+							τραπέζι και 4 καρέκλες
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							FEJAN
+							πτυσσόμενη καρέκλα, εξωτερικού χώρου
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							TARNO
+							τραπέζι, εξωτερικού χώρου
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							BAGGEBO
+							βιβλιοθήκη, 50x30x80 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							GURSKEN
+							σκελετός κρεβατιού με κεφαλάρι, 140x200 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							GURSKEN
+							ντουλάπα, 49x55x186 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							GURSKEN
+							συρταριέρα με 3 συρτάρια, 69x67 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							KNARREVIK
+							κομοδίνο
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							MARIUS
+							Σκαμπό
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							TIPHEDE
+							χαλί, χαμηλή πλέξη
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							KLEJS
+							χαλί, χαμηλή πλέξη
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							KLAMPENBORG
+							χαλάκι πόρτας/ εσωτερικού χώρου, 35x55 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							POKAL
+							Ποτήρι
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							OFTAST
+							Πιάτο
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							OFTAST
+							Μπολ
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							MOPSIG
+							μαχαιροπίρουνα, σετ 16 τεμ.
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							ANNONS
+							Σκεύη μαγειρικής, σετ 3 τεμ.
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							BARLAST
+							επιτραπέζιο φωτιστικό, 31 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							RESTAD
+							φωτιστικό οροφής
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							TAGARP
+							φωτιστικό δαπέδου/διαβάσματος
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							FORENLIG
+							κασπό εσωτερικού/εξωτερικού χώρου
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							IKEA PS 2002
+							Ποτιστήρι
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							STJARNANIS
+							ζαρντινιέρα εξωτερικού χώρου, 43x15 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							PHALAENOPSIS
+							φυτό, Ορχιδέα με 1 βλαστό
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							DRACAENA
+							φυτό σε γλάστρα, 9 cm
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							LURVIG
+							μπολ,  0.3 l
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							LURVIG
+							ανακλαστικοί ιμάντες
+						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+							LURVIG
+							βούρτσα
+						</t>
+  </si>
+  <si>
+    <t>/products/white-goods/refrigeration/refrigerators/383074</t>
+  </si>
+  <si>
+    <t>/products/white-goods/refrigeration/freezers/356984</t>
+  </si>
+  <si>
+    <t>/products/white-goods/refrigeration/refrigerators/370043</t>
+  </si>
+  <si>
+    <t>/products/white-goods/washing-and-drying/washing-machines/370023</t>
+  </si>
+  <si>
+    <t>/products/white-goods/washing-and-drying/freestanding-dishwashers/370038</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/kitchen-household/cooker/379995</t>
+  </si>
+  <si>
+    <t>/products/white-goods/cooking-and-baking/microwaves/356917</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/cooling-and-heating/air-conditioners/355452</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/floor-and-surface-cleaners/cylinder-vacuum-cleaners/367794</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/mixers/mixers-kitchen-machines/333438</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/mixers/frappe-mixers/329179</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/coffee-machines-and-coffee/coffee-machines/368342</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/coffee-machines-and-coffee/coffee-machines/368534</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/kitchen-household/kettles/362512</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/ironing/irons/378112</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/kitchen-household/toasters/329655</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/barbecue/barbecue-grills/364089</t>
+  </si>
+  <si>
+    <t>/products/telecommunications/smartphones-and-mobile-phones/smartphones/366214</t>
+  </si>
+  <si>
+    <t>/products/telecommunications/mobile-phone-accessories/mobile-phone-cases/379800</t>
+  </si>
+  <si>
+    <t>/products/telecommunications/mobile-phone-accessories/mobile-phone-cables/367236</t>
+  </si>
+  <si>
+    <t>/products/sound-and-vision/action-cameras-and-accessories/action-cameras/377715</t>
+  </si>
+  <si>
+    <t>/products/sound-and-vision/sound/portable-speakers/376834</t>
+  </si>
+  <si>
+    <t>/products/sound-and-vision/headphones-and-earphones/earphones-with-microphone/379811</t>
+  </si>
+  <si>
+    <t>/products/sound-and-vision/digital-cameras/compact-cameras/366674</t>
+  </si>
+  <si>
+    <t>/products/information-technology/laptops-and-accessories/laptops/373112</t>
+  </si>
+  <si>
+    <t>/products/information-technology/laptops-and-accessories/laptop-cases/347313</t>
+  </si>
+  <si>
+    <t>/products/information-technology/laptops-and-accessories/cleaning-accessories/342689</t>
+  </si>
+  <si>
+    <t>/products/sound-and-vision/action-cameras-and-accessories/accessories-for-action-cameras/329389</t>
+  </si>
+  <si>
+    <t>/products/gaming/books/educational/374784</t>
+  </si>
+  <si>
+    <t>/products/information-technology/printers-and-consumables/inks/352767</t>
+  </si>
+  <si>
+    <t>/products/information-technology/printers-and-consumables/papers/166395</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/personal-care/shavers/373370</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/personal-care/hair-clipper/380695</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/personal-care/hair-dryer/376837</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/personal-care/thermometers/367818</t>
+  </si>
+  <si>
+    <t>/products/telecommunications/wearables/smart-watches/377658</t>
+  </si>
+  <si>
+    <t>/products/home-appliances/travel-accessories/luggage-scales/357371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ζυγαριά αποσκευών NEDIS SCLU110GY </t>
+  </si>
+  <si>
+    <t>Travel goods</t>
+  </si>
+  <si>
+    <t>/products/gaming/fun-and-smart-games/electronic-skipping-ropes/365112</t>
+  </si>
+  <si>
+    <t>/products/gaming/kids-toys/board-games/377768</t>
+  </si>
+  <si>
+    <t>/products/gaming/kids-toys/activity-and-building-toys/365748</t>
+  </si>
+  <si>
+    <t>/proioda/kanapedes-poluthrones/dithesioi-kanapedes/glostad-dithesios-kanapes/50489012</t>
+  </si>
+  <si>
+    <t>/proioda/trapezia/set-trapezi-karekles/set-trapezi-4-karekles/melltorp-adde-trapezi-kai-4-karekles/99014376</t>
+  </si>
+  <si>
+    <t>/proioda/kipos-exoterikoi-horoi/kathismata-exoterikou-horou/karekles-exoterikou-horou/fejan-ptyssomeni-karekla-ekswterikoy-xwroy/10255307</t>
+  </si>
+  <si>
+    <t>/proioda/kipos-exoterikoi-horoi/trapezia-exoterikou-horou/trapezia-exoterikou-horou/tarno-trapezi-ekswterikoy-xwroy/50444981</t>
+  </si>
+  <si>
+    <t>/proioda/epipla-organosis-apothikeusis/vivliothikes-rafieres/vivliothikes-rafieres/baggebo-bibliothiki-50x30x80-cm/70481171</t>
+  </si>
+  <si>
+    <t>/proioda/krevatia/krevatia-dipla-uperdipla/gursken-skeletos-krebatioy-me-kefalari-140x200-cm/60486329</t>
+  </si>
+  <si>
+    <t>/proioda/doulapes-upnodomatiou/doulapes/doulapes/gursken-ntoylapa-49x55x186-cm/20486326</t>
+  </si>
+  <si>
+    <t>/proioda/surtarieres/surtarieres/surtarieres/gursken-syrtariera-me-3-syrtaria-69x67-cm/00486327</t>
+  </si>
+  <si>
+    <t>proioda/komodina/knarrevik-komodino/30381183</t>
+  </si>
+  <si>
+    <t>/proioda/skabo-pagoi-trapezarias/marius-skampo/10135659</t>
+  </si>
+  <si>
+    <t>/proioda/halia/megala-kai-mesaia-halia/tiphede-xali-xamili-pleksi-120x180-cm/40456757</t>
+  </si>
+  <si>
+    <t>/proioda/halia/diadromoi-kai-mikra-halia/klejs-xali-xamili-pleksi/70418580</t>
+  </si>
+  <si>
+    <t>/proioda/halia/halakia-eisodou/klampenborg-xalaki-portas-eswterikoy-xwroy-35x55-cm/00500111</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-servirismatos/potiria-koupes/potiria/pokal-potiri/10270478</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-servirismatos/piata-bol/piata/oftast-piato/30258913</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-servirismatos/piata-bol/bol/oftast-mpol/80258915</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-servirismatos/mahairopirouna/set-mahairopirounon/mopsig-maxairopiroyna-set-16-tem-/00343003</t>
+  </si>
+  <si>
+    <t>/proioda/fotismos/epitrapezia-fotistika/barlast-epitrapezio-fwtistiko-31-cm/80504563</t>
+  </si>
+  <si>
+    <t>/proioda/fotismos/fotismos-orofis/kremasta-fotistika/restad-fwtistiko-orofis/00449250</t>
+  </si>
+  <si>
+    <t>/proioda/fotismos/epidapedia-fotistika/tagarp-fwtistiko-dapedoy-diabasmatos/40486392</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-kouzinas/mageirika-skeui/set-eidon-kouzinas/annons-skeyi-mageirikis-set-3-tem-/90207402</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-gia-katoikidia/lurvig-mpol-0-3-l/00377074</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-gia-katoikidia/lurvig-anaklastikoi-imantes/50360698</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-gia-katoikidia/lurvig-boyrtsa/00456815</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/kaspo/forenlig-kaspo-eswterikoy-ekswterikoy-xwroy/70454813</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/potistiria/ikea-ps-2002-potistiri/60289946</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/anthostiles-kai-axesouar-gia-ton-kipo/stjarnanis-zarntiniera-ekswterikoy-xwroy-43x15-cm/20505297</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/futa/hyacinthus-fyto-se-glastra-yakinthos-1-bolbos-8-cm/20535020</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/futa/phalaenopsis-fyto-orxidea-me-1-blasto/30320217</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +2653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1909,6 +2674,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1946,12 +2716,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2290,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="55" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="55" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6236,6 +7007,1280 @@
       </c>
       <c r="D281" t="s">
         <v>574</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>628</v>
+      </c>
+      <c r="B282" t="s">
+        <v>620</v>
+      </c>
+      <c r="C282" t="s">
+        <v>616</v>
+      </c>
+      <c r="D282" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>629</v>
+      </c>
+      <c r="B283" t="s">
+        <v>621</v>
+      </c>
+      <c r="C283" t="s">
+        <v>616</v>
+      </c>
+      <c r="D283" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>630</v>
+      </c>
+      <c r="B284" t="s">
+        <v>622</v>
+      </c>
+      <c r="C284" t="s">
+        <v>617</v>
+      </c>
+      <c r="D284" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>631</v>
+      </c>
+      <c r="B285" t="s">
+        <v>623</v>
+      </c>
+      <c r="C285" t="s">
+        <v>617</v>
+      </c>
+      <c r="D285" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>632</v>
+      </c>
+      <c r="B286" t="s">
+        <v>624</v>
+      </c>
+      <c r="C286" t="s">
+        <v>617</v>
+      </c>
+      <c r="D286" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>633</v>
+      </c>
+      <c r="B287" t="s">
+        <v>625</v>
+      </c>
+      <c r="C287" t="s">
+        <v>617</v>
+      </c>
+      <c r="D287" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>634</v>
+      </c>
+      <c r="B288" t="s">
+        <v>626</v>
+      </c>
+      <c r="C288" t="s">
+        <v>618</v>
+      </c>
+      <c r="D288" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>635</v>
+      </c>
+      <c r="B289" t="s">
+        <v>627</v>
+      </c>
+      <c r="C289" t="s">
+        <v>619</v>
+      </c>
+      <c r="D289" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>639</v>
+      </c>
+      <c r="B290" t="s">
+        <v>653</v>
+      </c>
+      <c r="C290" t="s">
+        <v>637</v>
+      </c>
+      <c r="D290" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>640</v>
+      </c>
+      <c r="B291" t="s">
+        <v>655</v>
+      </c>
+      <c r="C291" t="s">
+        <v>637</v>
+      </c>
+      <c r="D291" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>641</v>
+      </c>
+      <c r="B292" t="s">
+        <v>656</v>
+      </c>
+      <c r="C292" t="s">
+        <v>617</v>
+      </c>
+      <c r="D292" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>642</v>
+      </c>
+      <c r="B293" t="s">
+        <v>657</v>
+      </c>
+      <c r="C293" t="s">
+        <v>617</v>
+      </c>
+      <c r="D293" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>643</v>
+      </c>
+      <c r="B294" t="s">
+        <v>658</v>
+      </c>
+      <c r="C294" t="s">
+        <v>638</v>
+      </c>
+      <c r="D294" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>644</v>
+      </c>
+      <c r="B295" t="s">
+        <v>661</v>
+      </c>
+      <c r="C295" t="s">
+        <v>638</v>
+      </c>
+      <c r="D295" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>645</v>
+      </c>
+      <c r="B296" t="s">
+        <v>662</v>
+      </c>
+      <c r="C296" t="s">
+        <v>638</v>
+      </c>
+      <c r="D296" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>646</v>
+      </c>
+      <c r="B297" t="s">
+        <v>654</v>
+      </c>
+      <c r="C297" t="s">
+        <v>638</v>
+      </c>
+      <c r="D297" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>647</v>
+      </c>
+      <c r="B298" t="s">
+        <v>659</v>
+      </c>
+      <c r="C298" t="s">
+        <v>638</v>
+      </c>
+      <c r="D298" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>648</v>
+      </c>
+      <c r="B299" t="s">
+        <v>660</v>
+      </c>
+      <c r="C299" t="s">
+        <v>638</v>
+      </c>
+      <c r="D299" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>649</v>
+      </c>
+      <c r="B300" t="s">
+        <v>663</v>
+      </c>
+      <c r="C300" t="s">
+        <v>618</v>
+      </c>
+      <c r="D300" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>650</v>
+      </c>
+      <c r="B301" t="s">
+        <v>664</v>
+      </c>
+      <c r="C301" t="s">
+        <v>618</v>
+      </c>
+      <c r="D301" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>651</v>
+      </c>
+      <c r="B302" t="s">
+        <v>665</v>
+      </c>
+      <c r="C302" t="s">
+        <v>618</v>
+      </c>
+      <c r="D302" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>652</v>
+      </c>
+      <c r="B303" t="s">
+        <v>666</v>
+      </c>
+      <c r="C303" t="s">
+        <v>619</v>
+      </c>
+      <c r="D303" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>691</v>
+      </c>
+      <c r="B304" t="s">
+        <v>770</v>
+      </c>
+      <c r="C304" t="s">
+        <v>668</v>
+      </c>
+      <c r="D304" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>692</v>
+      </c>
+      <c r="B305" t="s">
+        <v>771</v>
+      </c>
+      <c r="C305" t="s">
+        <v>668</v>
+      </c>
+      <c r="D305" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>693</v>
+      </c>
+      <c r="B306" t="s">
+        <v>772</v>
+      </c>
+      <c r="C306" t="s">
+        <v>668</v>
+      </c>
+      <c r="D306" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>694</v>
+      </c>
+      <c r="B307" t="s">
+        <v>773</v>
+      </c>
+      <c r="C307" t="s">
+        <v>669</v>
+      </c>
+      <c r="D307" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>695</v>
+      </c>
+      <c r="B308" t="s">
+        <v>774</v>
+      </c>
+      <c r="C308" t="s">
+        <v>669</v>
+      </c>
+      <c r="D308" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>696</v>
+      </c>
+      <c r="B309" t="s">
+        <v>775</v>
+      </c>
+      <c r="C309" t="s">
+        <v>670</v>
+      </c>
+      <c r="D309" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>697</v>
+      </c>
+      <c r="B310" t="s">
+        <v>776</v>
+      </c>
+      <c r="C310" t="s">
+        <v>670</v>
+      </c>
+      <c r="D310" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>698</v>
+      </c>
+      <c r="B311" t="s">
+        <v>777</v>
+      </c>
+      <c r="C311" t="s">
+        <v>671</v>
+      </c>
+      <c r="D311" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>699</v>
+      </c>
+      <c r="B312" t="s">
+        <v>778</v>
+      </c>
+      <c r="C312" t="s">
+        <v>672</v>
+      </c>
+      <c r="D312" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>700</v>
+      </c>
+      <c r="B313" t="s">
+        <v>779</v>
+      </c>
+      <c r="C313" t="s">
+        <v>673</v>
+      </c>
+      <c r="D313" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>701</v>
+      </c>
+      <c r="B314" t="s">
+        <v>780</v>
+      </c>
+      <c r="C314" t="s">
+        <v>674</v>
+      </c>
+      <c r="D314" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>702</v>
+      </c>
+      <c r="B315" t="s">
+        <v>781</v>
+      </c>
+      <c r="C315" t="s">
+        <v>674</v>
+      </c>
+      <c r="D315" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>703</v>
+      </c>
+      <c r="B316" t="s">
+        <v>782</v>
+      </c>
+      <c r="C316" t="s">
+        <v>674</v>
+      </c>
+      <c r="D316" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>704</v>
+      </c>
+      <c r="B317" t="s">
+        <v>783</v>
+      </c>
+      <c r="C317" t="s">
+        <v>674</v>
+      </c>
+      <c r="D317" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>705</v>
+      </c>
+      <c r="B318" t="s">
+        <v>784</v>
+      </c>
+      <c r="C318" t="s">
+        <v>675</v>
+      </c>
+      <c r="D318" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>706</v>
+      </c>
+      <c r="B319" t="s">
+        <v>785</v>
+      </c>
+      <c r="C319" t="s">
+        <v>676</v>
+      </c>
+      <c r="D319" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>707</v>
+      </c>
+      <c r="B320" t="s">
+        <v>786</v>
+      </c>
+      <c r="C320" t="s">
+        <v>676</v>
+      </c>
+      <c r="D320" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>708</v>
+      </c>
+      <c r="B321" t="s">
+        <v>787</v>
+      </c>
+      <c r="C321" t="s">
+        <v>677</v>
+      </c>
+      <c r="D321" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>709</v>
+      </c>
+      <c r="B322" t="s">
+        <v>788</v>
+      </c>
+      <c r="C322" t="s">
+        <v>677</v>
+      </c>
+      <c r="D322" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>710</v>
+      </c>
+      <c r="B323" t="s">
+        <v>789</v>
+      </c>
+      <c r="C323" t="s">
+        <v>677</v>
+      </c>
+      <c r="D323" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>711</v>
+      </c>
+      <c r="B324" t="s">
+        <v>790</v>
+      </c>
+      <c r="C324" t="s">
+        <v>678</v>
+      </c>
+      <c r="D324" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>712</v>
+      </c>
+      <c r="B325" t="s">
+        <v>791</v>
+      </c>
+      <c r="C325" t="s">
+        <v>679</v>
+      </c>
+      <c r="D325" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>713</v>
+      </c>
+      <c r="B326" t="s">
+        <v>792</v>
+      </c>
+      <c r="C326" t="s">
+        <v>679</v>
+      </c>
+      <c r="D326" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>714</v>
+      </c>
+      <c r="B327" t="s">
+        <v>793</v>
+      </c>
+      <c r="C327" t="s">
+        <v>680</v>
+      </c>
+      <c r="D327" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>715</v>
+      </c>
+      <c r="B328" t="s">
+        <v>794</v>
+      </c>
+      <c r="C328" t="s">
+        <v>681</v>
+      </c>
+      <c r="D328" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>716</v>
+      </c>
+      <c r="B329" t="s">
+        <v>795</v>
+      </c>
+      <c r="C329" t="s">
+        <v>682</v>
+      </c>
+      <c r="D329" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>717</v>
+      </c>
+      <c r="B330" t="s">
+        <v>796</v>
+      </c>
+      <c r="C330" t="s">
+        <v>682</v>
+      </c>
+      <c r="D330" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>718</v>
+      </c>
+      <c r="B331" t="s">
+        <v>797</v>
+      </c>
+      <c r="C331" t="s">
+        <v>682</v>
+      </c>
+      <c r="D331" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>719</v>
+      </c>
+      <c r="B332" t="s">
+        <v>809</v>
+      </c>
+      <c r="C332" t="s">
+        <v>683</v>
+      </c>
+      <c r="D332" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>720</v>
+      </c>
+      <c r="B333" t="s">
+        <v>810</v>
+      </c>
+      <c r="C333" t="s">
+        <v>684</v>
+      </c>
+      <c r="D333" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>721</v>
+      </c>
+      <c r="B334" t="s">
+        <v>811</v>
+      </c>
+      <c r="C334" t="s">
+        <v>685</v>
+      </c>
+      <c r="D334" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>722</v>
+      </c>
+      <c r="B335" t="s">
+        <v>798</v>
+      </c>
+      <c r="C335" t="s">
+        <v>686</v>
+      </c>
+      <c r="D335" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>723</v>
+      </c>
+      <c r="B336" t="s">
+        <v>799</v>
+      </c>
+      <c r="C336" t="s">
+        <v>687</v>
+      </c>
+      <c r="D336" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>724</v>
+      </c>
+      <c r="B337" t="s">
+        <v>800</v>
+      </c>
+      <c r="C337" t="s">
+        <v>688</v>
+      </c>
+      <c r="D337" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>725</v>
+      </c>
+      <c r="B338" t="s">
+        <v>801</v>
+      </c>
+      <c r="C338" t="s">
+        <v>689</v>
+      </c>
+      <c r="D338" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>726</v>
+      </c>
+      <c r="B339" t="s">
+        <v>802</v>
+      </c>
+      <c r="C339" t="s">
+        <v>689</v>
+      </c>
+      <c r="D339" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>727</v>
+      </c>
+      <c r="B340" t="s">
+        <v>803</v>
+      </c>
+      <c r="C340" t="s">
+        <v>689</v>
+      </c>
+      <c r="D340" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>728</v>
+      </c>
+      <c r="B341" t="s">
+        <v>804</v>
+      </c>
+      <c r="C341" t="s">
+        <v>689</v>
+      </c>
+      <c r="D341" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>807</v>
+      </c>
+      <c r="B342" t="s">
+        <v>806</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D342" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>729</v>
+      </c>
+      <c r="B343" t="s">
+        <v>805</v>
+      </c>
+      <c r="C343" t="s">
+        <v>690</v>
+      </c>
+      <c r="D343" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>741</v>
+      </c>
+      <c r="B344" t="s">
+        <v>812</v>
+      </c>
+      <c r="C344" t="s">
+        <v>731</v>
+      </c>
+      <c r="D344" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>742</v>
+      </c>
+      <c r="B345" t="s">
+        <v>813</v>
+      </c>
+      <c r="C345" t="s">
+        <v>731</v>
+      </c>
+      <c r="D345" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>743</v>
+      </c>
+      <c r="B346" t="s">
+        <v>814</v>
+      </c>
+      <c r="C346" t="s">
+        <v>732</v>
+      </c>
+      <c r="D346" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>744</v>
+      </c>
+      <c r="B347" t="s">
+        <v>815</v>
+      </c>
+      <c r="C347" t="s">
+        <v>732</v>
+      </c>
+      <c r="D347" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>745</v>
+      </c>
+      <c r="B348" t="s">
+        <v>816</v>
+      </c>
+      <c r="C348" t="s">
+        <v>733</v>
+      </c>
+      <c r="D348" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>746</v>
+      </c>
+      <c r="B349" t="s">
+        <v>817</v>
+      </c>
+      <c r="C349" t="s">
+        <v>733</v>
+      </c>
+      <c r="D349" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>747</v>
+      </c>
+      <c r="B350" t="s">
+        <v>818</v>
+      </c>
+      <c r="C350" t="s">
+        <v>733</v>
+      </c>
+      <c r="D350" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>748</v>
+      </c>
+      <c r="B351" t="s">
+        <v>819</v>
+      </c>
+      <c r="C351" t="s">
+        <v>733</v>
+      </c>
+      <c r="D351" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>749</v>
+      </c>
+      <c r="B352" t="s">
+        <v>820</v>
+      </c>
+      <c r="C352" t="s">
+        <v>733</v>
+      </c>
+      <c r="D352" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>750</v>
+      </c>
+      <c r="B353" t="s">
+        <v>821</v>
+      </c>
+      <c r="C353" t="s">
+        <v>733</v>
+      </c>
+      <c r="D353" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>751</v>
+      </c>
+      <c r="B354" t="s">
+        <v>822</v>
+      </c>
+      <c r="C354" t="s">
+        <v>734</v>
+      </c>
+      <c r="D354" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>752</v>
+      </c>
+      <c r="B355" t="s">
+        <v>823</v>
+      </c>
+      <c r="C355" t="s">
+        <v>734</v>
+      </c>
+      <c r="D355" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>753</v>
+      </c>
+      <c r="B356" t="s">
+        <v>824</v>
+      </c>
+      <c r="C356" t="s">
+        <v>734</v>
+      </c>
+      <c r="D356" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>754</v>
+      </c>
+      <c r="B357" t="s">
+        <v>825</v>
+      </c>
+      <c r="C357" t="s">
+        <v>735</v>
+      </c>
+      <c r="D357" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>755</v>
+      </c>
+      <c r="B358" t="s">
+        <v>826</v>
+      </c>
+      <c r="C358" t="s">
+        <v>735</v>
+      </c>
+      <c r="D358" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>756</v>
+      </c>
+      <c r="B359" t="s">
+        <v>827</v>
+      </c>
+      <c r="C359" t="s">
+        <v>735</v>
+      </c>
+      <c r="D359" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>757</v>
+      </c>
+      <c r="B360" t="s">
+        <v>828</v>
+      </c>
+      <c r="C360" t="s">
+        <v>736</v>
+      </c>
+      <c r="D360" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>758</v>
+      </c>
+      <c r="B361" t="s">
+        <v>829</v>
+      </c>
+      <c r="C361" t="s">
+        <v>736</v>
+      </c>
+      <c r="D361" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>759</v>
+      </c>
+      <c r="B362" t="s">
+        <v>830</v>
+      </c>
+      <c r="C362" t="s">
+        <v>737</v>
+      </c>
+      <c r="D362" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>760</v>
+      </c>
+      <c r="B363" t="s">
+        <v>831</v>
+      </c>
+      <c r="C363" t="s">
+        <v>737</v>
+      </c>
+      <c r="D363" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>761</v>
+      </c>
+      <c r="B364" t="s">
+        <v>832</v>
+      </c>
+      <c r="C364" t="s">
+        <v>737</v>
+      </c>
+      <c r="D364" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>762</v>
+      </c>
+      <c r="B365" t="s">
+        <v>833</v>
+      </c>
+      <c r="C365" t="s">
+        <v>738</v>
+      </c>
+      <c r="D365" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>763</v>
+      </c>
+      <c r="B366" t="s">
+        <v>834</v>
+      </c>
+      <c r="C366" t="s">
+        <v>738</v>
+      </c>
+      <c r="D366" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>764</v>
+      </c>
+      <c r="B367" t="s">
+        <v>835</v>
+      </c>
+      <c r="C367" t="s">
+        <v>738</v>
+      </c>
+      <c r="D367" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>765</v>
+      </c>
+      <c r="B368" t="s">
+        <v>836</v>
+      </c>
+      <c r="C368" t="s">
+        <v>739</v>
+      </c>
+      <c r="D368" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>766</v>
+      </c>
+      <c r="B369" t="s">
+        <v>837</v>
+      </c>
+      <c r="C369" t="s">
+        <v>739</v>
+      </c>
+      <c r="D369" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>767</v>
+      </c>
+      <c r="B370" t="s">
+        <v>838</v>
+      </c>
+      <c r="C370" t="s">
+        <v>740</v>
+      </c>
+      <c r="D370" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>768</v>
+      </c>
+      <c r="B371" t="s">
+        <v>839</v>
+      </c>
+      <c r="C371" t="s">
+        <v>740</v>
+      </c>
+      <c r="D371" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>769</v>
+      </c>
+      <c r="B372" t="s">
+        <v>840</v>
+      </c>
+      <c r="C372" t="s">
+        <v>740</v>
+      </c>
+      <c r="D372" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\Python Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8C5B0-C604-4D1E-A6C8-43E26C87E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701CA814-B9DC-429A-AA87-560C089EF83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2259,180 +2259,6 @@
     <t>Products for pets</t>
   </si>
   <si>
-    <t xml:space="preserve">
-							GLOSTAD
-							διθέσιος καναπές
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							MELLTORP/ADDE
-							τραπέζι και 4 καρέκλες
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							FEJAN
-							πτυσσόμενη καρέκλα, εξωτερικού χώρου
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							TARNO
-							τραπέζι, εξωτερικού χώρου
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							BAGGEBO
-							βιβλιοθήκη, 50x30x80 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							GURSKEN
-							σκελετός κρεβατιού με κεφαλάρι, 140x200 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							GURSKEN
-							ντουλάπα, 49x55x186 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							GURSKEN
-							συρταριέρα με 3 συρτάρια, 69x67 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							KNARREVIK
-							κομοδίνο
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							MARIUS
-							Σκαμπό
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							TIPHEDE
-							χαλί, χαμηλή πλέξη
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							KLEJS
-							χαλί, χαμηλή πλέξη
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							KLAMPENBORG
-							χαλάκι πόρτας/ εσωτερικού χώρου, 35x55 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							POKAL
-							Ποτήρι
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							OFTAST
-							Πιάτο
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							OFTAST
-							Μπολ
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							MOPSIG
-							μαχαιροπίρουνα, σετ 16 τεμ.
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							ANNONS
-							Σκεύη μαγειρικής, σετ 3 τεμ.
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							BARLAST
-							επιτραπέζιο φωτιστικό, 31 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							RESTAD
-							φωτιστικό οροφής
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							TAGARP
-							φωτιστικό δαπέδου/διαβάσματος
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							FORENLIG
-							κασπό εσωτερικού/εξωτερικού χώρου
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							IKEA PS 2002
-							Ποτιστήρι
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							STJARNANIS
-							ζαρντινιέρα εξωτερικού χώρου, 43x15 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							PHALAENOPSIS
-							φυτό, Ορχιδέα με 1 βλαστό
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							DRACAENA
-							φυτό σε γλάστρα, 9 cm
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							LURVIG
-							μπολ,  0.3 l
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							LURVIG
-							ανακλαστικοί ιμάντες
-						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-							LURVIG
-							βούρτσα
-						</t>
-  </si>
-  <si>
     <t>/products/white-goods/refrigeration/refrigerators/383074</t>
   </si>
   <si>
@@ -2644,6 +2470,93 @@
   </si>
   <si>
     <t>/proioda/diakosmitika-keria-futa/futa-kaspo/futa/phalaenopsis-fyto-orxidea-me-1-blasto/30320217</t>
+  </si>
+  <si>
+    <t>GLOSTAD διθέσιος καναπές</t>
+  </si>
+  <si>
+    <t>MELLTORP/ADDE τραπέζι και 4 καρέκλες</t>
+  </si>
+  <si>
+    <t>FEJAN πτυσσόμενη καρέκλα, εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>TARNO τραπέζι, εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>BAGGEBO βιβλιοθήκη, 50x30x80 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN σκελετός κρεβατιού με κεφαλάρι, 140x200 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN ντουλάπα, 49x55x186 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN συρταριέρα με 3 συρτάρια, 69x67 cm</t>
+  </si>
+  <si>
+    <t>KNARREVIK κομοδίνο</t>
+  </si>
+  <si>
+    <t>MARIUS Σκαμπό</t>
+  </si>
+  <si>
+    <t>TIPHEDE χαλί, χαμηλή πλέξη</t>
+  </si>
+  <si>
+    <t>KLEJS χαλί, χαμηλή πλέξη</t>
+  </si>
+  <si>
+    <t>KLAMPENBORG χαλάκι πόρτας/ εσωτερικού χώρου, 35x55 cm</t>
+  </si>
+  <si>
+    <t>POKAL Ποτήρι</t>
+  </si>
+  <si>
+    <t>OFTAST Πιάτο</t>
+  </si>
+  <si>
+    <t>OFTAST Μπολ</t>
+  </si>
+  <si>
+    <t>MOPSIG μαχαιροπίρουνα, σετ 16 τεμ.</t>
+  </si>
+  <si>
+    <t>ANNONS Σκεύη μαγειρικής, σετ 3 τεμ.</t>
+  </si>
+  <si>
+    <t>BARLAST επιτραπέζιο φωτιστικό, 31 cm</t>
+  </si>
+  <si>
+    <t>RESTAD φωτιστικό οροφής</t>
+  </si>
+  <si>
+    <t>TAGARP φωτιστικό δαπέδου/διαβάσματος</t>
+  </si>
+  <si>
+    <t>FORENLIG κασπό εσωτερικού/εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>IKEA PS 2002 Ποτιστήρι</t>
+  </si>
+  <si>
+    <t>STJARNANIS ζαρντινιέρα εξωτερικού χώρου, 43x15 cm</t>
+  </si>
+  <si>
+    <t>PHALAENOPSIS φυτό, Ορχιδέα με 1 βλαστό</t>
+  </si>
+  <si>
+    <t>DRACAENA φυτό σε γλάστρα, 9 cm</t>
+  </si>
+  <si>
+    <t>LURVIG μπολ,  0.3 l</t>
+  </si>
+  <si>
+    <t>LURVIG ανακλαστικοί ιμάντες</t>
+  </si>
+  <si>
+    <t>LURVIG βούρτσα</t>
   </si>
 </sst>
 </file>
@@ -3063,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="55" workbookViewId="0">
-      <selection activeCell="A308" sqref="A308"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="55" workbookViewId="0">
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7322,7 +7235,7 @@
         <v>691</v>
       </c>
       <c r="B304" t="s">
-        <v>770</v>
+        <v>741</v>
       </c>
       <c r="C304" t="s">
         <v>668</v>
@@ -7336,7 +7249,7 @@
         <v>692</v>
       </c>
       <c r="B305" t="s">
-        <v>771</v>
+        <v>742</v>
       </c>
       <c r="C305" t="s">
         <v>668</v>
@@ -7350,7 +7263,7 @@
         <v>693</v>
       </c>
       <c r="B306" t="s">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="C306" t="s">
         <v>668</v>
@@ -7364,7 +7277,7 @@
         <v>694</v>
       </c>
       <c r="B307" t="s">
-        <v>773</v>
+        <v>744</v>
       </c>
       <c r="C307" t="s">
         <v>669</v>
@@ -7378,7 +7291,7 @@
         <v>695</v>
       </c>
       <c r="B308" t="s">
-        <v>774</v>
+        <v>745</v>
       </c>
       <c r="C308" t="s">
         <v>669</v>
@@ -7392,7 +7305,7 @@
         <v>696</v>
       </c>
       <c r="B309" t="s">
-        <v>775</v>
+        <v>746</v>
       </c>
       <c r="C309" t="s">
         <v>670</v>
@@ -7406,7 +7319,7 @@
         <v>697</v>
       </c>
       <c r="B310" t="s">
-        <v>776</v>
+        <v>747</v>
       </c>
       <c r="C310" t="s">
         <v>670</v>
@@ -7420,7 +7333,7 @@
         <v>698</v>
       </c>
       <c r="B311" t="s">
-        <v>777</v>
+        <v>748</v>
       </c>
       <c r="C311" t="s">
         <v>671</v>
@@ -7434,7 +7347,7 @@
         <v>699</v>
       </c>
       <c r="B312" t="s">
-        <v>778</v>
+        <v>749</v>
       </c>
       <c r="C312" t="s">
         <v>672</v>
@@ -7448,7 +7361,7 @@
         <v>700</v>
       </c>
       <c r="B313" t="s">
-        <v>779</v>
+        <v>750</v>
       </c>
       <c r="C313" t="s">
         <v>673</v>
@@ -7462,7 +7375,7 @@
         <v>701</v>
       </c>
       <c r="B314" t="s">
-        <v>780</v>
+        <v>751</v>
       </c>
       <c r="C314" t="s">
         <v>674</v>
@@ -7476,7 +7389,7 @@
         <v>702</v>
       </c>
       <c r="B315" t="s">
-        <v>781</v>
+        <v>752</v>
       </c>
       <c r="C315" t="s">
         <v>674</v>
@@ -7490,7 +7403,7 @@
         <v>703</v>
       </c>
       <c r="B316" t="s">
-        <v>782</v>
+        <v>753</v>
       </c>
       <c r="C316" t="s">
         <v>674</v>
@@ -7504,7 +7417,7 @@
         <v>704</v>
       </c>
       <c r="B317" t="s">
-        <v>783</v>
+        <v>754</v>
       </c>
       <c r="C317" t="s">
         <v>674</v>
@@ -7518,7 +7431,7 @@
         <v>705</v>
       </c>
       <c r="B318" t="s">
-        <v>784</v>
+        <v>755</v>
       </c>
       <c r="C318" t="s">
         <v>675</v>
@@ -7532,7 +7445,7 @@
         <v>706</v>
       </c>
       <c r="B319" t="s">
-        <v>785</v>
+        <v>756</v>
       </c>
       <c r="C319" t="s">
         <v>676</v>
@@ -7546,7 +7459,7 @@
         <v>707</v>
       </c>
       <c r="B320" t="s">
-        <v>786</v>
+        <v>757</v>
       </c>
       <c r="C320" t="s">
         <v>676</v>
@@ -7560,7 +7473,7 @@
         <v>708</v>
       </c>
       <c r="B321" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
       <c r="C321" t="s">
         <v>677</v>
@@ -7574,7 +7487,7 @@
         <v>709</v>
       </c>
       <c r="B322" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="C322" t="s">
         <v>677</v>
@@ -7588,7 +7501,7 @@
         <v>710</v>
       </c>
       <c r="B323" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="C323" t="s">
         <v>677</v>
@@ -7602,7 +7515,7 @@
         <v>711</v>
       </c>
       <c r="B324" t="s">
-        <v>790</v>
+        <v>761</v>
       </c>
       <c r="C324" t="s">
         <v>678</v>
@@ -7616,7 +7529,7 @@
         <v>712</v>
       </c>
       <c r="B325" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="C325" t="s">
         <v>679</v>
@@ -7630,7 +7543,7 @@
         <v>713</v>
       </c>
       <c r="B326" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="C326" t="s">
         <v>679</v>
@@ -7644,7 +7557,7 @@
         <v>714</v>
       </c>
       <c r="B327" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="C327" t="s">
         <v>680</v>
@@ -7658,7 +7571,7 @@
         <v>715</v>
       </c>
       <c r="B328" t="s">
-        <v>794</v>
+        <v>765</v>
       </c>
       <c r="C328" t="s">
         <v>681</v>
@@ -7672,7 +7585,7 @@
         <v>716</v>
       </c>
       <c r="B329" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
       <c r="C329" t="s">
         <v>682</v>
@@ -7686,7 +7599,7 @@
         <v>717</v>
       </c>
       <c r="B330" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
       <c r="C330" t="s">
         <v>682</v>
@@ -7700,7 +7613,7 @@
         <v>718</v>
       </c>
       <c r="B331" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
       <c r="C331" t="s">
         <v>682</v>
@@ -7714,7 +7627,7 @@
         <v>719</v>
       </c>
       <c r="B332" t="s">
-        <v>809</v>
+        <v>780</v>
       </c>
       <c r="C332" t="s">
         <v>683</v>
@@ -7728,7 +7641,7 @@
         <v>720</v>
       </c>
       <c r="B333" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="C333" t="s">
         <v>684</v>
@@ -7742,7 +7655,7 @@
         <v>721</v>
       </c>
       <c r="B334" t="s">
-        <v>811</v>
+        <v>782</v>
       </c>
       <c r="C334" t="s">
         <v>685</v>
@@ -7756,7 +7669,7 @@
         <v>722</v>
       </c>
       <c r="B335" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="C335" t="s">
         <v>686</v>
@@ -7770,7 +7683,7 @@
         <v>723</v>
       </c>
       <c r="B336" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="C336" t="s">
         <v>687</v>
@@ -7784,7 +7697,7 @@
         <v>724</v>
       </c>
       <c r="B337" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="C337" t="s">
         <v>688</v>
@@ -7798,7 +7711,7 @@
         <v>725</v>
       </c>
       <c r="B338" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
       <c r="C338" t="s">
         <v>689</v>
@@ -7812,7 +7725,7 @@
         <v>726</v>
       </c>
       <c r="B339" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
       <c r="C339" t="s">
         <v>689</v>
@@ -7826,7 +7739,7 @@
         <v>727</v>
       </c>
       <c r="B340" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
       <c r="C340" t="s">
         <v>689</v>
@@ -7840,7 +7753,7 @@
         <v>728</v>
       </c>
       <c r="B341" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
       <c r="C341" t="s">
         <v>689</v>
@@ -7851,13 +7764,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
       <c r="B342" t="s">
-        <v>806</v>
+        <v>777</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="D342" t="s">
         <v>667</v>
@@ -7868,7 +7781,7 @@
         <v>729</v>
       </c>
       <c r="B343" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
       <c r="C343" t="s">
         <v>690</v>
@@ -7879,10 +7792,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>741</v>
+        <v>812</v>
       </c>
       <c r="B344" t="s">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="C344" t="s">
         <v>731</v>
@@ -7893,10 +7806,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>742</v>
+        <v>813</v>
       </c>
       <c r="B345" t="s">
-        <v>813</v>
+        <v>784</v>
       </c>
       <c r="C345" t="s">
         <v>731</v>
@@ -7907,10 +7820,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>743</v>
+        <v>814</v>
       </c>
       <c r="B346" t="s">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="C346" t="s">
         <v>732</v>
@@ -7921,10 +7834,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>744</v>
+        <v>815</v>
       </c>
       <c r="B347" t="s">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="C347" t="s">
         <v>732</v>
@@ -7935,10 +7848,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>745</v>
+        <v>816</v>
       </c>
       <c r="B348" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="C348" t="s">
         <v>733</v>
@@ -7949,10 +7862,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>746</v>
+        <v>817</v>
       </c>
       <c r="B349" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="C349" t="s">
         <v>733</v>
@@ -7963,10 +7876,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>747</v>
+        <v>818</v>
       </c>
       <c r="B350" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="C350" t="s">
         <v>733</v>
@@ -7977,10 +7890,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>748</v>
+        <v>819</v>
       </c>
       <c r="B351" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="C351" t="s">
         <v>733</v>
@@ -7991,10 +7904,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>749</v>
+        <v>820</v>
       </c>
       <c r="B352" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="C352" t="s">
         <v>733</v>
@@ -8005,10 +7918,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>750</v>
+        <v>821</v>
       </c>
       <c r="B353" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
       <c r="C353" t="s">
         <v>733</v>
@@ -8019,10 +7932,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>751</v>
+        <v>822</v>
       </c>
       <c r="B354" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="C354" t="s">
         <v>734</v>
@@ -8033,10 +7946,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>752</v>
+        <v>823</v>
       </c>
       <c r="B355" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
       <c r="C355" t="s">
         <v>734</v>
@@ -8047,10 +7960,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>753</v>
+        <v>824</v>
       </c>
       <c r="B356" t="s">
-        <v>824</v>
+        <v>795</v>
       </c>
       <c r="C356" t="s">
         <v>734</v>
@@ -8061,10 +7974,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>754</v>
+        <v>825</v>
       </c>
       <c r="B357" t="s">
-        <v>825</v>
+        <v>796</v>
       </c>
       <c r="C357" t="s">
         <v>735</v>
@@ -8075,10 +7988,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>755</v>
+        <v>826</v>
       </c>
       <c r="B358" t="s">
-        <v>826</v>
+        <v>797</v>
       </c>
       <c r="C358" t="s">
         <v>735</v>
@@ -8089,10 +8002,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>756</v>
+        <v>827</v>
       </c>
       <c r="B359" t="s">
-        <v>827</v>
+        <v>798</v>
       </c>
       <c r="C359" t="s">
         <v>735</v>
@@ -8103,10 +8016,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>757</v>
+        <v>828</v>
       </c>
       <c r="B360" t="s">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="C360" t="s">
         <v>736</v>
@@ -8117,10 +8030,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>758</v>
+        <v>829</v>
       </c>
       <c r="B361" t="s">
-        <v>829</v>
+        <v>800</v>
       </c>
       <c r="C361" t="s">
         <v>736</v>
@@ -8131,10 +8044,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>759</v>
+        <v>830</v>
       </c>
       <c r="B362" t="s">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="C362" t="s">
         <v>737</v>
@@ -8145,10 +8058,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>760</v>
+        <v>831</v>
       </c>
       <c r="B363" t="s">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="C363" t="s">
         <v>737</v>
@@ -8159,10 +8072,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>761</v>
+        <v>832</v>
       </c>
       <c r="B364" t="s">
-        <v>832</v>
+        <v>803</v>
       </c>
       <c r="C364" t="s">
         <v>737</v>
@@ -8173,10 +8086,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>762</v>
+        <v>833</v>
       </c>
       <c r="B365" t="s">
-        <v>833</v>
+        <v>804</v>
       </c>
       <c r="C365" t="s">
         <v>738</v>
@@ -8187,10 +8100,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="B366" t="s">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="C366" t="s">
         <v>738</v>
@@ -8201,10 +8114,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="B367" t="s">
-        <v>835</v>
+        <v>806</v>
       </c>
       <c r="C367" t="s">
         <v>738</v>
@@ -8215,10 +8128,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>765</v>
+        <v>836</v>
       </c>
       <c r="B368" t="s">
-        <v>836</v>
+        <v>807</v>
       </c>
       <c r="C368" t="s">
         <v>739</v>
@@ -8229,10 +8142,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>766</v>
+        <v>837</v>
       </c>
       <c r="B369" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C369" t="s">
         <v>739</v>
@@ -8243,10 +8156,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>767</v>
+        <v>838</v>
       </c>
       <c r="B370" t="s">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="C370" t="s">
         <v>740</v>
@@ -8257,10 +8170,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>768</v>
+        <v>839</v>
       </c>
       <c r="B371" t="s">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="C371" t="s">
         <v>740</v>
@@ -8271,10 +8184,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>769</v>
+        <v>840</v>
       </c>
       <c r="B372" t="s">
-        <v>840</v>
+        <v>811</v>
       </c>
       <c r="C372" t="s">
         <v>740</v>

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\Python Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564C6E0B-E33A-45B1-8C02-F246043C2F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF5D02C-507F-4EEC-92A6-77D5DBBBD668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="842">
   <si>
     <t>item.name</t>
   </si>
@@ -419,9 +419,6 @@
     <t>ΑλφαμέγαΧωριάτικοΑλεύρι1kg</t>
   </si>
   <si>
-    <t>NestleDessertΚουβερτούραΛευκήςΣοκολάτας180g</t>
-  </si>
-  <si>
     <t>NestleDessertΚουβερτούρα200g</t>
   </si>
   <si>
@@ -488,24 +485,12 @@
     <t>ΤοΤζιβέρτιΜέλιΑνθέων500g</t>
   </si>
   <si>
-    <t>ΣυσκευασμέναΜήλαΚόκκινα800g</t>
-  </si>
-  <si>
     <t>ΑλφαμέγαΜύρτιλα125g</t>
   </si>
   <si>
-    <t>ΣυσκευασμέναΚίτριναΜήλα800g</t>
-  </si>
-  <si>
     <t>ΣυσκευασμέναΑκτινίδια900g</t>
   </si>
   <si>
-    <t>ΠορτοκάλιαΓιαφίτικα1200g</t>
-  </si>
-  <si>
-    <t>ΣυσκευασμέναΜήλαGala1200g</t>
-  </si>
-  <si>
     <t>ΠορτοκάλιαγιαΧυμό1.2kg</t>
   </si>
   <si>
@@ -1040,9 +1025,6 @@
     <t>/groceries/food-cupboard/home-baking/flour/mitsides-traditional-flour-1-kg</t>
   </si>
   <si>
-    <t>/groceries/food-cupboard/home-baking/cooking-chocolate/nestle-dessert-white-chocolate-couverture-180-g</t>
-  </si>
-  <si>
     <t>/groceries/food-cupboard/home-baking/cooking-chocolate/nestle-dessert-cooking-chocolate-200-g</t>
   </si>
   <si>
@@ -1112,12 +1094,6 @@
     <t>/groceries/fresh-food/fresh-fruit/pink-lady-apples-1200-g</t>
   </si>
   <si>
-    <t>/groceries/fresh-food/fresh-fruit/oranges-jaffa-1200-g</t>
-  </si>
-  <si>
-    <t>/groceries/fresh-food/fresh-fruit/prepacked-red-apples-800-g</t>
-  </si>
-  <si>
     <t>/groceries/fresh-food/fresh-fruit/prepacked-kiwi-900-g</t>
   </si>
   <si>
@@ -1127,13 +1103,7 @@
     <t>/groceries/fresh-food/fresh-fruit/seedless-white-grapes-500-g</t>
   </si>
   <si>
-    <t>/groceries/fresh-food/fresh-fruit/prepacked-yellow-apples-800-g</t>
-  </si>
-  <si>
     <t>/groceries/fresh-food/fresh-fruit/prepacked-pears-super-800-g</t>
-  </si>
-  <si>
-    <t>/groceries/fresh-food/fresh-fruit/prepacked-gala-apples-800-g</t>
   </si>
   <si>
     <t>/groceries/fresh-food/fresh-fruit/prepacked-apples-granny-smith-1200-g</t>
@@ -1416,12 +1386,6 @@
     <t>/pure-cotton-embroidered-bedding-set/p/P60575055.html#index=0</t>
   </si>
   <si>
-    <t>/luxury-pure-cotton-towel/p/P60467039.html#index=0</t>
-  </si>
-  <si>
-    <t>Luxury Pure Cotton Towel</t>
-  </si>
-  <si>
     <t>/cotton-with-linen-tablecloth/p/P60506538.html#index=0?dwvar_P60506538_color=V0&amp;dwvar_P60506538_size=1SIZE&amp;pid=P60506538&amp;quantity=1</t>
   </si>
   <si>
@@ -1707,12 +1671,6 @@
     <t>/product_details.php?pid=155090&amp;type=groups</t>
   </si>
   <si>
-    <t>/product_details.php?pid=157383&amp;type=groups</t>
-  </si>
-  <si>
-    <t>ADIDAS FORUM LOW C</t>
-  </si>
-  <si>
     <t>SKECHERS GIRLS FLUTTER HEART - LOVE LIGHT SHOES</t>
   </si>
   <si>
@@ -2274,9 +2232,6 @@
     <t>/proioda/surtarieres/surtarieres/surtarieres/gursken-syrtariera-me-3-syrtaria-69x67-cm/00486327</t>
   </si>
   <si>
-    <t>proioda/komodina/knarrevik-komodino/30381183</t>
-  </si>
-  <si>
     <t>/proioda/skabo-pagoi-trapezarias/marius-skampo/10135659</t>
   </si>
   <si>
@@ -2310,274 +2265,301 @@
     <t>/proioda/fotismos/epidapedia-fotistika/tagarp-fwtistiko-dapedoy-diabasmatos/40486392</t>
   </si>
   <si>
+    <t>/proioda/eidi-gia-katoikidia/lurvig-mpol-0-3-l/00377074</t>
+  </si>
+  <si>
+    <t>/proioda/eidi-gia-katoikidia/lurvig-anaklastikoi-imantes/50360698</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/kaspo/forenlig-kaspo-eswterikoy-ekswterikoy-xwroy/70454813</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/potistiria/ikea-ps-2002-potistiri/60289946</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/anthostiles-kai-axesouar-gia-ton-kipo/stjarnanis-zarntiniera-ekswterikoy-xwroy-43x15-cm/20505297</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/futa/hyacinthus-fyto-se-glastra-yakinthos-1-bolbos-8-cm/20535020</t>
+  </si>
+  <si>
+    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/futa/phalaenopsis-fyto-orxidea-me-1-blasto/30320217</t>
+  </si>
+  <si>
+    <t>GLOSTAD διθέσιος καναπές</t>
+  </si>
+  <si>
+    <t>MELLTORP/ADDE τραπέζι και 4 καρέκλες</t>
+  </si>
+  <si>
+    <t>FEJAN πτυσσόμενη καρέκλα, εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>TARNO τραπέζι, εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>BAGGEBO βιβλιοθήκη, 50x30x80 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN σκελετός κρεβατιού με κεφαλάρι, 140x200 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN ντουλάπα, 49x55x186 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN συρταριέρα με 3 συρτάρια, 69x67 cm</t>
+  </si>
+  <si>
+    <t>KNARREVIK κομοδίνο</t>
+  </si>
+  <si>
+    <t>MARIUS Σκαμπό</t>
+  </si>
+  <si>
+    <t>TIPHEDE χαλί, χαμηλή πλέξη</t>
+  </si>
+  <si>
+    <t>KLEJS χαλί, χαμηλή πλέξη</t>
+  </si>
+  <si>
+    <t>KLAMPENBORG χαλάκι πόρτας/ εσωτερικού χώρου, 35x55 cm</t>
+  </si>
+  <si>
+    <t>POKAL Ποτήρι</t>
+  </si>
+  <si>
+    <t>OFTAST Πιάτο</t>
+  </si>
+  <si>
+    <t>OFTAST Μπολ</t>
+  </si>
+  <si>
+    <t>MOPSIG μαχαιροπίρουνα, σετ 16 τεμ.</t>
+  </si>
+  <si>
+    <t>ANNONS Σκεύη μαγειρικής, σετ 3 τεμ.</t>
+  </si>
+  <si>
+    <t>BARLAST επιτραπέζιο φωτιστικό, 31 cm</t>
+  </si>
+  <si>
+    <t>RESTAD φωτιστικό οροφής</t>
+  </si>
+  <si>
+    <t>TAGARP φωτιστικό δαπέδου/διαβάσματος</t>
+  </si>
+  <si>
+    <t>FORENLIG κασπό εσωτερικού/εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>IKEA PS 2002 Ποτιστήρι</t>
+  </si>
+  <si>
+    <t>STJARNANIS ζαρντινιέρα εξωτερικού χώρου, 43x15 cm</t>
+  </si>
+  <si>
+    <t>PHALAENOPSIS φυτό, Ορχιδέα με 1 βλαστό</t>
+  </si>
+  <si>
+    <t>LURVIG μπολ,  0.3 l</t>
+  </si>
+  <si>
+    <t>LURVIG ανακλαστικοί ιμάντες</t>
+  </si>
+  <si>
+    <t>Other bakery products</t>
+  </si>
+  <si>
+    <t>Breakfast Cereals</t>
+  </si>
+  <si>
+    <t>Pasta products and couscous</t>
+  </si>
+  <si>
+    <t>Salt, spices and culinary herbs</t>
+  </si>
+  <si>
+    <t>Dried fruit and nuts</t>
+  </si>
+  <si>
+    <t>Jams, marmalades and honey</t>
+  </si>
+  <si>
+    <t>Sauces, condiments</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+  </si>
+  <si>
+    <t>Other edible oils</t>
+  </si>
+  <si>
+    <t>Other preserved or processed fish and seafood-based preparations</t>
+  </si>
+  <si>
+    <t>Dried, smoked or salted fish and seafood</t>
+  </si>
+  <si>
+    <t>Other meat preparations</t>
+  </si>
+  <si>
+    <t>Dried vegetables, other preserved or processed vegetables</t>
+  </si>
+  <si>
+    <t>Other milk products</t>
+  </si>
+  <si>
+    <t>Other food products n.e.c.</t>
+  </si>
+  <si>
+    <t>Flours and other cereals</t>
+  </si>
+  <si>
+    <t>Confectionery products</t>
+  </si>
+  <si>
+    <t>Fresh or chilled vegetables other than potatoes and other tubers</t>
+  </si>
+  <si>
+    <t>Fresh or chilled fruit</t>
+  </si>
+  <si>
+    <t>Fresh or chilled fish</t>
+  </si>
+  <si>
+    <t>Preserved milk</t>
+  </si>
+  <si>
+    <t>Low fat Milk</t>
+  </si>
+  <si>
+    <t>Whole Milk</t>
+  </si>
+  <si>
+    <t>Margarine and other vegetable fats</t>
+  </si>
+  <si>
+    <t>Other meat</t>
+  </si>
+  <si>
+    <t>Beef and veal</t>
+  </si>
+  <si>
+    <t>Lamb and goat</t>
+  </si>
+  <si>
+    <t>Yoghurt</t>
+  </si>
+  <si>
+    <t>item.division</t>
+  </si>
+  <si>
+    <t>1.FOOD AND NON-ALCOHOLIC BEVERAGES</t>
+  </si>
+  <si>
+    <t>3.CLOTHING AND FOOTWEAR</t>
+  </si>
+  <si>
+    <t>7.TRANSPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.FURNISHING, HOUSEHOLD EQUIPMENT AND SUPPLIES </t>
+  </si>
+  <si>
+    <t>8.COMMUNICATION</t>
+  </si>
+  <si>
+    <t>9.RECREATION AND CULTURE</t>
+  </si>
+  <si>
+    <t>12.MISCELLANEOUS GOODS AND SERVICES</t>
+  </si>
+  <si>
+    <t>/groceries/food-cupboard/breakfast/cereals-muesli-oats/kelloggs-special-k-cereal-450-g</t>
+  </si>
+  <si>
+    <t>Kellogg'sSpecialKΔημητριακά450g</t>
+  </si>
+  <si>
+    <t>/groceries/food-cupboard/oils-vinegars-sauces-dressings/cooking-oil/alphamega-sunflower-oil-3-l</t>
+  </si>
+  <si>
+    <t>ΑλφαμέγαΗλιέλαιο3L</t>
+  </si>
+  <si>
+    <t>Λεμόνια1kg</t>
+  </si>
+  <si>
+    <t>/groceries/fresh-food/fresh-vegetables/lemons-1-kg</t>
+  </si>
+  <si>
+    <t>/gynaikeia/rouxa/mplouzes-t-shirts/t-shirts-konto-maniki/puma-gynaikeio-t-shirt-essentials-log_805971/</t>
+  </si>
+  <si>
+    <t>PUMAΓυναικείο Τ-shirt Essentials Log</t>
+  </si>
+  <si>
+    <t>adidas PerformanceΓυναικείο Σορτς Run Icons 3Bar Aop</t>
+  </si>
+  <si>
+    <t>/gynaikeia/rouxa/sorts-vermoudes/adidas-performance-gynaikeio-sorts-run-icons-3bar-aop_796263/</t>
+  </si>
+  <si>
+    <t>FILAΠαιδικά Sneakers D-Formation</t>
+  </si>
+  <si>
+    <t>/paidika/papoutsia/sportstyle/fila-paidika-sneakers-d-formation_744225/</t>
+  </si>
+  <si>
+    <t>NIKEUnisex Κάλτσες Σοσόνια Everyday 3-Pairs</t>
+  </si>
+  <si>
+    <t>/andrika/rouxa/kaltses/sosonia/nike-unisex-kaltses-sosonia-everyday-3-pairs_587036/</t>
+  </si>
+  <si>
+    <t>ADIDAS M20 SHORT</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=159570&amp;type=groups</t>
+  </si>
+  <si>
+    <t>/proioda/komodina/knarrevik-komodino/30381183</t>
+  </si>
+  <si>
+    <t>Oscar Λευκή Σοκολάτα Κουβερτούρα 125 g</t>
+  </si>
+  <si>
+    <t>/groceries/food-cupboard/home-baking/cooking-chocolate/oscar-white-chocolate-couverture-125-g</t>
+  </si>
+  <si>
+    <t>/groceries/fresh-food/fresh-fruit/imported-peaches-800-g</t>
+  </si>
+  <si>
+    <t>Ροδάκινα Εισαγόμενα 800 g</t>
+  </si>
+  <si>
+    <t>/super-plush-pure-cotton-towel/p/P60575461.html#index=0</t>
+  </si>
+  <si>
+    <t>Super Plush Pure Cotton Towel</t>
+  </si>
+  <si>
+    <t>/product_details.php?pid=161533&amp;type=groups</t>
+  </si>
+  <si>
+    <t>ADIDAS RUNFALCON 3.0 K</t>
+  </si>
+  <si>
+    <t>HYACINTHUS φυτό σε γλάστρα/Υάκινθος 1 βολβός, 8 cm</t>
+  </si>
+  <si>
     <t>/proioda/eidi-kouzinas/mageirika-skeui/set-eidon-kouzinas/annons-skeyi-mageirikis-set-3-tem-/90207402</t>
   </si>
   <si>
-    <t>/proioda/eidi-gia-katoikidia/lurvig-mpol-0-3-l/00377074</t>
-  </si>
-  <si>
-    <t>/proioda/eidi-gia-katoikidia/lurvig-anaklastikoi-imantes/50360698</t>
-  </si>
-  <si>
-    <t>/proioda/eidi-gia-katoikidia/lurvig-boyrtsa/00456815</t>
-  </si>
-  <si>
-    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/kaspo/forenlig-kaspo-eswterikoy-ekswterikoy-xwroy/70454813</t>
-  </si>
-  <si>
-    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/potistiria/ikea-ps-2002-potistiri/60289946</t>
-  </si>
-  <si>
-    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/anthostiles-kai-axesouar-gia-ton-kipo/stjarnanis-zarntiniera-ekswterikoy-xwroy-43x15-cm/20505297</t>
-  </si>
-  <si>
-    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/futa/hyacinthus-fyto-se-glastra-yakinthos-1-bolbos-8-cm/20535020</t>
-  </si>
-  <si>
-    <t>/proioda/diakosmitika-keria-futa/futa-kaspo/futa/phalaenopsis-fyto-orxidea-me-1-blasto/30320217</t>
-  </si>
-  <si>
-    <t>GLOSTAD διθέσιος καναπές</t>
-  </si>
-  <si>
-    <t>MELLTORP/ADDE τραπέζι και 4 καρέκλες</t>
-  </si>
-  <si>
-    <t>FEJAN πτυσσόμενη καρέκλα, εξωτερικού χώρου</t>
-  </si>
-  <si>
-    <t>TARNO τραπέζι, εξωτερικού χώρου</t>
-  </si>
-  <si>
-    <t>BAGGEBO βιβλιοθήκη, 50x30x80 cm</t>
-  </si>
-  <si>
-    <t>GURSKEN σκελετός κρεβατιού με κεφαλάρι, 140x200 cm</t>
-  </si>
-  <si>
-    <t>GURSKEN ντουλάπα, 49x55x186 cm</t>
-  </si>
-  <si>
-    <t>GURSKEN συρταριέρα με 3 συρτάρια, 69x67 cm</t>
-  </si>
-  <si>
-    <t>KNARREVIK κομοδίνο</t>
-  </si>
-  <si>
-    <t>MARIUS Σκαμπό</t>
-  </si>
-  <si>
-    <t>TIPHEDE χαλί, χαμηλή πλέξη</t>
-  </si>
-  <si>
-    <t>KLEJS χαλί, χαμηλή πλέξη</t>
-  </si>
-  <si>
-    <t>KLAMPENBORG χαλάκι πόρτας/ εσωτερικού χώρου, 35x55 cm</t>
-  </si>
-  <si>
-    <t>POKAL Ποτήρι</t>
-  </si>
-  <si>
-    <t>OFTAST Πιάτο</t>
-  </si>
-  <si>
-    <t>OFTAST Μπολ</t>
-  </si>
-  <si>
-    <t>MOPSIG μαχαιροπίρουνα, σετ 16 τεμ.</t>
-  </si>
-  <si>
-    <t>ANNONS Σκεύη μαγειρικής, σετ 3 τεμ.</t>
-  </si>
-  <si>
-    <t>BARLAST επιτραπέζιο φωτιστικό, 31 cm</t>
-  </si>
-  <si>
-    <t>RESTAD φωτιστικό οροφής</t>
-  </si>
-  <si>
-    <t>TAGARP φωτιστικό δαπέδου/διαβάσματος</t>
-  </si>
-  <si>
-    <t>FORENLIG κασπό εσωτερικού/εξωτερικού χώρου</t>
-  </si>
-  <si>
-    <t>IKEA PS 2002 Ποτιστήρι</t>
-  </si>
-  <si>
-    <t>STJARNANIS ζαρντινιέρα εξωτερικού χώρου, 43x15 cm</t>
-  </si>
-  <si>
-    <t>PHALAENOPSIS φυτό, Ορχιδέα με 1 βλαστό</t>
-  </si>
-  <si>
-    <t>DRACAENA φυτό σε γλάστρα, 9 cm</t>
-  </si>
-  <si>
-    <t>LURVIG μπολ,  0.3 l</t>
-  </si>
-  <si>
-    <t>LURVIG ανακλαστικοί ιμάντες</t>
-  </si>
-  <si>
-    <t>LURVIG βούρτσα</t>
-  </si>
-  <si>
-    <t>Other bakery products</t>
-  </si>
-  <si>
-    <t>Breakfast Cereals</t>
-  </si>
-  <si>
-    <t>Pasta products and couscous</t>
-  </si>
-  <si>
-    <t>Salt, spices and culinary herbs</t>
-  </si>
-  <si>
-    <t>Dried fruit and nuts</t>
-  </si>
-  <si>
-    <t>Jams, marmalades and honey</t>
-  </si>
-  <si>
-    <t>Sauces, condiments</t>
-  </si>
-  <si>
-    <t>Olive Oil</t>
-  </si>
-  <si>
-    <t>Other edible oils</t>
-  </si>
-  <si>
-    <t>Other preserved or processed fish and seafood-based preparations</t>
-  </si>
-  <si>
-    <t>Dried, smoked or salted fish and seafood</t>
-  </si>
-  <si>
-    <t>Other meat preparations</t>
-  </si>
-  <si>
-    <t>Dried vegetables, other preserved or processed vegetables</t>
-  </si>
-  <si>
-    <t>Other milk products</t>
-  </si>
-  <si>
-    <t>Other food products n.e.c.</t>
-  </si>
-  <si>
-    <t>Flours and other cereals</t>
-  </si>
-  <si>
-    <t>Confectionery products</t>
-  </si>
-  <si>
-    <t>Fresh or chilled vegetables other than potatoes and other tubers</t>
-  </si>
-  <si>
-    <t>Fresh or chilled fruit</t>
-  </si>
-  <si>
-    <t>Fresh or chilled fish</t>
-  </si>
-  <si>
-    <t>Preserved milk</t>
-  </si>
-  <si>
-    <t>Low fat Milk</t>
-  </si>
-  <si>
-    <t>Whole Milk</t>
-  </si>
-  <si>
-    <t>Margarine and other vegetable fats</t>
-  </si>
-  <si>
-    <t>Other meat</t>
-  </si>
-  <si>
-    <t>Beef and veal</t>
-  </si>
-  <si>
-    <t>Lamb and goat</t>
-  </si>
-  <si>
-    <t>Yoghurt</t>
-  </si>
-  <si>
-    <t>item.division</t>
-  </si>
-  <si>
-    <t>1.FOOD AND NON-ALCOHOLIC BEVERAGES</t>
-  </si>
-  <si>
-    <t>3.CLOTHING AND FOOTWEAR</t>
-  </si>
-  <si>
-    <t>7.TRANSPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.FURNISHING, HOUSEHOLD EQUIPMENT AND SUPPLIES </t>
-  </si>
-  <si>
-    <t>8.COMMUNICATION</t>
-  </si>
-  <si>
-    <t>9.RECREATION AND CULTURE</t>
-  </si>
-  <si>
-    <t>12.MISCELLANEOUS GOODS AND SERVICES</t>
-  </si>
-  <si>
-    <t>/groceries/food-cupboard/breakfast/cereals-muesli-oats/kelloggs-special-k-cereal-450-g</t>
-  </si>
-  <si>
-    <t>Kellogg'sSpecialKΔημητριακά450g</t>
-  </si>
-  <si>
-    <t>/groceries/food-cupboard/oils-vinegars-sauces-dressings/cooking-oil/alphamega-sunflower-oil-3-l</t>
-  </si>
-  <si>
-    <t>ΑλφαμέγαΗλιέλαιο3L</t>
-  </si>
-  <si>
-    <t>Λεμόνια1kg</t>
-  </si>
-  <si>
-    <t>/groceries/fresh-food/fresh-vegetables/lemons-1-kg</t>
-  </si>
-  <si>
-    <t>/gynaikeia/rouxa/mplouzes-t-shirts/t-shirts-konto-maniki/puma-gynaikeio-t-shirt-essentials-log_805971/</t>
-  </si>
-  <si>
-    <t>PUMAΓυναικείο Τ-shirt Essentials Log</t>
-  </si>
-  <si>
-    <t>adidas PerformanceΓυναικείο Σορτς Run Icons 3Bar Aop</t>
-  </si>
-  <si>
-    <t>/gynaikeia/rouxa/sorts-vermoudes/adidas-performance-gynaikeio-sorts-run-icons-3bar-aop_796263/</t>
-  </si>
-  <si>
-    <t>FILAΠαιδικά Sneakers D-Formation</t>
-  </si>
-  <si>
-    <t>/paidika/papoutsia/sportstyle/fila-paidika-sneakers-d-formation_744225/</t>
-  </si>
-  <si>
-    <t>NIKEUnisex Κάλτσες Σοσόνια Everyday 3-Pairs</t>
-  </si>
-  <si>
-    <t>/andrika/rouxa/kaltses/sosonia/nike-unisex-kaltses-sosonia-everyday-3-pairs_587036/</t>
-  </si>
-  <si>
-    <t>ADIDAS M20 SHORT</t>
-  </si>
-  <si>
-    <t>/product_details.php?pid=159570&amp;type=groups</t>
+    <t>/proioda/eidi-gia-katoikidia/lurvig-ftyaraki-ammoy-gatas/00456820</t>
+  </si>
+  <si>
+    <t>LURVIG φτυαράκι άμμου γάτας</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2615,6 +2597,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2649,18 +2639,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2677,9 +2670,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2717,9 +2710,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2752,26 +2745,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2804,26 +2780,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2997,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="55" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3023,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3031,16 +2990,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -3051,13 +3010,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -3068,13 +3027,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -3085,13 +3044,13 @@
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -3102,13 +3061,13 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -3119,13 +3078,13 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -3136,13 +3095,13 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D8" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -3153,13 +3112,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D9" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -3170,13 +3129,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D10" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -3187,13 +3146,13 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D11" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3204,13 +3163,13 @@
         <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D12" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -3221,13 +3180,13 @@
         <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D13" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -3238,13 +3197,13 @@
         <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D14" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -3252,16 +3211,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D15" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -3269,16 +3228,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D16" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -3286,16 +3245,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D17" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -3303,16 +3262,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D18" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -3320,16 +3279,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D19" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -3337,16 +3296,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D20" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -3354,16 +3313,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D21" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -3371,16 +3330,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D22" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -3391,13 +3350,13 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D23" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -3405,16 +3364,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C24" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D24" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -3425,13 +3384,13 @@
         <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D25" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -3442,13 +3401,13 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D26" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -3459,13 +3418,13 @@
         <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D27" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -3476,13 +3435,13 @@
         <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D28" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -3490,16 +3449,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="C29" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D29" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -3510,13 +3469,13 @@
         <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="D30" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
@@ -3527,13 +3486,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D31" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -3544,13 +3503,13 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D32" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -3561,13 +3520,13 @@
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D33" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
@@ -3578,13 +3537,13 @@
         <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D34" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
@@ -3595,13 +3554,13 @@
         <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D35" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -3612,13 +3571,13 @@
         <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D36" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
@@ -3629,13 +3588,13 @@
         <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D37" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
@@ -3643,16 +3602,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C38" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D38" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
@@ -3663,13 +3622,13 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -3677,16 +3636,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -3697,13 +3656,13 @@
         <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -3714,13 +3673,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
@@ -3731,13 +3690,13 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
@@ -3748,13 +3707,13 @@
         <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
@@ -3762,16 +3721,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
@@ -3779,16 +3738,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -3796,16 +3755,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
@@ -3813,16 +3772,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D48" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
@@ -3833,13 +3792,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D49" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
@@ -3850,13 +3809,13 @@
         <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D50" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
@@ -3867,13 +3826,13 @@
         <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D51" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
@@ -3884,13 +3843,13 @@
         <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D52" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
@@ -3901,13 +3860,13 @@
         <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D53" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
@@ -3918,13 +3877,13 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D54" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
@@ -3935,13 +3894,13 @@
         <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D55" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
@@ -3952,13 +3911,13 @@
         <v>65</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C56" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D56" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
@@ -3969,13 +3928,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D57" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
@@ -3986,13 +3945,13 @@
         <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C58" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D58" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
@@ -4003,13 +3962,13 @@
         <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D59" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
@@ -4020,13 +3979,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D60" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
@@ -4037,13 +3996,13 @@
         <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D61" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
@@ -4054,13 +4013,13 @@
         <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D62" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
@@ -4071,13 +4030,13 @@
         <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D63" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
@@ -4088,13 +4047,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D64" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
@@ -4105,13 +4064,13 @@
         <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D65" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
@@ -4122,13 +4081,13 @@
         <v>73</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D66" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
@@ -4139,13 +4098,13 @@
         <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D67" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
@@ -4156,13 +4115,13 @@
         <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D68" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
@@ -4173,13 +4132,13 @@
         <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D69" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -4190,13 +4149,13 @@
         <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D70" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
@@ -4204,16 +4163,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D71" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
@@ -4224,13 +4183,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D72" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
@@ -4241,13 +4200,13 @@
         <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D73" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
@@ -4255,16 +4214,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D74" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
@@ -4272,16 +4231,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D75" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
@@ -4292,13 +4251,13 @@
         <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D76" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -4309,13 +4268,13 @@
         <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C77" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D77" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
@@ -4326,13 +4285,13 @@
         <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D78" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -4343,13 +4302,13 @@
         <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C79" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D79" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -4360,13 +4319,13 @@
         <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D80" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -4377,13 +4336,13 @@
         <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C81" t="s">
         <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
@@ -4394,13 +4353,13 @@
         <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C82" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D82" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
@@ -4411,13 +4370,13 @@
         <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D83" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -4428,13 +4387,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D84" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
@@ -4445,13 +4404,13 @@
         <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D85" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
@@ -4462,13 +4421,13 @@
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C86" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D86" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
@@ -4479,13 +4438,13 @@
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D87" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
@@ -4496,13 +4455,13 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D88" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
@@ -4513,13 +4472,13 @@
         <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C89" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D89" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
@@ -4530,13 +4489,13 @@
         <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D90" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -4547,13 +4506,13 @@
         <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D91" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
@@ -4564,13 +4523,13 @@
         <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="D92" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
@@ -4581,13 +4540,13 @@
         <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="D93" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
@@ -4598,13 +4557,13 @@
         <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="D94" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
@@ -4615,13 +4574,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="D95" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
@@ -4632,13 +4591,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C96" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="D96" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
@@ -4649,13 +4608,13 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C97" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="D97" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
@@ -4663,16 +4622,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="C98" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="D98" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
@@ -4683,13 +4642,13 @@
         <v>11</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="D99" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
@@ -4700,13 +4659,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="D100" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
@@ -4717,13 +4676,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="D101" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
@@ -4734,13 +4693,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="D102" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
@@ -4751,13 +4710,13 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="D103" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
@@ -4768,13 +4727,13 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="D104" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
@@ -4785,13 +4744,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="D105" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
@@ -4802,13 +4761,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="D106" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
@@ -4816,16 +4775,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D107" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
@@ -4836,13 +4795,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C108" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D108" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
@@ -4853,13 +4812,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C109" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D109" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
@@ -4870,13 +4829,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C110" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D110" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
@@ -4887,13 +4846,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D111" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
@@ -4904,13 +4863,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C112" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D112" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
@@ -4921,13 +4880,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D113" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
@@ -4938,13 +4897,13 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C114" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D114" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
@@ -4952,16 +4911,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D115" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
@@ -4969,16 +4928,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C116" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D116" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
@@ -4989,13 +4948,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C117" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D117" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E117" t="s">
         <v>30</v>
@@ -5006,13 +4965,13 @@
         <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C118" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D118" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E118" t="s">
         <v>30</v>
@@ -5023,13 +4982,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C119" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D119" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E119" t="s">
         <v>30</v>
@@ -5040,13 +4999,13 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D120" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E120" t="s">
         <v>30</v>
@@ -5057,13 +5016,13 @@
         <v>12</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C121" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D121" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E121" t="s">
         <v>30</v>
@@ -5071,16 +5030,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C122" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D122" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E122" t="s">
         <v>30</v>
@@ -5091,13 +5050,13 @@
         <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C123" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D123" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E123" t="s">
         <v>30</v>
@@ -5108,13 +5067,13 @@
         <v>14</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D124" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E124" t="s">
         <v>30</v>
@@ -5125,13 +5084,13 @@
         <v>13</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C125" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D125" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E125" t="s">
         <v>30</v>
@@ -5139,16 +5098,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D126" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E126" t="s">
         <v>30</v>
@@ -5156,16 +5115,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C127" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D127" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E127" t="s">
         <v>30</v>
@@ -5173,16 +5132,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C128" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D128" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E128" t="s">
         <v>30</v>
@@ -5193,13 +5152,13 @@
         <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C129" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D129" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E129" t="s">
         <v>30</v>
@@ -5210,13 +5169,13 @@
         <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D130" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E130" t="s">
         <v>30</v>
@@ -5227,13 +5186,13 @@
         <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C131" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D131" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E131" t="s">
         <v>30</v>
@@ -5244,13 +5203,13 @@
         <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C132" t="s">
         <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E132" t="s">
         <v>30</v>
@@ -5261,13 +5220,13 @@
         <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C133" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D133" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E133" t="s">
         <v>30</v>
@@ -5278,13 +5237,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D134" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E134" t="s">
         <v>30</v>
@@ -5295,13 +5254,13 @@
         <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C135" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D135" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E135" t="s">
         <v>30</v>
@@ -5312,13 +5271,13 @@
         <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C136" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D136" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E136" t="s">
         <v>30</v>
@@ -5329,13 +5288,13 @@
         <v>126</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D137" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E137" t="s">
         <v>30</v>
@@ -5346,13 +5305,13 @@
         <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C138" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D138" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E138" t="s">
         <v>30</v>
@@ -5360,16 +5319,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>128</v>
+        <v>830</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>335</v>
+        <v>831</v>
       </c>
       <c r="C139" t="s">
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E139" t="s">
         <v>30</v>
@@ -5377,16 +5336,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C140" t="s">
         <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E140" t="s">
         <v>30</v>
@@ -5394,16 +5353,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C141" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D141" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E141" t="s">
         <v>30</v>
@@ -5411,16 +5370,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D142" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E142" t="s">
         <v>30</v>
@@ -5428,16 +5387,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C143" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D143" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E143" t="s">
         <v>30</v>
@@ -5448,13 +5407,13 @@
         <v>15</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C144" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D144" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E144" t="s">
         <v>30</v>
@@ -5462,16 +5421,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C145" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D145" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E145" t="s">
         <v>30</v>
@@ -5482,13 +5441,13 @@
         <v>16</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C146" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D146" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E146" t="s">
         <v>30</v>
@@ -5496,16 +5455,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C147" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D147" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E147" t="s">
         <v>30</v>
@@ -5516,13 +5475,13 @@
         <v>17</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C148" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D148" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E148" t="s">
         <v>30</v>
@@ -5530,16 +5489,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C149" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D149" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E149" t="s">
         <v>30</v>
@@ -5547,16 +5506,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D150" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E150" t="s">
         <v>30</v>
@@ -5567,13 +5526,13 @@
         <v>18</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D151" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E151" t="s">
         <v>30</v>
@@ -5581,16 +5540,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="C152" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D152" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E152" t="s">
         <v>30</v>
@@ -5598,16 +5557,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C153" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D153" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E153" t="s">
         <v>30</v>
@@ -5615,16 +5574,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C154" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D154" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
@@ -5632,16 +5591,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C155" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D155" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E155" t="s">
         <v>30</v>
@@ -5649,16 +5608,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C156" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D156" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E156" t="s">
         <v>30</v>
@@ -5666,16 +5625,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="C157" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D157" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -5683,16 +5642,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C158" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D158" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E158" t="s">
         <v>30</v>
@@ -5700,16 +5659,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C159" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D159" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E159" t="s">
         <v>30</v>
@@ -5717,16 +5676,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C160" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D160" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E160" t="s">
         <v>30</v>
@@ -5734,16 +5693,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C161" t="s">
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E161" t="s">
         <v>30</v>
@@ -5751,16 +5710,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C162" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D162" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E162" t="s">
         <v>30</v>
@@ -5768,16 +5727,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C163" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D163" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E163" t="s">
         <v>30</v>
@@ -5785,16 +5744,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D164" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E164" t="s">
         <v>30</v>
@@ -5802,16 +5761,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C165" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D165" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E165" t="s">
         <v>30</v>
@@ -5819,16 +5778,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C166" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D166" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E166" t="s">
         <v>30</v>
@@ -5836,16 +5795,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D167" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E167" t="s">
         <v>30</v>
@@ -5853,16 +5812,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C168" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D168" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E168" t="s">
         <v>30</v>
@@ -5870,16 +5829,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>153</v>
+        <v>833</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>364</v>
+        <v>832</v>
       </c>
       <c r="C169" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D169" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E169" t="s">
         <v>30</v>
@@ -5887,16 +5846,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D170" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E170" t="s">
         <v>30</v>
@@ -5904,16 +5863,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C171" t="s">
-        <v>814</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E171" t="s">
         <v>30</v>
@@ -5921,16 +5880,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C172" t="s">
-        <v>814</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E172" t="s">
         <v>30</v>
@@ -5938,16 +5897,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C173" t="s">
-        <v>814</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E173" t="s">
         <v>30</v>
@@ -5955,16 +5914,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>801</v>
       </c>
       <c r="D174" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E174" t="s">
         <v>30</v>
@@ -5972,16 +5931,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E175" t="s">
         <v>30</v>
@@ -5989,16 +5948,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E176" t="s">
         <v>30</v>
@@ -6006,16 +5965,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C177" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="D177" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E177" t="s">
         <v>30</v>
@@ -6023,16 +5982,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
+        <v>802</v>
       </c>
       <c r="D178" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E178" t="s">
         <v>30</v>
@@ -6040,16 +5999,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
+        <v>796</v>
       </c>
       <c r="D179" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E179" t="s">
         <v>30</v>
@@ -6057,16 +6016,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="C180" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="D180" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E180" t="s">
         <v>30</v>
@@ -6074,16 +6033,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="D181" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E181" t="s">
         <v>30</v>
@@ -6091,16 +6050,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="C182" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="D182" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E182" t="s">
         <v>30</v>
@@ -6108,16 +6067,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>422</v>
+        <v>184</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>419</v>
+        <v>302</v>
       </c>
       <c r="C183" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="D183" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E183" t="s">
         <v>30</v>
@@ -6125,16 +6084,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>420</v>
+        <v>303</v>
       </c>
       <c r="C184" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="D184" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E184" t="s">
         <v>30</v>
@@ -6142,16 +6101,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C185" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D185" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E185" t="s">
         <v>30</v>
@@ -6159,16 +6118,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="D186" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E186" t="s">
         <v>30</v>
@@ -6176,16 +6135,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="C187" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="D187" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E187" t="s">
         <v>30</v>
@@ -6193,16 +6152,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="D188" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E188" t="s">
         <v>30</v>
@@ -6210,16 +6169,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="D189" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E189" t="s">
         <v>30</v>
@@ -6227,16 +6186,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C190" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="D190" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E190" t="s">
         <v>30</v>
@@ -6244,16 +6203,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C191" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="D191" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E191" t="s">
         <v>30</v>
@@ -6261,16 +6220,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C192" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="D192" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E192" t="s">
         <v>30</v>
@@ -6278,16 +6237,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C193" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="D193" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E193" t="s">
         <v>30</v>
@@ -6295,16 +6254,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="C194" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D194" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E194" t="s">
         <v>30</v>
@@ -6312,16 +6271,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="C195" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D195" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E195" t="s">
         <v>30</v>
@@ -6329,16 +6288,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C196" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="D196" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E196" t="s">
         <v>30</v>
@@ -6346,16 +6305,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C197" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="D197" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E197" t="s">
         <v>30</v>
@@ -6363,16 +6322,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C198" t="s">
-        <v>823</v>
+        <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E198" t="s">
         <v>30</v>
@@ -6380,16 +6339,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C199" t="s">
-        <v>823</v>
+        <v>27</v>
       </c>
       <c r="D199" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E199" t="s">
         <v>30</v>
@@ -6397,16 +6356,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C200" t="s">
-        <v>823</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E200" t="s">
         <v>30</v>
@@ -6414,16 +6373,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>800</v>
       </c>
       <c r="D201" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E201" t="s">
         <v>30</v>
@@ -6431,16 +6390,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>800</v>
       </c>
       <c r="D202" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E202" t="s">
         <v>30</v>
@@ -6448,16 +6407,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>800</v>
       </c>
       <c r="D203" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E203" t="s">
         <v>30</v>
@@ -6465,16 +6424,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C204" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="D204" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E204" t="s">
         <v>30</v>
@@ -6482,16 +6441,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C205" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="D205" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E205" t="s">
         <v>30</v>
@@ -6499,16 +6458,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C206" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="D206" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
@@ -6516,16 +6475,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="C207" t="s">
-        <v>819</v>
+        <v>28</v>
       </c>
       <c r="D207" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E207" t="s">
         <v>30</v>
@@ -6533,2816 +6492,2801 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>178</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
+      </c>
+      <c r="B208" t="s">
+        <v>432</v>
       </c>
       <c r="C208" t="s">
-        <v>819</v>
+        <v>423</v>
       </c>
       <c r="D208" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>179</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>390</v>
+        <v>434</v>
+      </c>
+      <c r="B209" t="s">
+        <v>433</v>
       </c>
       <c r="C209" t="s">
-        <v>819</v>
+        <v>423</v>
       </c>
       <c r="D209" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="E209" t="s">
-        <v>30</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>180</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>313</v>
+        <v>453</v>
+      </c>
+      <c r="B210" t="s">
+        <v>452</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>423</v>
       </c>
       <c r="D210" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>414</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B211" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C211" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D211" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E211" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B212" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C212" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D212" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E212" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="B213" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C213" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D213" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E213" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B214" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C214" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D214" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E214" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="B215" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C215" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D215" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E215" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="B216" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C216" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D216" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E216" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B217" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C217" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D217" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E217" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="B218" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C218" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D218" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E218" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>420</v>
+      </c>
+      <c r="B219" t="s">
+        <v>445</v>
+      </c>
+      <c r="C219" t="s">
         <v>427</v>
       </c>
-      <c r="B219" t="s">
-        <v>452</v>
-      </c>
-      <c r="C219" t="s">
-        <v>436</v>
-      </c>
       <c r="D219" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E219" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>447</v>
+      </c>
+      <c r="B220" t="s">
+        <v>446</v>
+      </c>
+      <c r="C220" t="s">
         <v>428</v>
       </c>
-      <c r="B220" t="s">
-        <v>453</v>
-      </c>
-      <c r="C220" t="s">
-        <v>437</v>
-      </c>
       <c r="D220" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E220" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>421</v>
+      </c>
+      <c r="B221" t="s">
+        <v>448</v>
+      </c>
+      <c r="C221" t="s">
         <v>429</v>
       </c>
-      <c r="B221" t="s">
-        <v>454</v>
-      </c>
-      <c r="C221" t="s">
-        <v>438</v>
-      </c>
       <c r="D221" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="E221" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>422</v>
+      </c>
+      <c r="B222" t="s">
+        <v>449</v>
+      </c>
+      <c r="C222" t="s">
         <v>430</v>
       </c>
-      <c r="B222" t="s">
-        <v>455</v>
-      </c>
-      <c r="C222" t="s">
-        <v>437</v>
-      </c>
       <c r="D222" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="E222" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>457</v>
+        <v>835</v>
       </c>
       <c r="B223" t="s">
-        <v>456</v>
+        <v>834</v>
       </c>
       <c r="C223" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D223" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="E223" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>451</v>
+      </c>
+      <c r="B224" t="s">
+        <v>450</v>
+      </c>
+      <c r="C224" t="s">
         <v>431</v>
       </c>
-      <c r="B224" t="s">
-        <v>458</v>
-      </c>
-      <c r="C224" t="s">
-        <v>439</v>
-      </c>
       <c r="D224" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E224" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B225" t="s">
         <v>459</v>
       </c>
       <c r="C225" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D225" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="E225" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B226" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C226" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D226" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="E226" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B227" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C227" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D227" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="E227" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B228" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C228" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D228" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E228" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B229" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C229" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D229" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E229" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B230" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C230" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D230" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E230" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>473</v>
+        <v>820</v>
       </c>
       <c r="B231" t="s">
-        <v>472</v>
+        <v>819</v>
       </c>
       <c r="C231" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D231" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E231" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="B232" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="C232" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D232" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E232" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B233" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C233" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D233" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E233" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="B234" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="C234" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D234" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E234" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>566</v>
+        <v>475</v>
       </c>
       <c r="B235" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
       <c r="C235" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D235" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E235" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B236" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C236" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D236" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E236" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>840</v>
+        <v>481</v>
       </c>
       <c r="B237" t="s">
-        <v>841</v>
+        <v>480</v>
       </c>
       <c r="C237" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D237" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E237" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B238" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C238" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D238" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E238" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>484</v>
+        <v>823</v>
       </c>
       <c r="B239" t="s">
-        <v>485</v>
+        <v>824</v>
       </c>
       <c r="C239" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D239" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E239" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="B240" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C240" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D240" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E240" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>491</v>
+        <v>825</v>
       </c>
       <c r="B241" t="s">
-        <v>490</v>
+        <v>826</v>
       </c>
       <c r="C241" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="D241" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E241" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>842</v>
+        <v>483</v>
       </c>
       <c r="B242" t="s">
-        <v>843</v>
+        <v>484</v>
       </c>
       <c r="C242" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D242" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E242" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B243" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C243" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D243" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E243" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>844</v>
+        <v>488</v>
       </c>
       <c r="B244" t="s">
-        <v>845</v>
+        <v>487</v>
       </c>
       <c r="C244" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="D244" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E244" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B245" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C245" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D245" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E245" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B246" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C246" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D246" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E246" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B247" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="C247" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D247" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E247" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B248" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C248" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D248" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E248" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B249" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C249" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D249" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E249" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B250" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="C250" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D250" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E250" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B251" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C251" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D251" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E251" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B252" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C252" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D252" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E252" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B253" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C253" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D253" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E253" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="B254" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C254" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D254" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E254" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B255" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C255" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D255" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E255" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B256" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C256" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D256" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E256" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B257" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C257" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D257" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E257" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B258" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C258" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="D258" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E258" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B259" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C259" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="D259" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E259" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B260" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C260" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="D260" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E260" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B261" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C261" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="D261" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E261" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B262" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C262" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="D262" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E262" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B263" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C263" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="D263" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E263" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B264" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C264" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D264" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E264" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B265" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C265" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D265" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E265" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B266" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C266" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D266" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E266" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>538</v>
+        <v>827</v>
       </c>
       <c r="B267" t="s">
-        <v>537</v>
+        <v>828</v>
       </c>
       <c r="C267" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D267" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E267" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B268" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C268" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D268" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E268" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B269" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C269" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D269" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E269" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>846</v>
+        <v>536</v>
       </c>
       <c r="B270" t="s">
-        <v>847</v>
+        <v>535</v>
       </c>
       <c r="C270" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D270" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E270" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B271" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C271" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D271" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E271" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B272" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C272" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D272" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E272" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B273" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C273" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D273" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E273" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B274" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C274" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D274" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E274" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>551</v>
+        <v>837</v>
       </c>
       <c r="B275" t="s">
-        <v>552</v>
+        <v>836</v>
       </c>
       <c r="C275" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D275" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E275" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B276" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C276" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D276" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E276" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B277" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C277" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="D277" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E277" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B278" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C278" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="D278" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E278" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B279" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C279" t="s">
-        <v>438</v>
+        <v>557</v>
       </c>
       <c r="D279" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="E279" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B280" t="s">
         <v>562</v>
       </c>
       <c r="C280" t="s">
-        <v>469</v>
+        <v>557</v>
       </c>
       <c r="D280" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="E280" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B281" t="s">
         <v>563</v>
       </c>
       <c r="C281" t="s">
-        <v>469</v>
+        <v>558</v>
       </c>
       <c r="D281" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="E281" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B282" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C282" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D282" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E282" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B283" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C283" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D283" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E283" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B284" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C284" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D284" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E284" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B285" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C285" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="D285" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E285" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B286" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C286" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D286" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E286" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B287" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C287" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D287" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E287" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B288" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="C288" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D288" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E288" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B289" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="C289" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D289" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E289" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B290" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C290" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="D290" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E290" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B291" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C291" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="D291" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E291" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B292" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C292" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D292" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E292" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B293" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C293" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D293" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E293" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B294" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="C294" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D294" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E294" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B295" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="C295" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D295" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E295" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B296" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C296" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D296" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E296" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B297" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C297" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="D297" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B298" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C298" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="D298" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E298" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B299" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C299" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="D299" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B300" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C300" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D300" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="B301" t="s">
-        <v>619</v>
+        <v>682</v>
       </c>
       <c r="C301" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="D301" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="B302" t="s">
-        <v>620</v>
+        <v>683</v>
       </c>
       <c r="C302" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="D302" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="B303" t="s">
-        <v>621</v>
+        <v>684</v>
       </c>
       <c r="C303" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="D303" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="E303" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B304" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="C304" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D304" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E304" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B305" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C305" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D305" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E305" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B306" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C306" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="D306" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E306" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B307" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="C307" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D307" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E307" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B308" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="C308" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="D308" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E308" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B309" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C309" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="D309" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E309" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B310" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C310" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D310" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E310" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B311" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="C311" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D311" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E311" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="B312" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="C312" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="D312" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E312" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="B313" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C313" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D313" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E313" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B314" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="C314" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="D314" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E314" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B315" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C315" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D315" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E315" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="B316" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="C316" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D316" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E316" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B317" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C317" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D317" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E317" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B318" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C318" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="D318" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="E318" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B319" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C319" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D319" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="E319" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B320" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="C320" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D320" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="E320" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B321" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C321" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D321" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="E321" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B322" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="C322" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="D322" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="E322" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B323" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C323" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="D323" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="E323" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="B324" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="C324" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D324" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E324" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B325" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="C325" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D325" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E325" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B326" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="C326" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D326" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E326" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B327" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C327" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D327" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E327" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B328" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="C328" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D328" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E328" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B329" t="s">
         <v>721</v>
       </c>
       <c r="C329" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="D329" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E329" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B330" t="s">
         <v>722</v>
       </c>
       <c r="C330" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D330" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E330" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B331" t="s">
         <v>723</v>
       </c>
       <c r="C331" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D331" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E331" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B332" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="C332" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D332" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E332" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B333" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="C333" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D333" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E333" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B334" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="C334" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D334" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E334" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B335" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="C335" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D335" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="E335" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B336" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C336" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D336" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="E336" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B337" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="C337" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D337" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="E337" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B338" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="C338" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="D338" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="E338" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>681</v>
+        <v>719</v>
       </c>
       <c r="B339" t="s">
-        <v>728</v>
-      </c>
-      <c r="C339" t="s">
-        <v>644</v>
+        <v>718</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="D339" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="E339" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B340" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C340" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D340" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="E340" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>683</v>
+        <v>750</v>
       </c>
       <c r="B341" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C341" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="D341" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="E341" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="B342" t="s">
-        <v>732</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>734</v>
+        <v>725</v>
+      </c>
+      <c r="C342" t="s">
+        <v>672</v>
       </c>
       <c r="D342" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="E342" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>684</v>
+        <v>752</v>
       </c>
       <c r="B343" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C343" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="D343" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="E343" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="B344" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="C344" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D344" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E344" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="B345" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C345" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="D345" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E345" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="B346" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C346" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D346" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E346" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="B347" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="C347" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D347" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E347" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="B348" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C348" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="D348" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="B349" t="s">
-        <v>743</v>
+        <v>829</v>
       </c>
       <c r="C349" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="D349" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="B350" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C350" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="D350" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="B351" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="C351" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D351" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="B352" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="C352" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D352" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="B353" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C353" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D353" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="B354" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C354" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D354" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="B355" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C355" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D355" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="B356" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C356" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D356" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E356" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="B357" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C357" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D357" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="B358" t="s">
-        <v>752</v>
+        <v>839</v>
       </c>
       <c r="C358" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D358" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E358" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="B359" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C359" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="D359" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="B360" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C360" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D360" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="E360" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="B361" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="C361" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D361" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="B362" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C362" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D362" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E362" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="B363" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C363" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D363" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E363" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="B364" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="C364" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D364" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E364" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="B365" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C365" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="D365" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E365" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="B366" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="C366" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="D366" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E366" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="B367" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="C367" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D367" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E367" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="B368" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="C368" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="D368" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E368" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>792</v>
+        <v>841</v>
       </c>
       <c r="B369" t="s">
-        <v>763</v>
+        <v>840</v>
       </c>
       <c r="C369" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="D369" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E369" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>793</v>
-      </c>
-      <c r="B370" t="s">
-        <v>764</v>
-      </c>
-      <c r="C370" t="s">
-        <v>695</v>
-      </c>
       <c r="D370" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E370" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>794</v>
-      </c>
-      <c r="B371" t="s">
-        <v>765</v>
-      </c>
-      <c r="C371" t="s">
-        <v>695</v>
-      </c>
-      <c r="D371" t="s">
-        <v>830</v>
-      </c>
-      <c r="E371" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>795</v>
-      </c>
-      <c r="B372" t="s">
-        <v>766</v>
-      </c>
-      <c r="C372" t="s">
-        <v>695</v>
-      </c>
-      <c r="D372" t="s">
-        <v>830</v>
-      </c>
-      <c r="E372" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D373" t="s">
-        <v>830</v>
-      </c>
-      <c r="E373" t="s">
-        <v>685</v>
-      </c>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B374" s="4"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B375" s="4"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B376" s="4"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B377" s="4"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B378" s="4"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B379" s="4"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B380" s="4"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B381" s="4"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B382" s="4"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B383" s="4"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B384" s="4"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B385" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\Python Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\BillionPricesCyprusScrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF5D02C-507F-4EEC-92A6-77D5DBBBD668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1186D-AE23-40C2-82EB-1C91613839D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1491,12 +1491,6 @@
     <t>/products/adidas-men-essentials-single-jersey-big-logo-t-shirt-ic9349</t>
   </si>
   <si>
-    <t>adidas men train essentials training t-shirt (IC7428)</t>
-  </si>
-  <si>
-    <t>/products/adidas-men-train-essentials-training-t-shirt-ic7428</t>
-  </si>
-  <si>
     <t>/products/adidas-men-essentials-big-logo-french-terry-shorts-ic9403</t>
   </si>
   <si>
@@ -2560,6 +2554,12 @@
   </si>
   <si>
     <t>LURVIG φτυαράκι άμμου γάτας</t>
+  </si>
+  <si>
+    <t>/products/adidas-men-club-tennis-3-stripes-t-shirt-hn3902</t>
+  </si>
+  <si>
+    <t>adidas men club tennis 3-stripes t-shirt (HN3902)</t>
   </si>
 </sst>
 </file>
@@ -2958,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="56" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2999,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -3016,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -3033,7 +3033,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -3050,7 +3050,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -3067,7 +3067,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -3084,7 +3084,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -3098,10 +3098,10 @@
         <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -3115,10 +3115,10 @@
         <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -3132,10 +3132,10 @@
         <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -3149,10 +3149,10 @@
         <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3166,10 +3166,10 @@
         <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -3183,10 +3183,10 @@
         <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -3200,10 +3200,10 @@
         <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -3217,10 +3217,10 @@
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D15" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -3234,10 +3234,10 @@
         <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -3251,10 +3251,10 @@
         <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D17" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -3268,10 +3268,10 @@
         <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -3285,10 +3285,10 @@
         <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -3302,10 +3302,10 @@
         <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D20" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -3319,10 +3319,10 @@
         <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -3336,10 +3336,10 @@
         <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D22" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -3353,10 +3353,10 @@
         <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -3367,13 +3367,13 @@
         <v>407</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D24" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -3387,10 +3387,10 @@
         <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D25" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -3404,10 +3404,10 @@
         <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D26" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -3421,10 +3421,10 @@
         <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -3438,10 +3438,10 @@
         <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D28" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -3449,16 +3449,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -3472,10 +3472,10 @@
         <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
@@ -3489,10 +3489,10 @@
         <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -3506,10 +3506,10 @@
         <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D32" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -3523,10 +3523,10 @@
         <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D33" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
@@ -3540,10 +3540,10 @@
         <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D34" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
@@ -3557,10 +3557,10 @@
         <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D35" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -3574,10 +3574,10 @@
         <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D36" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
@@ -3591,10 +3591,10 @@
         <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
@@ -3608,10 +3608,10 @@
         <v>405</v>
       </c>
       <c r="C38" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D38" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
@@ -3628,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -3645,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -3679,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
@@ -3696,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
@@ -3713,7 +3713,7 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
@@ -3730,7 +3730,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
@@ -3747,7 +3747,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -3764,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
@@ -3778,10 +3778,10 @@
         <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
@@ -3795,10 +3795,10 @@
         <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D49" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
@@ -3812,10 +3812,10 @@
         <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D50" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
@@ -3829,10 +3829,10 @@
         <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D51" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
@@ -3846,10 +3846,10 @@
         <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D52" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
@@ -3863,10 +3863,10 @@
         <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D53" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
@@ -3880,10 +3880,10 @@
         <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D54" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
@@ -3897,10 +3897,10 @@
         <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D55" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
@@ -3914,10 +3914,10 @@
         <v>258</v>
       </c>
       <c r="C56" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D56" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
@@ -3931,10 +3931,10 @@
         <v>254</v>
       </c>
       <c r="C57" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D57" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
@@ -3948,10 +3948,10 @@
         <v>257</v>
       </c>
       <c r="C58" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D58" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
@@ -3965,10 +3965,10 @@
         <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D59" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
@@ -3982,10 +3982,10 @@
         <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D60" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
@@ -3999,10 +3999,10 @@
         <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D61" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
@@ -4016,10 +4016,10 @@
         <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D62" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
@@ -4033,10 +4033,10 @@
         <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D63" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
@@ -4050,10 +4050,10 @@
         <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D64" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
@@ -4067,10 +4067,10 @@
         <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D65" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
@@ -4084,10 +4084,10 @@
         <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D66" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D67" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
@@ -4118,10 +4118,10 @@
         <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D68" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
@@ -4135,10 +4135,10 @@
         <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D69" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -4152,10 +4152,10 @@
         <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D70" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
@@ -4169,10 +4169,10 @@
         <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D71" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
@@ -4186,10 +4186,10 @@
         <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D72" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
@@ -4203,10 +4203,10 @@
         <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D73" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
@@ -4220,10 +4220,10 @@
         <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D74" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
@@ -4237,10 +4237,10 @@
         <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D75" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
@@ -4254,10 +4254,10 @@
         <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D76" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -4268,13 +4268,13 @@
         <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C77" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D77" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
@@ -4288,10 +4288,10 @@
         <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D78" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -4305,10 +4305,10 @@
         <v>275</v>
       </c>
       <c r="C79" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D79" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -4322,10 +4322,10 @@
         <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D80" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -4342,7 +4342,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
@@ -4356,10 +4356,10 @@
         <v>299</v>
       </c>
       <c r="C82" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D82" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
@@ -4373,10 +4373,10 @@
         <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D83" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -4390,10 +4390,10 @@
         <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D84" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
@@ -4407,10 +4407,10 @@
         <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D85" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
@@ -4424,10 +4424,10 @@
         <v>301</v>
       </c>
       <c r="C86" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D86" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
@@ -4441,10 +4441,10 @@
         <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D87" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
@@ -4458,10 +4458,10 @@
         <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D88" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
@@ -4475,10 +4475,10 @@
         <v>288</v>
       </c>
       <c r="C89" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D89" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
@@ -4492,10 +4492,10 @@
         <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D90" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -4509,10 +4509,10 @@
         <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D91" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
@@ -4526,10 +4526,10 @@
         <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D92" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
@@ -4543,10 +4543,10 @@
         <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D93" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
@@ -4560,10 +4560,10 @@
         <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D94" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
@@ -4577,10 +4577,10 @@
         <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D95" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
@@ -4594,10 +4594,10 @@
         <v>281</v>
       </c>
       <c r="C96" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D96" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
@@ -4611,10 +4611,10 @@
         <v>282</v>
       </c>
       <c r="C97" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D97" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
@@ -4622,16 +4622,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C98" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D98" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
@@ -4645,10 +4645,10 @@
         <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D99" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
@@ -4662,10 +4662,10 @@
         <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D100" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
@@ -4679,10 +4679,10 @@
         <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D101" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
@@ -4696,10 +4696,10 @@
         <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D102" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
@@ -4713,10 +4713,10 @@
         <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D103" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
@@ -4730,10 +4730,10 @@
         <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D104" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
@@ -4747,10 +4747,10 @@
         <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D105" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
@@ -4764,10 +4764,10 @@
         <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D106" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
@@ -4781,10 +4781,10 @@
         <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D107" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
@@ -4798,10 +4798,10 @@
         <v>314</v>
       </c>
       <c r="C108" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D108" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
@@ -4815,10 +4815,10 @@
         <v>313</v>
       </c>
       <c r="C109" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D109" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
@@ -4832,10 +4832,10 @@
         <v>317</v>
       </c>
       <c r="C110" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D110" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
@@ -4849,10 +4849,10 @@
         <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D111" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
@@ -4866,10 +4866,10 @@
         <v>315</v>
       </c>
       <c r="C112" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D112" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
@@ -4883,10 +4883,10 @@
         <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D113" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
@@ -4900,10 +4900,10 @@
         <v>319</v>
       </c>
       <c r="C114" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D114" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
@@ -4917,10 +4917,10 @@
         <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D115" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
@@ -4934,10 +4934,10 @@
         <v>322</v>
       </c>
       <c r="C116" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D116" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
@@ -4951,10 +4951,10 @@
         <v>321</v>
       </c>
       <c r="C117" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D117" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E117" t="s">
         <v>30</v>
@@ -4968,10 +4968,10 @@
         <v>397</v>
       </c>
       <c r="C118" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D118" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E118" t="s">
         <v>30</v>
@@ -4985,10 +4985,10 @@
         <v>304</v>
       </c>
       <c r="C119" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D119" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E119" t="s">
         <v>30</v>
@@ -5002,10 +5002,10 @@
         <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D120" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E120" t="s">
         <v>30</v>
@@ -5019,10 +5019,10 @@
         <v>306</v>
       </c>
       <c r="C121" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D121" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E121" t="s">
         <v>30</v>
@@ -5036,10 +5036,10 @@
         <v>307</v>
       </c>
       <c r="C122" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D122" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E122" t="s">
         <v>30</v>
@@ -5053,10 +5053,10 @@
         <v>309</v>
       </c>
       <c r="C123" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D123" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E123" t="s">
         <v>30</v>
@@ -5070,10 +5070,10 @@
         <v>311</v>
       </c>
       <c r="C124" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D124" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E124" t="s">
         <v>30</v>
@@ -5087,10 +5087,10 @@
         <v>310</v>
       </c>
       <c r="C125" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D125" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E125" t="s">
         <v>30</v>
@@ -5104,10 +5104,10 @@
         <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D126" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E126" t="s">
         <v>30</v>
@@ -5121,10 +5121,10 @@
         <v>387</v>
       </c>
       <c r="C127" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D127" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E127" t="s">
         <v>30</v>
@@ -5138,10 +5138,10 @@
         <v>403</v>
       </c>
       <c r="C128" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D128" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E128" t="s">
         <v>30</v>
@@ -5155,10 +5155,10 @@
         <v>383</v>
       </c>
       <c r="C129" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D129" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E129" t="s">
         <v>30</v>
@@ -5172,10 +5172,10 @@
         <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D130" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E130" t="s">
         <v>30</v>
@@ -5189,10 +5189,10 @@
         <v>384</v>
       </c>
       <c r="C131" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D131" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E131" t="s">
         <v>30</v>
@@ -5209,7 +5209,7 @@
         <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E132" t="s">
         <v>30</v>
@@ -5223,10 +5223,10 @@
         <v>326</v>
       </c>
       <c r="C133" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D133" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E133" t="s">
         <v>30</v>
@@ -5240,10 +5240,10 @@
         <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D134" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E134" t="s">
         <v>30</v>
@@ -5257,10 +5257,10 @@
         <v>329</v>
       </c>
       <c r="C135" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D135" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E135" t="s">
         <v>30</v>
@@ -5274,10 +5274,10 @@
         <v>328</v>
       </c>
       <c r="C136" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D136" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E136" t="s">
         <v>30</v>
@@ -5291,10 +5291,10 @@
         <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D137" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E137" t="s">
         <v>30</v>
@@ -5308,10 +5308,10 @@
         <v>325</v>
       </c>
       <c r="C138" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D138" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E138" t="s">
         <v>30</v>
@@ -5319,16 +5319,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C139" t="s">
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E139" t="s">
         <v>30</v>
@@ -5345,7 +5345,7 @@
         <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E140" t="s">
         <v>30</v>
@@ -5359,10 +5359,10 @@
         <v>332</v>
       </c>
       <c r="C141" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D141" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E141" t="s">
         <v>30</v>
@@ -5376,10 +5376,10 @@
         <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D142" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E142" t="s">
         <v>30</v>
@@ -5393,10 +5393,10 @@
         <v>339</v>
       </c>
       <c r="C143" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D143" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E143" t="s">
         <v>30</v>
@@ -5410,10 +5410,10 @@
         <v>337</v>
       </c>
       <c r="C144" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D144" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E144" t="s">
         <v>30</v>
@@ -5427,10 +5427,10 @@
         <v>336</v>
       </c>
       <c r="C145" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D145" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E145" t="s">
         <v>30</v>
@@ -5444,10 +5444,10 @@
         <v>334</v>
       </c>
       <c r="C146" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D146" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E146" t="s">
         <v>30</v>
@@ -5461,10 +5461,10 @@
         <v>335</v>
       </c>
       <c r="C147" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D147" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E147" t="s">
         <v>30</v>
@@ -5478,10 +5478,10 @@
         <v>331</v>
       </c>
       <c r="C148" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D148" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E148" t="s">
         <v>30</v>
@@ -5495,10 +5495,10 @@
         <v>338</v>
       </c>
       <c r="C149" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D149" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E149" t="s">
         <v>30</v>
@@ -5512,10 +5512,10 @@
         <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D150" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E150" t="s">
         <v>30</v>
@@ -5529,10 +5529,10 @@
         <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D151" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E151" t="s">
         <v>30</v>
@@ -5540,16 +5540,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C152" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D152" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E152" t="s">
         <v>30</v>
@@ -5563,10 +5563,10 @@
         <v>343</v>
       </c>
       <c r="C153" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D153" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E153" t="s">
         <v>30</v>
@@ -5580,10 +5580,10 @@
         <v>346</v>
       </c>
       <c r="C154" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D154" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
@@ -5597,10 +5597,10 @@
         <v>349</v>
       </c>
       <c r="C155" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D155" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E155" t="s">
         <v>30</v>
@@ -5614,10 +5614,10 @@
         <v>348</v>
       </c>
       <c r="C156" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D156" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E156" t="s">
         <v>30</v>
@@ -5628,13 +5628,13 @@
         <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C157" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D157" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -5648,10 +5648,10 @@
         <v>341</v>
       </c>
       <c r="C158" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D158" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E158" t="s">
         <v>30</v>
@@ -5665,10 +5665,10 @@
         <v>347</v>
       </c>
       <c r="C159" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D159" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E159" t="s">
         <v>30</v>
@@ -5682,10 +5682,10 @@
         <v>340</v>
       </c>
       <c r="C160" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D160" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E160" t="s">
         <v>30</v>
@@ -5702,7 +5702,7 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E161" t="s">
         <v>30</v>
@@ -5716,10 +5716,10 @@
         <v>351</v>
       </c>
       <c r="C162" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D162" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E162" t="s">
         <v>30</v>
@@ -5733,10 +5733,10 @@
         <v>352</v>
       </c>
       <c r="C163" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D163" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E163" t="s">
         <v>30</v>
@@ -5750,10 +5750,10 @@
         <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D164" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E164" t="s">
         <v>30</v>
@@ -5767,10 +5767,10 @@
         <v>357</v>
       </c>
       <c r="C165" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D165" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E165" t="s">
         <v>30</v>
@@ -5784,10 +5784,10 @@
         <v>356</v>
       </c>
       <c r="C166" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D166" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E166" t="s">
         <v>30</v>
@@ -5801,10 +5801,10 @@
         <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D167" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E167" t="s">
         <v>30</v>
@@ -5818,10 +5818,10 @@
         <v>353</v>
       </c>
       <c r="C168" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D168" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E168" t="s">
         <v>30</v>
@@ -5829,16 +5829,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C169" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D169" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E169" t="s">
         <v>30</v>
@@ -5852,10 +5852,10 @@
         <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D170" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E170" t="s">
         <v>30</v>
@@ -5872,7 +5872,7 @@
         <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E171" t="s">
         <v>30</v>
@@ -5889,7 +5889,7 @@
         <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E172" t="s">
         <v>30</v>
@@ -5906,7 +5906,7 @@
         <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E173" t="s">
         <v>30</v>
@@ -5920,10 +5920,10 @@
         <v>366</v>
       </c>
       <c r="C174" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D174" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E174" t="s">
         <v>30</v>
@@ -5940,7 +5940,7 @@
         <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E175" t="s">
         <v>30</v>
@@ -5957,7 +5957,7 @@
         <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E176" t="s">
         <v>30</v>
@@ -5971,10 +5971,10 @@
         <v>367</v>
       </c>
       <c r="C177" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D177" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E177" t="s">
         <v>30</v>
@@ -5988,10 +5988,10 @@
         <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D178" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E178" t="s">
         <v>30</v>
@@ -6005,10 +6005,10 @@
         <v>408</v>
       </c>
       <c r="C179" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D179" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E179" t="s">
         <v>30</v>
@@ -6022,10 +6022,10 @@
         <v>409</v>
       </c>
       <c r="C180" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D180" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E180" t="s">
         <v>30</v>
@@ -6039,10 +6039,10 @@
         <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D181" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E181" t="s">
         <v>30</v>
@@ -6056,10 +6056,10 @@
         <v>369</v>
       </c>
       <c r="C182" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D182" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E182" t="s">
         <v>30</v>
@@ -6073,10 +6073,10 @@
         <v>302</v>
       </c>
       <c r="C183" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D183" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E183" t="s">
         <v>30</v>
@@ -6090,10 +6090,10 @@
         <v>303</v>
       </c>
       <c r="C184" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D184" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E184" t="s">
         <v>30</v>
@@ -6107,10 +6107,10 @@
         <v>396</v>
       </c>
       <c r="C185" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D185" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E185" t="s">
         <v>30</v>
@@ -6124,10 +6124,10 @@
         <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D186" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E186" t="s">
         <v>30</v>
@@ -6141,10 +6141,10 @@
         <v>389</v>
       </c>
       <c r="C187" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D187" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E187" t="s">
         <v>30</v>
@@ -6158,10 +6158,10 @@
         <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D188" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E188" t="s">
         <v>30</v>
@@ -6175,10 +6175,10 @@
         <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D189" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E189" t="s">
         <v>30</v>
@@ -6192,10 +6192,10 @@
         <v>391</v>
       </c>
       <c r="C190" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D190" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E190" t="s">
         <v>30</v>
@@ -6209,10 +6209,10 @@
         <v>394</v>
       </c>
       <c r="C191" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D191" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E191" t="s">
         <v>30</v>
@@ -6226,10 +6226,10 @@
         <v>393</v>
       </c>
       <c r="C192" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D192" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E192" t="s">
         <v>30</v>
@@ -6243,10 +6243,10 @@
         <v>371</v>
       </c>
       <c r="C193" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D193" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E193" t="s">
         <v>30</v>
@@ -6260,10 +6260,10 @@
         <v>373</v>
       </c>
       <c r="C194" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D194" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E194" t="s">
         <v>30</v>
@@ -6277,10 +6277,10 @@
         <v>372</v>
       </c>
       <c r="C195" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D195" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E195" t="s">
         <v>30</v>
@@ -6294,10 +6294,10 @@
         <v>374</v>
       </c>
       <c r="C196" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D196" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E196" t="s">
         <v>30</v>
@@ -6311,10 +6311,10 @@
         <v>370</v>
       </c>
       <c r="C197" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D197" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E197" t="s">
         <v>30</v>
@@ -6331,7 +6331,7 @@
         <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E198" t="s">
         <v>30</v>
@@ -6348,7 +6348,7 @@
         <v>27</v>
       </c>
       <c r="D199" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E199" t="s">
         <v>30</v>
@@ -6365,7 +6365,7 @@
         <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E200" t="s">
         <v>30</v>
@@ -6379,10 +6379,10 @@
         <v>379</v>
       </c>
       <c r="C201" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D201" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E201" t="s">
         <v>30</v>
@@ -6396,10 +6396,10 @@
         <v>376</v>
       </c>
       <c r="C202" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D202" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E202" t="s">
         <v>30</v>
@@ -6413,10 +6413,10 @@
         <v>375</v>
       </c>
       <c r="C203" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D203" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E203" t="s">
         <v>30</v>
@@ -6430,10 +6430,10 @@
         <v>377</v>
       </c>
       <c r="C204" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D204" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E204" t="s">
         <v>30</v>
@@ -6447,10 +6447,10 @@
         <v>378</v>
       </c>
       <c r="C205" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D205" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E205" t="s">
         <v>30</v>
@@ -6464,10 +6464,10 @@
         <v>380</v>
       </c>
       <c r="C206" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D206" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
@@ -6484,7 +6484,7 @@
         <v>28</v>
       </c>
       <c r="D207" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E207" t="s">
         <v>30</v>
@@ -6501,7 +6501,7 @@
         <v>423</v>
       </c>
       <c r="D208" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E208" t="s">
         <v>414</v>
@@ -6518,7 +6518,7 @@
         <v>423</v>
       </c>
       <c r="D209" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E209" t="s">
         <v>414</v>
@@ -6535,7 +6535,7 @@
         <v>423</v>
       </c>
       <c r="D210" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E210" t="s">
         <v>414</v>
@@ -6552,7 +6552,7 @@
         <v>424</v>
       </c>
       <c r="D211" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E211" t="s">
         <v>414</v>
@@ -6569,7 +6569,7 @@
         <v>424</v>
       </c>
       <c r="D212" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E212" t="s">
         <v>414</v>
@@ -6586,7 +6586,7 @@
         <v>425</v>
       </c>
       <c r="D213" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E213" t="s">
         <v>414</v>
@@ -6603,7 +6603,7 @@
         <v>425</v>
       </c>
       <c r="D214" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E214" t="s">
         <v>414</v>
@@ -6620,7 +6620,7 @@
         <v>425</v>
       </c>
       <c r="D215" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E215" t="s">
         <v>414</v>
@@ -6637,7 +6637,7 @@
         <v>426</v>
       </c>
       <c r="D216" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E216" t="s">
         <v>414</v>
@@ -6654,7 +6654,7 @@
         <v>427</v>
       </c>
       <c r="D217" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E217" t="s">
         <v>414</v>
@@ -6671,7 +6671,7 @@
         <v>428</v>
       </c>
       <c r="D218" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E218" t="s">
         <v>414</v>
@@ -6688,7 +6688,7 @@
         <v>427</v>
       </c>
       <c r="D219" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E219" t="s">
         <v>414</v>
@@ -6705,7 +6705,7 @@
         <v>428</v>
       </c>
       <c r="D220" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E220" t="s">
         <v>414</v>
@@ -6722,7 +6722,7 @@
         <v>429</v>
       </c>
       <c r="D221" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E221" t="s">
         <v>414</v>
@@ -6739,7 +6739,7 @@
         <v>430</v>
       </c>
       <c r="D222" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E222" t="s">
         <v>414</v>
@@ -6747,16 +6747,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B223" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C223" t="s">
         <v>431</v>
       </c>
       <c r="D223" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E223" t="s">
         <v>414</v>
@@ -6773,7 +6773,7 @@
         <v>431</v>
       </c>
       <c r="D224" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E224" t="s">
         <v>414</v>
@@ -6790,7 +6790,7 @@
         <v>423</v>
       </c>
       <c r="D225" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E225" t="s">
         <v>456</v>
@@ -6807,7 +6807,7 @@
         <v>423</v>
       </c>
       <c r="D226" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E226" t="s">
         <v>456</v>
@@ -6824,7 +6824,7 @@
         <v>423</v>
       </c>
       <c r="D227" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E227" t="s">
         <v>456</v>
@@ -6841,7 +6841,7 @@
         <v>423</v>
       </c>
       <c r="D228" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E228" t="s">
         <v>456</v>
@@ -6858,7 +6858,7 @@
         <v>424</v>
       </c>
       <c r="D229" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E229" t="s">
         <v>456</v>
@@ -6875,7 +6875,7 @@
         <v>424</v>
       </c>
       <c r="D230" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E230" t="s">
         <v>456</v>
@@ -6883,16 +6883,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B231" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C231" t="s">
         <v>425</v>
       </c>
       <c r="D231" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E231" t="s">
         <v>456</v>
@@ -6900,16 +6900,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B232" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C232" t="s">
         <v>425</v>
       </c>
       <c r="D232" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E232" t="s">
         <v>456</v>
@@ -6926,7 +6926,7 @@
         <v>425</v>
       </c>
       <c r="D233" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E233" t="s">
         <v>456</v>
@@ -6934,16 +6934,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B234" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C234" t="s">
         <v>425</v>
       </c>
       <c r="D234" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E234" t="s">
         <v>456</v>
@@ -6960,7 +6960,7 @@
         <v>425</v>
       </c>
       <c r="D235" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E235" t="s">
         <v>456</v>
@@ -6977,7 +6977,7 @@
         <v>426</v>
       </c>
       <c r="D236" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E236" t="s">
         <v>456</v>
@@ -6994,7 +6994,7 @@
         <v>427</v>
       </c>
       <c r="D237" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E237" t="s">
         <v>456</v>
@@ -7011,7 +7011,7 @@
         <v>427</v>
       </c>
       <c r="D238" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E238" t="s">
         <v>456</v>
@@ -7019,16 +7019,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B239" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C239" t="s">
         <v>428</v>
       </c>
       <c r="D239" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E239" t="s">
         <v>456</v>
@@ -7045,7 +7045,7 @@
         <v>428</v>
       </c>
       <c r="D240" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E240" t="s">
         <v>456</v>
@@ -7053,16 +7053,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B241" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C241" t="s">
         <v>457</v>
       </c>
       <c r="D241" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E241" t="s">
         <v>456</v>
@@ -7079,7 +7079,7 @@
         <v>423</v>
       </c>
       <c r="D242" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E242" t="s">
         <v>482</v>
@@ -7087,16 +7087,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>485</v>
+        <v>841</v>
       </c>
       <c r="B243" t="s">
-        <v>486</v>
+        <v>840</v>
       </c>
       <c r="C243" t="s">
         <v>423</v>
       </c>
       <c r="D243" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E243" t="s">
         <v>482</v>
@@ -7104,16 +7104,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C244" t="s">
         <v>423</v>
       </c>
       <c r="D244" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E244" t="s">
         <v>482</v>
@@ -7121,16 +7121,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B245" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C245" t="s">
         <v>423</v>
       </c>
       <c r="D245" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E245" t="s">
         <v>482</v>
@@ -7138,16 +7138,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B246" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C246" t="s">
         <v>424</v>
       </c>
       <c r="D246" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E246" t="s">
         <v>482</v>
@@ -7155,16 +7155,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B247" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C247" t="s">
         <v>424</v>
       </c>
       <c r="D247" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E247" t="s">
         <v>482</v>
@@ -7172,16 +7172,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C248" t="s">
         <v>425</v>
       </c>
       <c r="D248" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E248" t="s">
         <v>482</v>
@@ -7189,16 +7189,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B249" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C249" t="s">
         <v>425</v>
       </c>
       <c r="D249" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E249" t="s">
         <v>482</v>
@@ -7206,16 +7206,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B250" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C250" t="s">
         <v>425</v>
       </c>
       <c r="D250" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E250" t="s">
         <v>482</v>
@@ -7223,16 +7223,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B251" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C251" t="s">
         <v>425</v>
       </c>
       <c r="D251" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E251" t="s">
         <v>482</v>
@@ -7240,16 +7240,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B252" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C252" t="s">
         <v>426</v>
       </c>
       <c r="D252" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E252" t="s">
         <v>482</v>
@@ -7257,16 +7257,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B253" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C253" t="s">
         <v>426</v>
       </c>
       <c r="D253" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E253" t="s">
         <v>482</v>
@@ -7274,16 +7274,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B254" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C254" t="s">
         <v>427</v>
       </c>
       <c r="D254" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E254" t="s">
         <v>482</v>
@@ -7291,16 +7291,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B255" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C255" t="s">
         <v>427</v>
       </c>
       <c r="D255" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E255" t="s">
         <v>482</v>
@@ -7308,16 +7308,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C256" t="s">
         <v>428</v>
       </c>
       <c r="D256" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E256" t="s">
         <v>482</v>
@@ -7325,16 +7325,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B257" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C257" t="s">
         <v>428</v>
       </c>
       <c r="D257" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E257" t="s">
         <v>482</v>
@@ -7342,16 +7342,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B258" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C258" t="s">
         <v>457</v>
       </c>
       <c r="D258" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E258" t="s">
         <v>482</v>
@@ -7359,16 +7359,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B259" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C259" t="s">
         <v>457</v>
       </c>
       <c r="D259" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E259" t="s">
         <v>482</v>
@@ -7376,16 +7376,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B260" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C260" t="s">
         <v>457</v>
       </c>
       <c r="D260" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E260" t="s">
         <v>482</v>
@@ -7393,1863 +7393,1863 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B261" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C261" t="s">
         <v>423</v>
       </c>
       <c r="D261" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E261" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B262" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C262" t="s">
         <v>423</v>
       </c>
       <c r="D262" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E262" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B263" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C263" t="s">
         <v>423</v>
       </c>
       <c r="D263" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E263" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B264" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C264" t="s">
         <v>423</v>
       </c>
       <c r="D264" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E264" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B265" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C265" t="s">
         <v>424</v>
       </c>
       <c r="D265" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E265" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B266" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C266" t="s">
         <v>424</v>
       </c>
       <c r="D266" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E266" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B267" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C267" t="s">
         <v>425</v>
       </c>
       <c r="D267" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E267" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B268" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C268" t="s">
         <v>425</v>
       </c>
       <c r="D268" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E268" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B269" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C269" t="s">
         <v>425</v>
       </c>
       <c r="D269" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E269" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B270" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C270" t="s">
         <v>425</v>
       </c>
       <c r="D270" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E270" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B271" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C271" t="s">
         <v>425</v>
       </c>
       <c r="D271" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E271" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B272" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C272" t="s">
         <v>426</v>
       </c>
       <c r="D272" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E272" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B273" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C273" t="s">
         <v>427</v>
       </c>
       <c r="D273" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E273" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B274" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C274" t="s">
         <v>427</v>
       </c>
       <c r="D274" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E274" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B275" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C275" t="s">
         <v>428</v>
       </c>
       <c r="D275" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E275" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B276" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C276" t="s">
         <v>428</v>
       </c>
       <c r="D276" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E276" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B277" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C277" t="s">
         <v>457</v>
       </c>
       <c r="D277" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E277" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B278" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C278" t="s">
         <v>457</v>
       </c>
       <c r="D278" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E278" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B279" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C279" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D279" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E279" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B280" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C280" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D280" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E280" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B281" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C281" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D281" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E281" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B282" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C282" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D282" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E282" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B283" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C283" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D283" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E283" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B284" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C284" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D284" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E284" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B285" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C285" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D285" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E285" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B286" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C286" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D286" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E286" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B287" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C287" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D287" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E287" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B288" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C288" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D288" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E288" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B289" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C289" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D289" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E289" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B290" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C290" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D290" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B291" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C291" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D291" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E291" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B292" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C292" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D292" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E292" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B293" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C293" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D293" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B294" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C294" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D294" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B295" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C295" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D295" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B296" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C296" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D296" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B297" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C297" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D297" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B298" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C298" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D298" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B299" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C299" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D299" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B300" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C300" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D300" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B301" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C301" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D301" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E301" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B302" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C302" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D302" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E302" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B303" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C303" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D303" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E303" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B304" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C304" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D304" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E304" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B305" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C305" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D305" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E305" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B306" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C306" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D306" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E306" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B307" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C307" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D307" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E307" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C308" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D308" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E308" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C309" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D309" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E309" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C310" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D310" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E310" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B311" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C311" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D311" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E311" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B312" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C312" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D312" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E312" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B313" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C313" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D313" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E313" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B314" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C314" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D314" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E314" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B315" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C315" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D315" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E315" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B316" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C316" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D316" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E316" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B317" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C317" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D317" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E317" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B318" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C318" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D318" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E318" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B319" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C319" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D319" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E319" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B320" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C320" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D320" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E320" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B321" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C321" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D321" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E321" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B322" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C322" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D322" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E322" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B323" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C323" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D323" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E323" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B324" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C324" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D324" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E324" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B325" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C325" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D325" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E325" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B326" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C326" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D326" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E326" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B327" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C327" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D327" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E327" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B328" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C328" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D328" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E328" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B329" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C329" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D329" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E329" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B330" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C330" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D330" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E330" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B331" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C331" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D331" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E331" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B332" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C332" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D332" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E332" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B333" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C333" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D333" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E333" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B334" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C334" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D334" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E334" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B335" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C335" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D335" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E335" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B336" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C336" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D336" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E336" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B337" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C337" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D337" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E337" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B338" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C338" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D338" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E338" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B339" t="s">
+        <v>716</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="D339" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E339" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B340" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C340" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D340" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E340" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B341" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C341" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D341" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B342" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C342" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D342" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B343" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C343" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D343" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B344" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C344" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D344" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E344" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B345" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C345" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D345" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B346" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C346" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D346" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B347" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C347" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D347" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E347" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B348" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C348" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D348" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B349" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C349" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D349" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B350" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C350" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D350" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B351" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C351" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D351" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E351" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B352" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C352" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D352" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B353" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C353" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D353" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E353" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B354" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C354" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D354" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B355" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C355" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D355" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E355" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B356" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C356" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D356" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B357" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C357" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D357" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E357" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B358" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C358" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D358" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E358" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B359" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C359" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D359" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E359" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B360" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C360" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D360" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E360" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B361" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C361" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D361" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E361" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B362" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C362" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D362" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E362" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B363" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C363" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D363" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E363" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B364" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C364" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D364" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E364" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B365" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C365" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D365" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E365" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B366" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C366" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D366" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E366" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B367" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C367" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D367" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E367" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B368" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C368" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D368" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E368" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B369" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C369" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D369" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E369" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D370" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E370" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\BillionPricesCyprusScrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1186D-AE23-40C2-82EB-1C91613839D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913EE4A8-564E-4822-BBF7-829F63FD8575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1491,12 +1491,6 @@
     <t>/products/adidas-men-essentials-single-jersey-big-logo-t-shirt-ic9349</t>
   </si>
   <si>
-    <t>/products/adidas-men-essentials-big-logo-french-terry-shorts-ic9403</t>
-  </si>
-  <si>
-    <t>adidas men essentials big logo french terry shorts (IC9403)</t>
-  </si>
-  <si>
     <t>/products/bdtk-men-walkshort-knee-height-medium-crotch-1231-952404-1231-952404-00503</t>
   </si>
   <si>
@@ -2560,6 +2554,12 @@
   </si>
   <si>
     <t>adidas men club tennis 3-stripes t-shirt (HN3902)</t>
+  </si>
+  <si>
+    <t>/products/adidas-men-future-icons-3-stripes-shorts-ic3752</t>
+  </si>
+  <si>
+    <t>adidas men future icons 3-stripes shorts (IC3752)</t>
   </si>
 </sst>
 </file>
@@ -2959,7 +2959,7 @@
   <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" zoomScale="56" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2999,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -3016,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -3033,7 +3033,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -3050,7 +3050,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -3067,7 +3067,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -3084,7 +3084,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -3098,10 +3098,10 @@
         <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -3115,10 +3115,10 @@
         <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -3132,10 +3132,10 @@
         <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -3149,10 +3149,10 @@
         <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3166,10 +3166,10 @@
         <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D12" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -3183,10 +3183,10 @@
         <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -3200,10 +3200,10 @@
         <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -3217,10 +3217,10 @@
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -3234,10 +3234,10 @@
         <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -3251,10 +3251,10 @@
         <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D17" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -3268,10 +3268,10 @@
         <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D18" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -3285,10 +3285,10 @@
         <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -3302,10 +3302,10 @@
         <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D20" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -3319,10 +3319,10 @@
         <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D21" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -3336,10 +3336,10 @@
         <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -3353,10 +3353,10 @@
         <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D23" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -3367,13 +3367,13 @@
         <v>407</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -3387,10 +3387,10 @@
         <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D25" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -3404,10 +3404,10 @@
         <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D26" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -3421,10 +3421,10 @@
         <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -3438,10 +3438,10 @@
         <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D28" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -3449,16 +3449,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D29" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -3472,10 +3472,10 @@
         <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
@@ -3489,10 +3489,10 @@
         <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -3506,10 +3506,10 @@
         <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D32" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -3523,10 +3523,10 @@
         <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D33" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
@@ -3540,10 +3540,10 @@
         <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D34" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
@@ -3557,10 +3557,10 @@
         <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D35" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -3574,10 +3574,10 @@
         <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D36" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
@@ -3591,10 +3591,10 @@
         <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D37" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
@@ -3608,10 +3608,10 @@
         <v>405</v>
       </c>
       <c r="C38" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D38" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
@@ -3628,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -3645,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -3679,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
@@ -3696,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
@@ -3713,7 +3713,7 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
@@ -3730,7 +3730,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
@@ -3747,7 +3747,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -3764,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
@@ -3778,10 +3778,10 @@
         <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D48" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
@@ -3795,10 +3795,10 @@
         <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D49" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
@@ -3812,10 +3812,10 @@
         <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D50" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
@@ -3829,10 +3829,10 @@
         <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D51" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
@@ -3846,10 +3846,10 @@
         <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D52" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
@@ -3863,10 +3863,10 @@
         <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D53" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
@@ -3880,10 +3880,10 @@
         <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D54" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
@@ -3897,10 +3897,10 @@
         <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D55" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
@@ -3914,10 +3914,10 @@
         <v>258</v>
       </c>
       <c r="C56" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D56" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
@@ -3931,10 +3931,10 @@
         <v>254</v>
       </c>
       <c r="C57" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D57" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
@@ -3948,10 +3948,10 @@
         <v>257</v>
       </c>
       <c r="C58" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D58" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
@@ -3965,10 +3965,10 @@
         <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D59" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
@@ -3982,10 +3982,10 @@
         <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D60" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
@@ -3999,10 +3999,10 @@
         <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D61" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
@@ -4016,10 +4016,10 @@
         <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D62" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
@@ -4033,10 +4033,10 @@
         <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D63" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
@@ -4050,10 +4050,10 @@
         <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D64" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
@@ -4067,10 +4067,10 @@
         <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D65" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
@@ -4084,10 +4084,10 @@
         <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D66" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D67" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
@@ -4118,10 +4118,10 @@
         <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D68" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
@@ -4135,10 +4135,10 @@
         <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D69" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -4152,10 +4152,10 @@
         <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D70" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
@@ -4169,10 +4169,10 @@
         <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D71" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
@@ -4186,10 +4186,10 @@
         <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D72" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
@@ -4203,10 +4203,10 @@
         <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D73" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
@@ -4220,10 +4220,10 @@
         <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D74" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
@@ -4237,10 +4237,10 @@
         <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D75" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
@@ -4254,10 +4254,10 @@
         <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D76" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -4268,13 +4268,13 @@
         <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C77" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D77" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
@@ -4288,10 +4288,10 @@
         <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D78" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -4305,10 +4305,10 @@
         <v>275</v>
       </c>
       <c r="C79" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D79" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -4322,10 +4322,10 @@
         <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D80" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -4342,7 +4342,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
@@ -4356,10 +4356,10 @@
         <v>299</v>
       </c>
       <c r="C82" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
@@ -4373,10 +4373,10 @@
         <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D83" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -4390,10 +4390,10 @@
         <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D84" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
@@ -4407,10 +4407,10 @@
         <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
@@ -4424,10 +4424,10 @@
         <v>301</v>
       </c>
       <c r="C86" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D86" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
@@ -4441,10 +4441,10 @@
         <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D87" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
@@ -4458,10 +4458,10 @@
         <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D88" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
@@ -4475,10 +4475,10 @@
         <v>288</v>
       </c>
       <c r="C89" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D89" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
@@ -4492,10 +4492,10 @@
         <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D90" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -4509,10 +4509,10 @@
         <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D91" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
@@ -4526,10 +4526,10 @@
         <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D92" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
@@ -4543,10 +4543,10 @@
         <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D93" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
@@ -4560,10 +4560,10 @@
         <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D94" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
@@ -4577,10 +4577,10 @@
         <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D95" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
@@ -4594,10 +4594,10 @@
         <v>281</v>
       </c>
       <c r="C96" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D96" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
@@ -4611,10 +4611,10 @@
         <v>282</v>
       </c>
       <c r="C97" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D97" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
@@ -4622,16 +4622,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C98" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D98" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
@@ -4645,10 +4645,10 @@
         <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D99" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
@@ -4662,10 +4662,10 @@
         <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D100" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
@@ -4679,10 +4679,10 @@
         <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D101" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
@@ -4696,10 +4696,10 @@
         <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D102" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
@@ -4713,10 +4713,10 @@
         <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D103" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
@@ -4730,10 +4730,10 @@
         <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D104" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
@@ -4747,10 +4747,10 @@
         <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D105" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
@@ -4764,10 +4764,10 @@
         <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D106" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
@@ -4781,10 +4781,10 @@
         <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D107" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
@@ -4798,10 +4798,10 @@
         <v>314</v>
       </c>
       <c r="C108" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D108" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
@@ -4815,10 +4815,10 @@
         <v>313</v>
       </c>
       <c r="C109" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D109" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
@@ -4832,10 +4832,10 @@
         <v>317</v>
       </c>
       <c r="C110" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D110" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
@@ -4849,10 +4849,10 @@
         <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D111" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
@@ -4866,10 +4866,10 @@
         <v>315</v>
       </c>
       <c r="C112" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D112" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
@@ -4883,10 +4883,10 @@
         <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D113" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
@@ -4900,10 +4900,10 @@
         <v>319</v>
       </c>
       <c r="C114" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D114" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
@@ -4917,10 +4917,10 @@
         <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D115" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
@@ -4934,10 +4934,10 @@
         <v>322</v>
       </c>
       <c r="C116" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D116" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
@@ -4951,10 +4951,10 @@
         <v>321</v>
       </c>
       <c r="C117" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D117" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E117" t="s">
         <v>30</v>
@@ -4968,10 +4968,10 @@
         <v>397</v>
       </c>
       <c r="C118" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D118" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E118" t="s">
         <v>30</v>
@@ -4985,10 +4985,10 @@
         <v>304</v>
       </c>
       <c r="C119" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D119" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E119" t="s">
         <v>30</v>
@@ -5002,10 +5002,10 @@
         <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D120" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E120" t="s">
         <v>30</v>
@@ -5019,10 +5019,10 @@
         <v>306</v>
       </c>
       <c r="C121" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E121" t="s">
         <v>30</v>
@@ -5036,10 +5036,10 @@
         <v>307</v>
       </c>
       <c r="C122" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D122" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E122" t="s">
         <v>30</v>
@@ -5053,10 +5053,10 @@
         <v>309</v>
       </c>
       <c r="C123" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D123" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E123" t="s">
         <v>30</v>
@@ -5070,10 +5070,10 @@
         <v>311</v>
       </c>
       <c r="C124" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D124" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E124" t="s">
         <v>30</v>
@@ -5087,10 +5087,10 @@
         <v>310</v>
       </c>
       <c r="C125" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D125" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E125" t="s">
         <v>30</v>
@@ -5104,10 +5104,10 @@
         <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D126" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E126" t="s">
         <v>30</v>
@@ -5121,10 +5121,10 @@
         <v>387</v>
       </c>
       <c r="C127" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D127" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E127" t="s">
         <v>30</v>
@@ -5138,10 +5138,10 @@
         <v>403</v>
       </c>
       <c r="C128" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D128" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E128" t="s">
         <v>30</v>
@@ -5155,10 +5155,10 @@
         <v>383</v>
       </c>
       <c r="C129" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D129" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E129" t="s">
         <v>30</v>
@@ -5172,10 +5172,10 @@
         <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D130" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E130" t="s">
         <v>30</v>
@@ -5189,10 +5189,10 @@
         <v>384</v>
       </c>
       <c r="C131" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D131" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E131" t="s">
         <v>30</v>
@@ -5209,7 +5209,7 @@
         <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E132" t="s">
         <v>30</v>
@@ -5223,10 +5223,10 @@
         <v>326</v>
       </c>
       <c r="C133" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D133" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E133" t="s">
         <v>30</v>
@@ -5240,10 +5240,10 @@
         <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D134" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E134" t="s">
         <v>30</v>
@@ -5257,10 +5257,10 @@
         <v>329</v>
       </c>
       <c r="C135" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D135" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E135" t="s">
         <v>30</v>
@@ -5274,10 +5274,10 @@
         <v>328</v>
       </c>
       <c r="C136" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D136" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E136" t="s">
         <v>30</v>
@@ -5291,10 +5291,10 @@
         <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D137" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E137" t="s">
         <v>30</v>
@@ -5308,10 +5308,10 @@
         <v>325</v>
       </c>
       <c r="C138" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D138" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E138" t="s">
         <v>30</v>
@@ -5319,16 +5319,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C139" t="s">
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E139" t="s">
         <v>30</v>
@@ -5345,7 +5345,7 @@
         <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E140" t="s">
         <v>30</v>
@@ -5359,10 +5359,10 @@
         <v>332</v>
       </c>
       <c r="C141" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D141" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E141" t="s">
         <v>30</v>
@@ -5376,10 +5376,10 @@
         <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D142" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E142" t="s">
         <v>30</v>
@@ -5393,10 +5393,10 @@
         <v>339</v>
       </c>
       <c r="C143" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D143" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E143" t="s">
         <v>30</v>
@@ -5410,10 +5410,10 @@
         <v>337</v>
       </c>
       <c r="C144" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D144" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E144" t="s">
         <v>30</v>
@@ -5427,10 +5427,10 @@
         <v>336</v>
       </c>
       <c r="C145" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D145" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E145" t="s">
         <v>30</v>
@@ -5444,10 +5444,10 @@
         <v>334</v>
       </c>
       <c r="C146" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D146" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E146" t="s">
         <v>30</v>
@@ -5461,10 +5461,10 @@
         <v>335</v>
       </c>
       <c r="C147" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D147" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E147" t="s">
         <v>30</v>
@@ -5478,10 +5478,10 @@
         <v>331</v>
       </c>
       <c r="C148" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D148" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E148" t="s">
         <v>30</v>
@@ -5495,10 +5495,10 @@
         <v>338</v>
       </c>
       <c r="C149" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D149" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E149" t="s">
         <v>30</v>
@@ -5512,10 +5512,10 @@
         <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D150" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E150" t="s">
         <v>30</v>
@@ -5529,10 +5529,10 @@
         <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D151" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E151" t="s">
         <v>30</v>
@@ -5540,16 +5540,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C152" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D152" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E152" t="s">
         <v>30</v>
@@ -5563,10 +5563,10 @@
         <v>343</v>
       </c>
       <c r="C153" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D153" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E153" t="s">
         <v>30</v>
@@ -5580,10 +5580,10 @@
         <v>346</v>
       </c>
       <c r="C154" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D154" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
@@ -5597,10 +5597,10 @@
         <v>349</v>
       </c>
       <c r="C155" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D155" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E155" t="s">
         <v>30</v>
@@ -5614,10 +5614,10 @@
         <v>348</v>
       </c>
       <c r="C156" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D156" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E156" t="s">
         <v>30</v>
@@ -5628,13 +5628,13 @@
         <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C157" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D157" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -5648,10 +5648,10 @@
         <v>341</v>
       </c>
       <c r="C158" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D158" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E158" t="s">
         <v>30</v>
@@ -5665,10 +5665,10 @@
         <v>347</v>
       </c>
       <c r="C159" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D159" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E159" t="s">
         <v>30</v>
@@ -5682,10 +5682,10 @@
         <v>340</v>
       </c>
       <c r="C160" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D160" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E160" t="s">
         <v>30</v>
@@ -5702,7 +5702,7 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E161" t="s">
         <v>30</v>
@@ -5716,10 +5716,10 @@
         <v>351</v>
       </c>
       <c r="C162" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D162" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E162" t="s">
         <v>30</v>
@@ -5733,10 +5733,10 @@
         <v>352</v>
       </c>
       <c r="C163" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D163" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E163" t="s">
         <v>30</v>
@@ -5750,10 +5750,10 @@
         <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D164" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E164" t="s">
         <v>30</v>
@@ -5767,10 +5767,10 @@
         <v>357</v>
       </c>
       <c r="C165" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D165" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E165" t="s">
         <v>30</v>
@@ -5784,10 +5784,10 @@
         <v>356</v>
       </c>
       <c r="C166" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D166" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E166" t="s">
         <v>30</v>
@@ -5801,10 +5801,10 @@
         <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D167" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E167" t="s">
         <v>30</v>
@@ -5818,10 +5818,10 @@
         <v>353</v>
       </c>
       <c r="C168" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D168" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E168" t="s">
         <v>30</v>
@@ -5829,16 +5829,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C169" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D169" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E169" t="s">
         <v>30</v>
@@ -5852,10 +5852,10 @@
         <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D170" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E170" t="s">
         <v>30</v>
@@ -5872,7 +5872,7 @@
         <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E171" t="s">
         <v>30</v>
@@ -5889,7 +5889,7 @@
         <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E172" t="s">
         <v>30</v>
@@ -5906,7 +5906,7 @@
         <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E173" t="s">
         <v>30</v>
@@ -5920,10 +5920,10 @@
         <v>366</v>
       </c>
       <c r="C174" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D174" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E174" t="s">
         <v>30</v>
@@ -5940,7 +5940,7 @@
         <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E175" t="s">
         <v>30</v>
@@ -5957,7 +5957,7 @@
         <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E176" t="s">
         <v>30</v>
@@ -5971,10 +5971,10 @@
         <v>367</v>
       </c>
       <c r="C177" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D177" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E177" t="s">
         <v>30</v>
@@ -5988,10 +5988,10 @@
         <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D178" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E178" t="s">
         <v>30</v>
@@ -6005,10 +6005,10 @@
         <v>408</v>
       </c>
       <c r="C179" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D179" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E179" t="s">
         <v>30</v>
@@ -6022,10 +6022,10 @@
         <v>409</v>
       </c>
       <c r="C180" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D180" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E180" t="s">
         <v>30</v>
@@ -6039,10 +6039,10 @@
         <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D181" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E181" t="s">
         <v>30</v>
@@ -6056,10 +6056,10 @@
         <v>369</v>
       </c>
       <c r="C182" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D182" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E182" t="s">
         <v>30</v>
@@ -6073,10 +6073,10 @@
         <v>302</v>
       </c>
       <c r="C183" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D183" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E183" t="s">
         <v>30</v>
@@ -6090,10 +6090,10 @@
         <v>303</v>
       </c>
       <c r="C184" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D184" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E184" t="s">
         <v>30</v>
@@ -6107,10 +6107,10 @@
         <v>396</v>
       </c>
       <c r="C185" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D185" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E185" t="s">
         <v>30</v>
@@ -6124,10 +6124,10 @@
         <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D186" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E186" t="s">
         <v>30</v>
@@ -6141,10 +6141,10 @@
         <v>389</v>
       </c>
       <c r="C187" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D187" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E187" t="s">
         <v>30</v>
@@ -6158,10 +6158,10 @@
         <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D188" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E188" t="s">
         <v>30</v>
@@ -6175,10 +6175,10 @@
         <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D189" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E189" t="s">
         <v>30</v>
@@ -6192,10 +6192,10 @@
         <v>391</v>
       </c>
       <c r="C190" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D190" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E190" t="s">
         <v>30</v>
@@ -6209,10 +6209,10 @@
         <v>394</v>
       </c>
       <c r="C191" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D191" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E191" t="s">
         <v>30</v>
@@ -6226,10 +6226,10 @@
         <v>393</v>
       </c>
       <c r="C192" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D192" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E192" t="s">
         <v>30</v>
@@ -6243,10 +6243,10 @@
         <v>371</v>
       </c>
       <c r="C193" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D193" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E193" t="s">
         <v>30</v>
@@ -6260,10 +6260,10 @@
         <v>373</v>
       </c>
       <c r="C194" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D194" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E194" t="s">
         <v>30</v>
@@ -6277,10 +6277,10 @@
         <v>372</v>
       </c>
       <c r="C195" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D195" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E195" t="s">
         <v>30</v>
@@ -6294,10 +6294,10 @@
         <v>374</v>
       </c>
       <c r="C196" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D196" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E196" t="s">
         <v>30</v>
@@ -6311,10 +6311,10 @@
         <v>370</v>
       </c>
       <c r="C197" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D197" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E197" t="s">
         <v>30</v>
@@ -6331,7 +6331,7 @@
         <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E198" t="s">
         <v>30</v>
@@ -6348,7 +6348,7 @@
         <v>27</v>
       </c>
       <c r="D199" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E199" t="s">
         <v>30</v>
@@ -6365,7 +6365,7 @@
         <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E200" t="s">
         <v>30</v>
@@ -6379,10 +6379,10 @@
         <v>379</v>
       </c>
       <c r="C201" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D201" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E201" t="s">
         <v>30</v>
@@ -6396,10 +6396,10 @@
         <v>376</v>
       </c>
       <c r="C202" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D202" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E202" t="s">
         <v>30</v>
@@ -6413,10 +6413,10 @@
         <v>375</v>
       </c>
       <c r="C203" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D203" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E203" t="s">
         <v>30</v>
@@ -6430,10 +6430,10 @@
         <v>377</v>
       </c>
       <c r="C204" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D204" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E204" t="s">
         <v>30</v>
@@ -6447,10 +6447,10 @@
         <v>378</v>
       </c>
       <c r="C205" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D205" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E205" t="s">
         <v>30</v>
@@ -6464,10 +6464,10 @@
         <v>380</v>
       </c>
       <c r="C206" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D206" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
@@ -6484,7 +6484,7 @@
         <v>28</v>
       </c>
       <c r="D207" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E207" t="s">
         <v>30</v>
@@ -6501,7 +6501,7 @@
         <v>423</v>
       </c>
       <c r="D208" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E208" t="s">
         <v>414</v>
@@ -6518,7 +6518,7 @@
         <v>423</v>
       </c>
       <c r="D209" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E209" t="s">
         <v>414</v>
@@ -6535,7 +6535,7 @@
         <v>423</v>
       </c>
       <c r="D210" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E210" t="s">
         <v>414</v>
@@ -6552,7 +6552,7 @@
         <v>424</v>
       </c>
       <c r="D211" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E211" t="s">
         <v>414</v>
@@ -6569,7 +6569,7 @@
         <v>424</v>
       </c>
       <c r="D212" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E212" t="s">
         <v>414</v>
@@ -6586,7 +6586,7 @@
         <v>425</v>
       </c>
       <c r="D213" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E213" t="s">
         <v>414</v>
@@ -6603,7 +6603,7 @@
         <v>425</v>
       </c>
       <c r="D214" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E214" t="s">
         <v>414</v>
@@ -6620,7 +6620,7 @@
         <v>425</v>
       </c>
       <c r="D215" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E215" t="s">
         <v>414</v>
@@ -6637,7 +6637,7 @@
         <v>426</v>
       </c>
       <c r="D216" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E216" t="s">
         <v>414</v>
@@ -6654,7 +6654,7 @@
         <v>427</v>
       </c>
       <c r="D217" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E217" t="s">
         <v>414</v>
@@ -6671,7 +6671,7 @@
         <v>428</v>
       </c>
       <c r="D218" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E218" t="s">
         <v>414</v>
@@ -6688,7 +6688,7 @@
         <v>427</v>
       </c>
       <c r="D219" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E219" t="s">
         <v>414</v>
@@ -6705,7 +6705,7 @@
         <v>428</v>
       </c>
       <c r="D220" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E220" t="s">
         <v>414</v>
@@ -6722,7 +6722,7 @@
         <v>429</v>
       </c>
       <c r="D221" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E221" t="s">
         <v>414</v>
@@ -6739,7 +6739,7 @@
         <v>430</v>
       </c>
       <c r="D222" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E222" t="s">
         <v>414</v>
@@ -6747,16 +6747,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B223" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C223" t="s">
         <v>431</v>
       </c>
       <c r="D223" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E223" t="s">
         <v>414</v>
@@ -6773,7 +6773,7 @@
         <v>431</v>
       </c>
       <c r="D224" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E224" t="s">
         <v>414</v>
@@ -6790,7 +6790,7 @@
         <v>423</v>
       </c>
       <c r="D225" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E225" t="s">
         <v>456</v>
@@ -6807,7 +6807,7 @@
         <v>423</v>
       </c>
       <c r="D226" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E226" t="s">
         <v>456</v>
@@ -6824,7 +6824,7 @@
         <v>423</v>
       </c>
       <c r="D227" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E227" t="s">
         <v>456</v>
@@ -6841,7 +6841,7 @@
         <v>423</v>
       </c>
       <c r="D228" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E228" t="s">
         <v>456</v>
@@ -6858,7 +6858,7 @@
         <v>424</v>
       </c>
       <c r="D229" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E229" t="s">
         <v>456</v>
@@ -6875,7 +6875,7 @@
         <v>424</v>
       </c>
       <c r="D230" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E230" t="s">
         <v>456</v>
@@ -6883,16 +6883,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B231" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C231" t="s">
         <v>425</v>
       </c>
       <c r="D231" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E231" t="s">
         <v>456</v>
@@ -6900,16 +6900,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B232" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C232" t="s">
         <v>425</v>
       </c>
       <c r="D232" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E232" t="s">
         <v>456</v>
@@ -6926,7 +6926,7 @@
         <v>425</v>
       </c>
       <c r="D233" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E233" t="s">
         <v>456</v>
@@ -6934,16 +6934,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B234" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C234" t="s">
         <v>425</v>
       </c>
       <c r="D234" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E234" t="s">
         <v>456</v>
@@ -6960,7 +6960,7 @@
         <v>425</v>
       </c>
       <c r="D235" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E235" t="s">
         <v>456</v>
@@ -6977,7 +6977,7 @@
         <v>426</v>
       </c>
       <c r="D236" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E236" t="s">
         <v>456</v>
@@ -6994,7 +6994,7 @@
         <v>427</v>
       </c>
       <c r="D237" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E237" t="s">
         <v>456</v>
@@ -7011,7 +7011,7 @@
         <v>427</v>
       </c>
       <c r="D238" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E238" t="s">
         <v>456</v>
@@ -7019,16 +7019,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B239" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C239" t="s">
         <v>428</v>
       </c>
       <c r="D239" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E239" t="s">
         <v>456</v>
@@ -7045,7 +7045,7 @@
         <v>428</v>
       </c>
       <c r="D240" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E240" t="s">
         <v>456</v>
@@ -7053,16 +7053,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B241" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C241" t="s">
         <v>457</v>
       </c>
       <c r="D241" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E241" t="s">
         <v>456</v>
@@ -7079,7 +7079,7 @@
         <v>423</v>
       </c>
       <c r="D242" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E242" t="s">
         <v>482</v>
@@ -7087,16 +7087,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B243" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C243" t="s">
         <v>423</v>
       </c>
       <c r="D243" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E243" t="s">
         <v>482</v>
@@ -7104,16 +7104,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>486</v>
+        <v>841</v>
       </c>
       <c r="B244" t="s">
-        <v>485</v>
+        <v>840</v>
       </c>
       <c r="C244" t="s">
         <v>423</v>
       </c>
       <c r="D244" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E244" t="s">
         <v>482</v>
@@ -7121,16 +7121,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C245" t="s">
         <v>423</v>
       </c>
       <c r="D245" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E245" t="s">
         <v>482</v>
@@ -7138,16 +7138,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C246" t="s">
         <v>424</v>
       </c>
       <c r="D246" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E246" t="s">
         <v>482</v>
@@ -7155,16 +7155,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B247" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C247" t="s">
         <v>424</v>
       </c>
       <c r="D247" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E247" t="s">
         <v>482</v>
@@ -7172,16 +7172,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B248" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C248" t="s">
         <v>425</v>
       </c>
       <c r="D248" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E248" t="s">
         <v>482</v>
@@ -7189,16 +7189,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B249" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C249" t="s">
         <v>425</v>
       </c>
       <c r="D249" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E249" t="s">
         <v>482</v>
@@ -7206,16 +7206,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B250" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C250" t="s">
         <v>425</v>
       </c>
       <c r="D250" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E250" t="s">
         <v>482</v>
@@ -7223,16 +7223,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B251" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C251" t="s">
         <v>425</v>
       </c>
       <c r="D251" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E251" t="s">
         <v>482</v>
@@ -7240,16 +7240,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B252" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C252" t="s">
         <v>426</v>
       </c>
       <c r="D252" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E252" t="s">
         <v>482</v>
@@ -7257,16 +7257,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B253" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C253" t="s">
         <v>426</v>
       </c>
       <c r="D253" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E253" t="s">
         <v>482</v>
@@ -7274,16 +7274,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B254" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C254" t="s">
         <v>427</v>
       </c>
       <c r="D254" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E254" t="s">
         <v>482</v>
@@ -7291,16 +7291,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B255" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C255" t="s">
         <v>427</v>
       </c>
       <c r="D255" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E255" t="s">
         <v>482</v>
@@ -7308,16 +7308,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B256" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C256" t="s">
         <v>428</v>
       </c>
       <c r="D256" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E256" t="s">
         <v>482</v>
@@ -7325,16 +7325,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B257" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C257" t="s">
         <v>428</v>
       </c>
       <c r="D257" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E257" t="s">
         <v>482</v>
@@ -7342,16 +7342,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B258" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C258" t="s">
         <v>457</v>
       </c>
       <c r="D258" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E258" t="s">
         <v>482</v>
@@ -7359,16 +7359,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B259" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C259" t="s">
         <v>457</v>
       </c>
       <c r="D259" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E259" t="s">
         <v>482</v>
@@ -7376,16 +7376,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B260" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C260" t="s">
         <v>457</v>
       </c>
       <c r="D260" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E260" t="s">
         <v>482</v>
@@ -7393,1863 +7393,1863 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B261" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C261" t="s">
         <v>423</v>
       </c>
       <c r="D261" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E261" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B262" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C262" t="s">
         <v>423</v>
       </c>
       <c r="D262" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E262" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B263" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C263" t="s">
         <v>423</v>
       </c>
       <c r="D263" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E263" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B264" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C264" t="s">
         <v>423</v>
       </c>
       <c r="D264" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E264" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B265" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C265" t="s">
         <v>424</v>
       </c>
       <c r="D265" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E265" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B266" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C266" t="s">
         <v>424</v>
       </c>
       <c r="D266" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E266" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B267" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C267" t="s">
         <v>425</v>
       </c>
       <c r="D267" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E267" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B268" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C268" t="s">
         <v>425</v>
       </c>
       <c r="D268" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E268" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B269" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C269" t="s">
         <v>425</v>
       </c>
       <c r="D269" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E269" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B270" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C270" t="s">
         <v>425</v>
       </c>
       <c r="D270" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E270" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B271" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C271" t="s">
         <v>425</v>
       </c>
       <c r="D271" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E271" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B272" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C272" t="s">
         <v>426</v>
       </c>
       <c r="D272" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E272" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B273" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C273" t="s">
         <v>427</v>
       </c>
       <c r="D273" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E273" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B274" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C274" t="s">
         <v>427</v>
       </c>
       <c r="D274" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E274" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B275" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C275" t="s">
         <v>428</v>
       </c>
       <c r="D275" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E275" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B276" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C276" t="s">
         <v>428</v>
       </c>
       <c r="D276" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E276" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B277" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C277" t="s">
         <v>457</v>
       </c>
       <c r="D277" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E277" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B278" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C278" t="s">
         <v>457</v>
       </c>
       <c r="D278" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E278" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B279" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C279" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D279" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E279" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B280" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C280" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D280" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E280" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B281" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C281" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D281" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E281" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B282" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C282" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D282" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E282" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B283" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C283" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D283" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E283" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B284" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C284" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D284" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E284" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B285" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C285" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D285" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E285" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B286" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C286" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D286" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E286" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B287" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C287" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D287" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E287" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B288" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C288" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D288" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E288" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B289" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C289" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D289" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B290" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C290" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D290" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E290" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B291" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C291" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E291" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B292" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C292" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D292" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B293" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C293" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B294" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C294" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D294" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B295" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C295" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D295" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B296" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C296" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B297" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C297" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D297" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B298" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C298" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D298" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B299" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C299" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D299" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B300" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C300" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D300" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B301" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C301" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D301" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E301" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B302" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C302" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D302" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E302" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B303" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C303" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D303" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E303" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B304" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C304" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D304" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E304" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B305" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C305" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D305" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E305" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B306" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C306" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D306" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E306" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B307" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C307" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D307" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E307" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B308" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C308" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D308" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E308" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B309" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C309" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D309" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E309" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B310" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C310" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D310" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E310" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B311" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C311" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D311" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E311" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B312" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C312" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D312" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E312" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B313" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C313" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D313" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E313" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B314" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C314" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D314" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E314" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B315" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C315" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D315" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E315" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B316" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C316" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D316" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E316" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B317" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C317" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D317" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E317" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B318" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C318" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D318" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E318" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B319" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C319" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D319" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E319" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B320" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C320" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D320" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E320" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B321" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C321" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D321" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E321" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B322" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C322" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D322" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E322" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B323" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C323" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D323" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E323" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B324" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C324" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D324" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E324" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B325" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C325" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D325" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E325" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B326" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C326" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D326" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E326" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B327" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C327" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D327" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E327" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B328" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C328" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D328" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E328" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B329" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C329" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D329" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E329" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B330" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C330" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D330" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E330" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B331" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C331" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D331" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E331" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B332" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C332" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D332" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E332" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B333" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C333" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D333" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E333" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B334" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C334" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D334" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E334" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B335" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C335" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D335" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E335" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B336" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C336" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D336" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E336" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B337" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C337" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D337" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E337" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B338" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C338" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D338" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E338" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B339" t="s">
+        <v>714</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>718</v>
-      </c>
       <c r="D339" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E339" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B340" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C340" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D340" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E340" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B341" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C341" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D341" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B342" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C342" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D342" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B343" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C343" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D343" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E343" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B344" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C344" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D344" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B345" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C345" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D345" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B346" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C346" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D346" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E346" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B347" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C347" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D347" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B348" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C348" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D348" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B349" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C349" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D349" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B350" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C350" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D350" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E350" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B351" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C351" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D351" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B352" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C352" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D352" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E352" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B353" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C353" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D353" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B354" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C354" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D354" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E354" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B355" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C355" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D355" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E355" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B356" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C356" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D356" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E356" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B357" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C357" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D357" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E357" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B358" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C358" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D358" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E358" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B359" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C359" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D359" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E359" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B360" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C360" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D360" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E360" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B361" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C361" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D361" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E361" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B362" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C362" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D362" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E362" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B363" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C363" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D363" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E363" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B364" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C364" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D364" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E364" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B365" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C365" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D365" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E365" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B366" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C366" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D366" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E366" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B367" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C367" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D367" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E367" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B368" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C368" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D368" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E368" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B369" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C369" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D369" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E369" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D370" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E370" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\BillionPricesCyprusScrape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\Python Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913EE4A8-564E-4822-BBF7-829F63FD8575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4582452-AAFA-42CF-A08E-6B4DBB3125FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="842">
   <si>
     <t>item.name</t>
   </si>
@@ -2956,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="56" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="56" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7444,13 +7444,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B264" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C264" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D264" t="s">
         <v>803</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B265" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C265" t="s">
         <v>424</v>
@@ -7478,13 +7478,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>525</v>
+        <v>823</v>
       </c>
       <c r="B266" t="s">
-        <v>526</v>
+        <v>824</v>
       </c>
       <c r="C266" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D266" t="s">
         <v>803</v>
@@ -7495,10 +7495,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>823</v>
+        <v>528</v>
       </c>
       <c r="B267" t="s">
-        <v>824</v>
+        <v>527</v>
       </c>
       <c r="C267" t="s">
         <v>425</v>
@@ -7512,10 +7512,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B268" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C268" t="s">
         <v>425</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B269" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C269" t="s">
         <v>425</v>
@@ -7546,10 +7546,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B270" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C270" t="s">
         <v>425</v>
@@ -7563,13 +7563,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B271" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C271" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D271" t="s">
         <v>803</v>
@@ -7580,13 +7580,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B272" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C272" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D272" t="s">
         <v>803</v>
@@ -7597,10 +7597,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B273" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C273" t="s">
         <v>427</v>
@@ -7614,13 +7614,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>539</v>
+        <v>833</v>
       </c>
       <c r="B274" t="s">
-        <v>540</v>
+        <v>832</v>
       </c>
       <c r="C274" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D274" t="s">
         <v>803</v>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>833</v>
+        <v>541</v>
       </c>
       <c r="B275" t="s">
-        <v>832</v>
+        <v>542</v>
       </c>
       <c r="C275" t="s">
         <v>428</v>
@@ -7648,13 +7648,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B276" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C276" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="D276" t="s">
         <v>803</v>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B277" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C277" t="s">
         <v>457</v>
@@ -7682,27 +7682,27 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="B278" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C278" t="s">
-        <v>457</v>
+        <v>553</v>
       </c>
       <c r="D278" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E278" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B279" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C279" t="s">
         <v>553</v>
@@ -7716,13 +7716,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B280" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C280" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D280" t="s">
         <v>804</v>
@@ -7733,10 +7733,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B281" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C281" t="s">
         <v>554</v>
@@ -7750,10 +7750,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B282" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C282" t="s">
         <v>554</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B283" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C283" t="s">
         <v>554</v>
@@ -7784,13 +7784,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B284" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C284" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D284" t="s">
         <v>804</v>
@@ -7801,13 +7801,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B285" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C285" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D285" t="s">
         <v>804</v>
@@ -7818,27 +7818,27 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B286" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="C286" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="D286" t="s">
         <v>804</v>
       </c>
       <c r="E286" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B287" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C287" t="s">
         <v>574</v>
@@ -7852,13 +7852,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B288" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C288" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="D288" t="s">
         <v>804</v>
@@ -7869,10 +7869,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B289" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C289" t="s">
         <v>554</v>
@@ -7886,13 +7886,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B290" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C290" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="D290" t="s">
         <v>804</v>
@@ -7903,10 +7903,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B291" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C291" t="s">
         <v>575</v>
@@ -7920,10 +7920,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B292" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C292" t="s">
         <v>575</v>
@@ -7937,10 +7937,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B293" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C293" t="s">
         <v>575</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B294" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C294" t="s">
         <v>575</v>
@@ -7971,10 +7971,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B295" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C295" t="s">
         <v>575</v>
@@ -7988,13 +7988,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B296" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C296" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D296" t="s">
         <v>804</v>
@@ -8005,10 +8005,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B297" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C297" t="s">
         <v>555</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B298" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C298" t="s">
         <v>555</v>
@@ -8039,13 +8039,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B299" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C299" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D299" t="s">
         <v>804</v>
@@ -8056,27 +8056,27 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="B300" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="C300" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="D300" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B301" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C301" t="s">
         <v>605</v>
@@ -8090,10 +8090,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B302" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C302" t="s">
         <v>605</v>
@@ -8107,13 +8107,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B303" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C303" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D303" t="s">
         <v>805</v>
@@ -8124,10 +8124,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B304" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C304" t="s">
         <v>606</v>
@@ -8141,13 +8141,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B305" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C305" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D305" t="s">
         <v>805</v>
@@ -8158,10 +8158,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B306" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C306" t="s">
         <v>607</v>
@@ -8175,13 +8175,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B307" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C307" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D307" t="s">
         <v>805</v>
@@ -8192,13 +8192,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B308" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C308" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D308" t="s">
         <v>805</v>
@@ -8209,13 +8209,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B309" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C309" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D309" t="s">
         <v>805</v>
@@ -8226,13 +8226,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B310" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C310" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D310" t="s">
         <v>805</v>
@@ -8243,10 +8243,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B311" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C311" t="s">
         <v>611</v>
@@ -8260,10 +8260,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B312" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C312" t="s">
         <v>611</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B313" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C313" t="s">
         <v>611</v>
@@ -8294,13 +8294,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B314" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C314" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D314" t="s">
         <v>805</v>
@@ -8311,13 +8311,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B315" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C315" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D315" t="s">
         <v>805</v>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B316" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C316" t="s">
         <v>613</v>
@@ -8345,16 +8345,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B317" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C317" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D317" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E317" t="s">
         <v>604</v>
@@ -8362,10 +8362,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B318" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C318" t="s">
         <v>614</v>
@@ -8379,10 +8379,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B319" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C319" t="s">
         <v>614</v>
@@ -8396,16 +8396,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B320" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C320" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D320" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E320" t="s">
         <v>604</v>
@@ -8413,13 +8413,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B321" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C321" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D321" t="s">
         <v>807</v>
@@ -8430,10 +8430,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C322" t="s">
         <v>616</v>
@@ -8447,13 +8447,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C323" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D323" t="s">
         <v>807</v>
@@ -8464,13 +8464,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C324" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D324" t="s">
         <v>807</v>
@@ -8481,13 +8481,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B325" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C325" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D325" t="s">
         <v>807</v>
@@ -8498,10 +8498,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B326" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C326" t="s">
         <v>619</v>
@@ -8515,10 +8515,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B327" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C327" t="s">
         <v>619</v>
@@ -8532,13 +8532,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B328" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="C328" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D328" t="s">
         <v>807</v>
@@ -8549,13 +8549,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B329" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C329" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D329" t="s">
         <v>807</v>
@@ -8566,13 +8566,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B330" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C330" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D330" t="s">
         <v>807</v>
@@ -8583,13 +8583,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B331" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="C331" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D331" t="s">
         <v>807</v>
@@ -8600,13 +8600,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B332" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C332" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D332" t="s">
         <v>807</v>
@@ -8617,13 +8617,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B333" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C333" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D333" t="s">
         <v>807</v>
@@ -8634,16 +8634,16 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B334" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C334" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D334" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E334" t="s">
         <v>604</v>
@@ -8651,10 +8651,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B335" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C335" t="s">
         <v>626</v>
@@ -8668,10 +8668,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B336" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C336" t="s">
         <v>626</v>
@@ -8685,10 +8685,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B337" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C337" t="s">
         <v>626</v>
@@ -8702,13 +8702,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
       <c r="B338" t="s">
-        <v>712</v>
-      </c>
-      <c r="C338" t="s">
-        <v>626</v>
+        <v>714</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="D338" t="s">
         <v>808</v>
@@ -8719,13 +8719,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="B339" t="s">
-        <v>714</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
+      </c>
+      <c r="C339" t="s">
+        <v>627</v>
       </c>
       <c r="D339" t="s">
         <v>808</v>
@@ -8736,27 +8736,27 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
       <c r="B340" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C340" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="D340" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E340" t="s">
-        <v>604</v>
+        <v>667</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B341" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C341" t="s">
         <v>668</v>
@@ -8770,13 +8770,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B342" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C342" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D342" t="s">
         <v>805</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B343" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C343" t="s">
         <v>669</v>
@@ -8804,13 +8804,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B344" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C344" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D344" t="s">
         <v>805</v>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B345" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C345" t="s">
         <v>670</v>
@@ -8838,10 +8838,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B346" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C346" t="s">
         <v>670</v>
@@ -8855,10 +8855,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B347" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C347" t="s">
         <v>670</v>
@@ -8872,10 +8872,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B348" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="C348" t="s">
         <v>670</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B349" t="s">
-        <v>825</v>
+        <v>728</v>
       </c>
       <c r="C349" t="s">
         <v>670</v>
@@ -8906,13 +8906,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B350" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C350" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D350" t="s">
         <v>805</v>
@@ -8923,10 +8923,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B351" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C351" t="s">
         <v>671</v>
@@ -8940,10 +8940,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B352" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C352" t="s">
         <v>671</v>
@@ -8957,13 +8957,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B353" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C353" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D353" t="s">
         <v>805</v>
@@ -8974,10 +8974,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B354" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C354" t="s">
         <v>672</v>
@@ -8991,10 +8991,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B355" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C355" t="s">
         <v>672</v>
@@ -9008,13 +9008,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B356" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C356" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D356" t="s">
         <v>805</v>
@@ -9025,10 +9025,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B357" t="s">
-        <v>735</v>
+        <v>835</v>
       </c>
       <c r="C357" t="s">
         <v>673</v>
@@ -9042,16 +9042,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B358" t="s">
-        <v>835</v>
+        <v>736</v>
       </c>
       <c r="C358" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D358" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E358" t="s">
         <v>667</v>
@@ -9059,10 +9059,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B359" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C359" t="s">
         <v>674</v>
@@ -9076,10 +9076,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B360" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C360" t="s">
         <v>674</v>
@@ -9093,13 +9093,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B361" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C361" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D361" t="s">
         <v>807</v>
@@ -9110,10 +9110,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B362" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C362" t="s">
         <v>675</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B363" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C363" t="s">
         <v>675</v>
@@ -9144,13 +9144,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B364" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C364" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D364" t="s">
         <v>807</v>
@@ -9161,10 +9161,10 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>770</v>
+        <v>834</v>
       </c>
       <c r="B365" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C365" t="s">
         <v>676</v>
@@ -9178,13 +9178,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>834</v>
+        <v>771</v>
       </c>
       <c r="B366" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C366" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D366" t="s">
         <v>807</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B367" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C367" t="s">
         <v>677</v>
@@ -9212,10 +9212,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>772</v>
+        <v>837</v>
       </c>
       <c r="B368" t="s">
-        <v>740</v>
+        <v>836</v>
       </c>
       <c r="C368" t="s">
         <v>677</v>
@@ -9227,16 +9227,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>837</v>
-      </c>
-      <c r="B369" t="s">
-        <v>836</v>
-      </c>
-      <c r="C369" t="s">
-        <v>677</v>
-      </c>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D369" t="s">
         <v>807</v>
       </c>
@@ -9244,49 +9235,41 @@
         <v>667</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D370" t="s">
-        <v>807</v>
-      </c>
-      <c r="E370" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B373" s="4"/>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B384" s="4"/>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B385" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\Python Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\BillionPricesCyprusScrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4582452-AAFA-42CF-A08E-6B4DBB3125FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C1CC75-1E2E-4F89-81EC-507564288493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="842">
   <si>
     <t>item.name</t>
   </si>
@@ -2958,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="56" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="56" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9227,48 +9227,40 @@
         <v>667</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D369" t="s">
-        <v>807</v>
-      </c>
-      <c r="E369" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B384" s="4"/>
     </row>
   </sheetData>

--- a/products_bpp.xlsx
+++ b/products_bpp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\BillionPricesCyprusScrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C1CC75-1E2E-4F89-81EC-507564288493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F253DE-1062-4A45-9AA1-0DC3F3A21B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="843">
   <si>
     <t>item.name</t>
   </si>
@@ -2560,6 +2560,9 @@
   </si>
   <si>
     <t>adidas men future icons 3-stripes shorts (IC3752)</t>
+  </si>
+  <si>
+    <t>adidas women adidas sportswear future icons winners 3.0 t-sh</t>
   </si>
 </sst>
 </file>
@@ -2958,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="56" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="56" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7189,7 +7192,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>491</v>
+        <v>842</v>
       </c>
       <c r="B249" t="s">
         <v>492</v>
